--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -12219,7 +12219,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>88</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -4290,43 +4290,43 @@
     <col min="1" max="1" width="78.8359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="27.47265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="82.3671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="124.42578125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="71.296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="59.37890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="128.4140625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="128.41796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -799,7 +799,7 @@
     <t>active | on-hold | cancelled | completed | entered-in-error | stopped | draft | unknown</t>
   </si>
   <si>
-    <t>JP coreでは"active"に固定される。
+    <t>JP Coreでは"active"に固定される。
 オーダーの現在の状態を示すコード。一般的には active か completed の状態であるだろう。</t>
   </si>
   <si>
@@ -857,7 +857,7 @@
     <t>proposal | plan | order | original-order | reflex-order | filler-order | instance-order | option</t>
   </si>
   <si>
-    <t>JP coreでは "order" に固定される。
+    <t>JP Coreでは "order" に固定される。
 投薬リクエストの意図 が提案(proposal)、計画(plan)、あるいは他の要求によるものかを示す。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -449,7 +449,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Preparation</t>
+    <t>preparation</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDispense_Preparation}
@@ -529,7 +529,7 @@
     <t>ORC-2-Placer Order Number / ORC-3-Filler Order Number</t>
   </si>
   <si>
-    <t>RpNumber</t>
+    <t>rpNumber</t>
   </si>
   <si>
     <t>処方箋内部の剤グループとしてのRp番号</t>
@@ -736,7 +736,7 @@
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
-    <t>OrderInRp</t>
+    <t>orderInRp</t>
   </si>
   <si>
     <t>【JP-CORE】同一RP番号（剤グループ）での薬剤の表記順</t>
@@ -763,7 +763,7 @@
     <t>剤グループ内連番。</t>
   </si>
   <si>
-    <t>RequestIdentifier</t>
+    <t>requestIdentifier</t>
   </si>
   <si>
     <t>処方オーダーに対するID</t>
@@ -1728,7 +1728,20 @@
     <t>MedicationRequest.dosageInstruction.extension</t>
   </si>
   <si>
-    <t>UsageDuration</t>
+    <t>periodOfUse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DosageInstruction_PeriodOfUse}
+</t>
+  </si>
+  <si>
+    <t>投与期間の開始日を明示するための拡張</t>
+  </si>
+  <si>
+    <t>MedcationRequestの投与期間の開始日を明示するための拡張</t>
+  </si>
+  <si>
+    <t>usageDuration</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DosageInstruction_UsageDuration}
@@ -1741,20 +1754,7 @@
     <t>隔日投与などで実投与日数と処方期間が異なる場合に用いられる。</t>
   </si>
   <si>
-    <t>PeriodOfUse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DosageInstruction_PeriodOfUse}
-</t>
-  </si>
-  <si>
-    <t>投与期間の開始日を明示するための拡張</t>
-  </si>
-  <si>
-    <t>MedcationRequestの投与期間の開始日を明示するための拡張</t>
-  </si>
-  <si>
-    <t>Line</t>
+    <t>line</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DosageInstruction_Line}
@@ -1767,7 +1767,7 @@
     <t>投与ラインの情報を記述する拡張。</t>
   </si>
   <si>
-    <t>Device</t>
+    <t>device</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DosageInstruction_Device}
@@ -3367,7 +3367,7 @@
     <t>MedicationRequest.dispenseRequest.extension</t>
   </si>
   <si>
-    <t>InstructionForDispense</t>
+    <t>instructionForDispense</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DispenseRequest_InstructionForDispense}
@@ -3413,7 +3413,7 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t>ExpectedRepeatCount</t>
+    <t>expectedRepeatCount</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DispenseRequest_ExpectedRepeatCount}

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -638,10 +638,10 @@
     <t>MedicationRequest.identifier.system</t>
   </si>
   <si>
-    <t>【JP-CORE】Rp番号(剤グループ番号)についてのsystem値</t>
-  </si>
-  <si>
-    <t>【JP-CORE】ここで付番されたIDがRp番号であることを明示するためにOIDとして定義された。urn:oid:1.2.392.100495.20.3.81で固定される。</t>
+    <t>Rp番号(剤グループ番号)についてのsystem値</t>
+  </si>
+  <si>
+    <t>ここで付番されたIDがRp番号であることを明示するためにOIDとして定義された。urn:oid:1.2.392.100495.20.3.81で固定される。</t>
   </si>
   <si>
     <t>Identifier.system is always case sensitive.</t>
@@ -668,13 +668,13 @@
     <t>MedicationRequest.identifier.value</t>
   </si>
   <si>
-    <t>【JP-CORE】Rp番号(剤グループ番号)</t>
-  </si>
-  <si>
-    <t>【JP-CORE】Rp番号(剤グループ番号)。"1"など。</t>
-  </si>
-  <si>
-    <t>【JP-CORE】value は string型であり、数値はゼロサプレス、つまり、'01'でなく'1'と指定すること。</t>
+    <t>Rp番号(剤グループ番号)</t>
+  </si>
+  <si>
+    <t>Rp番号(剤グループ番号)。"1"など。</t>
+  </si>
+  <si>
+    <t>value は string型であり、数値はゼロサプレス、つまり、'01'でなく'1'と指定すること。</t>
   </si>
   <si>
     <t>123456</t>
@@ -739,16 +739,16 @@
     <t>orderInRp</t>
   </si>
   <si>
-    <t>【JP-CORE】同一RP番号（剤グループ）での薬剤の表記順</t>
-  </si>
-  <si>
-    <t>【JP-CORE】同一剤グループでの薬剤を表記する際の順番。XML形式と異なりJSON形式の場合、表記順は項目の順序を意味しない。したがって、薬剤の記載順を別に規定する必要があるためIDを用いて表現する。</t>
-  </si>
-  <si>
-    <t>【JP-CORE】同一剤グループ内での薬剤の順番を1から順の番号で示す。</t>
-  </si>
-  <si>
-    <t>【JP-CORE】RP番号内（剤グループ内）の連番を示すsystem値</t>
+    <t>同一RP番号（剤グループ）での薬剤の表記順</t>
+  </si>
+  <si>
+    <t>同一剤グループでの薬剤を表記する際の順番。XML形式と異なりJSON形式の場合、表記順は項目の順序を意味しない。したがって、薬剤の記載順を別に規定する必要があるためIDを用いて表現する。</t>
+  </si>
+  <si>
+    <t>同一剤グループ内での薬剤の順番を1から順の番号で示す。</t>
+  </si>
+  <si>
+    <t>RP番号内（剤グループ内）の連番を示すsystem値</t>
   </si>
   <si>
     <t>剤グループ内番号の名前空間を識別するURI。固定値urn:oid:1.2.392.100495.20.3.82</t>
@@ -757,7 +757,7 @@
     <t>urn:oid:1.2.392.100495.20.3.82</t>
   </si>
   <si>
-    <t>【JP-CORE】RP番号内（剤グループ内）の連番</t>
+    <t>RP番号内（剤グループ内）の連番</t>
   </si>
   <si>
     <t>剤グループ内連番。</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -1849,10 +1849,10 @@
     <t>MedicationRequest.dosageInstruction.additionalInstruction</t>
   </si>
   <si>
-    <t>患者に対する補足指示や注意。たとえば、「食事と一緒に」「眠くなることがあります」</t>
-  </si>
-  <si>
-    <t>どのように薬剤を内服するかについての患者への補足指示（たとえば、「食事と一緒に」や「30分から1時間前に内服」）や薬剤についての注意書き（たとえば、「眠くなることがあります」や「日光や紫外線が皮膚にあたららないようにすること」）</t>
+    <t>患者に対する補足指示や注意。たとえば、「食事と一緒に」「眠くなることがある」</t>
+  </si>
+  <si>
+    <t>どのように薬剤を内服するかについての患者への補足指示（たとえば、「食事と一緒に」や「30分から1時間前に内服」）や薬剤についての注意書き（たとえば、「眠くなることがある」や「日光や紫外線が皮膚にあたららないようにすること」）</t>
   </si>
   <si>
     <t>薬剤投与や調剤についての情報（たとえば、「腹膜内ポートに可能な限り迅速に注入」や「薬剤Xの直後に」）であり、dosage.textにも複製されるべきである。</t>
@@ -2489,7 +2489,7 @@
     <t>BID | TID | QID | AM | PM | QD | QOD | +</t>
   </si>
   <si>
-    <t>スケジュール上のタイミングを表すコード（あるいはcode.text内のテキスト）。BID(1日2回)のようなコードはどこにでもあるが、多くの医療機関は付加的なコードを定義している。もし、コードが示されていれば、構造化されたタイミングで完全に示されたデータであると解釈され、コードまたはTimingを解釈するためのデータであると解釈される。しかし、例外的に.repeat.bounds（コードは含まれません)はコードを上書きして適用される。</t>
+    <t>スケジュール上のタイミングを表すコード（あるいはcode.text内のテキスト）。BID(1日2回)のようなコードはどこにでもあるが、多くの医療機関は付加的なコードを定義している。もし、コードが示されていれば、構造化されたタイミングで完全に示されたデータであると解釈され、コードまたはTimingを解釈するためのデータであると解釈される。しかし、例外的に.repeat.bounds（コードは含まれない)はコードを上書きして適用される。</t>
   </si>
   <si>
     <t>BIDなどは「施設特有の時間」として定義される。たとえば、施設がBIDを「つねに朝7時と夕方6時」であると指定することがある。この指定が不適切であれば、BIDというコードは使うべきではない。その代わり、HL7が定義したBIDのコードではなく、その施設特有のコードで明示的に示すべきであり、構造化された表現を使うべきである（この場合、2回のイベントの時刻を指定する必要がある）。</t>
@@ -2938,7 +2938,7 @@
     <t>1回投与量</t>
   </si>
   <si>
-    <t>この量は指定された薬剤の量を指定するものであって、各有効成分の量を指定するものではない。各成分の量はMedication resourceで伝えることができる。たとえば、有効成分が375mgである錠剤を1錠投与することを伝えたい場合、Medication resourceを利用して、XYZ成分が375mg含有しているという錠剤であることを文書化することができる。あるいは1回投与量が375mgであることを伝えるのであれば、Medication resourceをつかって単にそれが錠剤であることを示せばよい。もし、ドーパミンの静注を例に挙げて、400mgのドーパミンを500mlの注射溶液に混ぜて使うことを伝えたいのであれば、それをすべてMedication resourceで伝えることができる。もし、投与について即時に伝達することを意図していない（たとえば投与速度が示されていたり、投与時期に範囲があるような場合）のであれば、たとえば1回500mlを4時間以上かけて投与する予定を伝える場合にもMecication resourceで伝えることができます。</t>
+    <t>この量は指定された薬剤の量を指定するものであって、各有効成分の量を指定するものではない。各成分の量はMedication resourceで伝えることができる。たとえば、有効成分が375mgである錠剤を1錠投与することを伝えたい場合、Medication resourceを利用して、XYZ成分が375mg含有しているという錠剤であることを文書化することができる。あるいは1回投与量が375mgであることを伝えるのであれば、Medication resourceをつかって単にそれが錠剤であることを示せばよい。もし、ドーパミンの静注を例に挙げて、400mgのドーパミンを500mlの注射溶液に混ぜて使うことを伝えたいのであれば、それをすべてMedication resourceで伝えることができる。もし、投与について即時に伝達することを意図していない（たとえば投与速度が示されていたり、投与時期に範囲があるような場合）のであれば、たとえば1回500mlを4時間以上かけて投与する予定を伝える場合にもMecication resourceで伝えることができる。</t>
   </si>
   <si>
     <t>The amount of therapeutic or other substance given at one administration event.</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -3625,13 +3625,13 @@
     <t>MedicationRequest.dispenseRequest.numberOfRepeatsAllowed</t>
   </si>
   <si>
-    <t>許可された払い出し回数</t>
-  </si>
-  <si>
-    <t>最初の払い出しに追加で許可された払い出し回数（リフィル、日本では分割処方であるが制度的に一致しない)を示す整数であり、患者が処方された薬を受け取ることができる回数である。使用上の注意：この整数には最初の払い出しが含まれない。オーダーが「30錠に加えて3回繰り返し調剤可」であれば、このオーダーで合計4回、120錠が患者に受け渡される。処方者は0回のリフィルが許可されていると示すことで、初回の払い出し以外を認めないことを明示することができる。</t>
-  </si>
-  <si>
-    <t>もし、許可された払い出し回数を表示するのであれば、この数字に1を足すこと。</t>
+    <t>許可されたリフィル回数</t>
+  </si>
+  <si>
+    <t>リフィル回数を示す整数である。患者が処方された薬を最初の払い出しから追加で受け取ることができる回数である。使用上の注意：この整数には最初の払い出しが含まれない。オーダーが「30錠に加えて3回リフィル可」であれば、このオーダーで合計で最大4回、120錠が患者に受け渡される。この数字を0とすることで，処方者がリフィルを許可しないということを明示することができる。</t>
+  </si>
+  <si>
+    <t>許可された払い出し回数は，最大でこの数字に1を足したものである。</t>
   </si>
   <si>
     <t>Message/Body/NewRx/MedicationPrescribed/Quantity</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12440" uniqueCount="1280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12439" uniqueCount="1280">
   <si>
     <t>Property</t>
   </si>
@@ -4211,9 +4211,7 @@
       <c r="A13" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>22</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>
@@ -265,8 +265,8 @@
     <t>患者への薬の供給と内服指示を共に提供するオーダ。ケアプランやワークフローパターンとハーモナイズし、入院や外来でも使えるようにするため、このリソースは"MedicationPrescription"や"MedicationOrder"ではなく、"MedicationRequest"と呼ばれる。</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Request</t>
@@ -291,13 +291,13 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>このアーティファクトの論理ID / Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>リソースのURLで使用されるリソースの論理ID。割り当てられたら、この値は変更されません。 / The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>リソースにIDがないのは、IDが作成操作を使用してサーバーに送信されている場合です。 / The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -310,16 +310,16 @@
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>リソースに関するメタデータ / Metadata about the resource</t>
+  </si>
+  <si>
+    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -330,13 +330,13 @@
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -349,19 +349,19 @@
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>リソースコンテンツの言語 / Language of the resource content</t>
+  </si>
+  <si>
+    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>A human language.</t>
+    <t>人間の言語。 / A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -381,13 +381,13 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>人間の解釈のためのリソースのテキスト概要 / Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>含まれるリソースには叙述(Narative)がありません。含まれていないリソースには叙述(Narative)が必要です。場合によっては、リソースには、追加の個別のデータがほとんどまたはまったくないテキストのみがあります（すべてのMinoccur = 1要素が満たされている限り）。これは、情報がtext blob (バイナリー ラージ オブジェクト)としてキャプチャされるレガシーシステムからのデータ、またはテキストが生またはナレーションされ、エンコードされた情報が後で追加される場合に必要になる場合があります。 / Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -407,13 +407,13 @@
 </t>
   </si>
   <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>インラインリソースが含まれています / Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -445,8 +445,8 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>preparation</t>
@@ -473,17 +473,18 @@
 user content</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -544,10 +545,10 @@
     <t>MedicationRequest.identifier.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -559,10 +560,10 @@
     <t>MedicationRequest.identifier.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -574,22 +575,22 @@
     <t>MedicationRequest.identifier.use</t>
   </si>
   <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+    <t>通常|公式|温度|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>この識別子の目的。 / The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>アプリケーションは、識別子が一時的なものであると明示的に言っていない限り、永続的であると想定できます。 / Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>特定の使用のコンテキストが一連の識別子の中から選択される適切な識別子を許可します。 / Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
+    <t>既知の場合、この識別子の目的を識別します。 / Identifies the purpose for this identifier, if known .</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
@@ -608,22 +609,22 @@
 </t>
   </si>
   <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+    <t>識別子の説明 / Description of identifier</t>
+  </si>
+  <si>
+    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>この要素は、識別子の一般的なカテゴリのみを扱います。識別子。システムに対応するコードに使用しないでください。一部の識別子は、一般的な使用法により複数のカテゴリに分類される場合があります。システムがわかっている場合、タイプは常にシステム定義の一部であるため、タイプは不要です。ただし、システムが不明な識別子を処理する必要があることがよくあります。多くの異なるシステムが同じタイプを持っているため、タイプとシステムの間に1：1の関係はありません。 / This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>識別子システムが不明な場合、ユーザーは識別子を使用できます。 / Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
@@ -644,10 +645,10 @@
     <t>ここで付番されたIDがRp番号であることを明示するためにOIDとして定義された。urn:oid:1.2.392.100495.20.3.81で固定される。</t>
   </si>
   <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+    <t>識別子。システムは常にケースに敏感です。 / Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>識別子のセットがたくさんあります。2つの識別子を一致させるには、どのセットを扱っているかを知る必要があります。システムは、特定の一意の識別子セットを識別します。 / There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.100495.20.3.81</t>
@@ -696,10 +697,10 @@
 </t>
   </si>
   <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
+    <t>IDが使用に有効だった時間期間 / Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>識別子が使用される/有効な期間。 / Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
     <t>Identifier.period</t>
@@ -718,13 +719,13 @@
 </t>
   </si>
   <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+    <t>IDを発行した組織（単なるテキストである可能性があります） / Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>識別子を発行/管理する組織。 / Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>識別子は、.reference要素を省略し、割り当て組織に関する名前またはその他のテキスト情報を反映した.display要素のみを含む場合があります。 / The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
   </si>
   <si>
     <t>Identifier.assigner</t>
@@ -772,31 +773,31 @@
     <t>薬剤をオーダーする単位としての処方箋に対するID。MedicationRequestは単一の薬剤でインスタンスが作成されるが、それの集合としての処方箋のID。</t>
   </si>
   <si>
-    <t>This is a business identifier, not a resource identifier.</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+    <t>これはビジネス識別子であり、リソース識別子ではありません。 / This is a business identifier, not a resource identifier.</t>
+  </si>
+  <si>
+    <t>識別子値の名前空間 / The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>値の名前空間、つまり一意のセット値を記述するURLを確立します。 / Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Common/IdSystem/resourceInstance-identifier</t>
   </si>
   <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>一意の値 / The value that is unique</t>
+  </si>
+  <si>
+    <t>通常、識別子の部分はユーザーに関連し、システムのコンテキスト内で一意のユーザーに関連しています。 / The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>値が完全なURIの場合、システムはurn：ietf：rfc：3986でなければなりません。値の主な目的は、計算マッピングです。その結果、比較目的で正規化される可能性があります（例えば、有意でない白文字、ダッシュなどの削除）ヒューマンディスプレイ用の値は、[レンダリングされた値拡張]（拡張レンダリングValue.html）を使用して伝達できます。識別子。価値は、識別子の知識を使用しない限り、ケースに敏感なものとして扱われます。システムにより、プロセッサーは、非セイズに固有の処理が安全であると確信できます。 / If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>MedicationRequest.status</t>
   </si>
   <si>
-    <t>active | on-hold | cancelled | completed | entered-in-error | stopped | draft | unknown</t>
+    <t>アクティブ|オンホールド|キャンセル|完了|エラーに入った|停止|ドラフト|わからない / active | on-hold | cancelled | completed | entered-in-error | stopped | draft | unknown</t>
   </si>
   <si>
     <t>JP Coreでは"active"に固定される。
@@ -806,7 +807,7 @@
     <t>このエレメントはmodifierとされている。StatusとはこのResourceが現在妥当な状態ではないことも示すからである。</t>
   </si>
   <si>
-    <t>A coded concept specifying the state of the prescribing event. Describes the lifecycle of the prescription.</t>
+    <t>処方イベントの状態を指定するコード化された概念。処方箋のライフサイクルについて説明します。 / A coded concept specifying the state of the prescribing event. Describes the lifecycle of the prescription.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationrequest-status|4.0.1</t>
@@ -839,7 +840,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>Identifies the reasons for a given status.</t>
+    <t>特定のステータスの理由を特定します。 / Identifies the reasons for a given status.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationrequest-status-reason</t>
@@ -854,7 +855,7 @@
     <t>MedicationRequest.intent</t>
   </si>
   <si>
-    <t>proposal | plan | order | original-order | reflex-order | filler-order | instance-order | option</t>
+    <t>提案|計画|注文|オリジナルオーダー|反射順|フィラーオーダー|インスタンスオーダー|オプション / proposal | plan | order | original-order | reflex-order | filler-order | instance-order | option</t>
   </si>
   <si>
     <t>JP Coreでは "order" に固定される。
@@ -870,7 +871,7 @@
     <t>order</t>
   </si>
   <si>
-    <t>The kind of medication order.</t>
+    <t>種類の薬順。 / The kind of medication order.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationrequest-intent|4.0.1</t>
@@ -919,7 +920,7 @@
     <t>MedicationRequest.priority</t>
   </si>
   <si>
-    <t>routine | urgent | asap | stat</t>
+    <t>ルーチン|緊急|できるだけ早く|統計 / routine | urgent | asap | stat</t>
   </si>
   <si>
     <t>このMedicatinRequestオーダーの優先度。他のオーダーと比較して表現される。</t>
@@ -928,7 +929,7 @@
     <t>FHIRでは文字列の大きさが1MBを超えてはならない(SHALL NOT)。</t>
   </si>
   <si>
-    <t>Identifies the level of importance to be assigned to actioning the request.</t>
+    <t>リクエストの実行に割り当てられる重要性のレベルを特定します。 / Identifies the level of importance to be assigned to actioning the request.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
@@ -985,16 +986,16 @@
 Reference</t>
   </si>
   <si>
-    <t>Medication to be taken</t>
-  </si>
-  <si>
-    <t>Identifies the medication being requested. This is a link to a resource that represents the medication which may be the details of the medication or simply an attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the Medication resource is recommended.  For example, if you require form or lot number or if the medication is compounded or extemporaneously prepared, then you must reference the Medication resource.</t>
-  </si>
-  <si>
-    <t>A coded concept identifying substance or product that can be ordered.</t>
+    <t>服用する薬 / Medication to be taken</t>
+  </si>
+  <si>
+    <t>要求されている薬を特定します。これは、薬物の詳細である可能性のある薬物療法を表すリソースへのリンク、または単に既知の薬物のリストから薬物を識別するコードを運ぶ属性です。 / Identifies the medication being requested. This is a link to a resource that represents the medication which may be the details of the medication or simply an attribute carrying a code that identifies the medication from a known list of medications.</t>
+  </si>
+  <si>
+    <t>コードのみが指定されている場合、特定の製品のコードである必要があります。より多くの情報が必要な場合は、投薬リソースの使用をお勧めします。たとえば、フォームまたはロット番号が必要な場合、または薬物療法が複合または延長された場合は、薬リソースを参照する必要があります。 / If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the Medication resource is recommended.  For example, if you require form or lot number or if the medication is compounded or extemporaneously prepared, then you must reference the Medication resource.</t>
+  </si>
+  <si>
+    <t>注文できる物質または製品を識別するコード化された概念。 / A coded concept identifying substance or product that can be ordered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
@@ -1063,7 +1064,7 @@
 【JP-CORE】Medication要素の説明を参照のこと。</t>
   </si>
   <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+    <t>コードシステム内の代替エンコーディング、および他のコードシステムへの翻訳が可能になります。 / Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -1084,16 +1085,16 @@
     <t>MedicationRequest.medication[x].coding.system</t>
   </si>
   <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+    <t>用語システムのアイデンティティ / Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>コード内のシンボルの意味を定義するコードシステムの識別。 / The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>uriは、oid（urn：oid：...）またはuuid（urn：uuid：...）である場合があります。OIDとUUIDは、HL7 OIDレジストリへの参照となります。それ以外の場合、URIは、FHIRの特別なURIを定義したHL7のリストから来るか、システムを明確かつ明確に確立する定義を参照する必要があります。 / The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -1108,13 +1109,13 @@
     <t>MedicationRequest.medication[x].coding.version</t>
   </si>
   <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+    <t>システムのバージョン - 関連する場合 / Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>このコードを選択するときに使用されたコードシステムのバージョン。コードの意味がバージョン全体で一貫しているため、適切にメンテナンスしたコードシステムでは報告されたバージョンを必要としないことに注意してください。ただし、これは一貫して保証することはできず、意味が一貫していることが保証されていない場合、バージョンを交換する必要があります。 / The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>用語がコードシステムバージョンを識別するために使用する文字列を明確に定義していない場合、推奨は、そのバージョンがバージョンの日付として公式に公開された日付（FHIR日付形式で表現）を使用することです。 / Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
   </si>
   <si>
     <t>Coding.version</t>
@@ -1129,13 +1130,13 @@
     <t>MedicationRequest.medication[x].coding.code</t>
   </si>
   <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
+    <t>システムによって定義された構文のシンボル / Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>システムによって定義された構文のシンボル。シンボルは、定義されたコードまたはコーディングシステムによって定義された構文の式（例：調整後）である場合があります。 / A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>システム内の特定のコードを参照する必要があります。 / Need to refer to a particular code in the system.</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -1150,13 +1151,13 @@
     <t>MedicationRequest.medication[x].coding.display</t>
   </si>
   <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+    <t>システムによって定義された表現 / Representation defined by the system</t>
+  </si>
+  <si>
+    <t>システムのルールに従って、システム内のコードの意味の表現。 / A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>システムを知らない読者のために、コードの人間の読み取り可能な意味を持ち込むことができる必要があります。 / Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
   </si>
   <si>
     <t>Coding.display</t>
@@ -1177,7 +1178,7 @@
     <t>ユーザーが直接コーディングしたかどうかを示す。たとえば、有効な項目のリスト（コードか表現）から選択したかどうか。</t>
   </si>
   <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+    <t>これは、臨床安全基準として特定されています - この正確なシステム/コードペアは、いくつかのルールまたは言語処理に基づいてシステムによって推測されるのではなく、明示的に選択されたことです。 / This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
   </si>
   <si>
     <t>Coding.userSelected</t>
@@ -1201,7 +1202,7 @@
     <t>textエレメントはcodingのdisplayNameエレメントと一致することがよくある。</t>
   </si>
   <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+    <t>用語からのコードは、それらを使用する人間のすべてのニュアンスを使用して、常に正しい意味をキャプチャするとは限りません。または、適切なコードがまったくない場合があります。これらの場合、テキストはソースの完全な意味をキャプチャするために使用されます。 / The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
     <t>CodeableConcept.text</t>
@@ -1301,7 +1302,7 @@
     <t>このelementは参照の対象の型を指定するためのものである。他のElementで指定されていた型であってもなくても指定することができる。場合によっては、対象の型は参照（たとえば、RESTful URL)についての調査により決定されることもあるし、参照の対象から決定されることもある。もし、参照と型のどちらもが指定されていたら、参照は指定された型を決定されるべきである(SHALL)。</t>
   </si>
   <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+    <t>AAリソース（または、論理モデルの場合、論理モデルのURI）。 / Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/resource-types</t>
@@ -1334,13 +1335,13 @@
     <t>MedicationRequest.subject.display</t>
   </si>
   <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+    <t>リソースのテキスト代替 / Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>リソースリファレンスに加えてリソースを識別するプレーンテキストの叙述(Narative)。 / Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>これは通常、参照されるリソースのリソース.textと同じではありません。目的は、参照されているものを完全に説明するのではなく、特定することです。 / This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
   </si>
   <si>
     <t>Reference.display</t>
@@ -1479,7 +1480,7 @@
     <t>Performerを示さずにこのエレメントが指定された場合は、このエレメントは薬剤の投与／管理が指定の職種でなければならないと言うことを示している。Performerと共に指定された場合は、もし指定されたPerformerが実施できない場合に薬剤投与・管理を行うものについての要件が示されたことを意味する。</t>
   </si>
   <si>
-    <t>Identifies the type of individual that is desired to administer the medication.</t>
+    <t>薬を投与することが望まれる個人のタイプを識別します。 / Identifies the type of individual that is desired to administer the medication.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/performer-role</t>
@@ -1524,7 +1525,7 @@
     <t>このエレメントは病名コードであってもよい。もし、すべての条件を示す記録があって他の詳細な記録が必要であれば、reasonReferenceを使用すること。</t>
   </si>
   <si>
-    <t>A coded concept indicating why the medication was ordered.</t>
+    <t>薬が注文された理由を示すコード化された概念。 / A coded concept indicating why the medication was ordered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-code</t>
@@ -1647,7 +1648,7 @@
     <t>この属性は薬剤プロトコールと混同してはならない。</t>
   </si>
   <si>
-    <t>Identifies the overall pattern of medication administratio.</t>
+    <t>投薬投与の全体的なパターンを特定します。 / Identifies the overall pattern of medication administratio.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationrequest-course-of-therapy</t>
@@ -1787,10 +1788,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -1861,7 +1863,7 @@
     <t>補足指示はコード化されるように意図されているが、コードがない場合はエレメントはテキストだけで表現することができる。たとえば、「大量の水で服用する」という指示はコード化されていることもあれば、されていないことおある。</t>
   </si>
   <si>
-    <t>A coded concept identifying additional instructions such as "take with water" or "avoid operating heavy machinery".</t>
+    <t>「水で取る」や「重機の操作を避ける」などの追加の指示を識別するコード化された概念。 / A coded concept identifying additional instructions such as "take with water" or "avoid operating heavy machinery".</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/additional-instruction-codes</t>
@@ -2030,7 +2032,7 @@
     <t>服⽤タイミングを具体的な日時で指定する場合に使⽤する</t>
   </si>
   <si>
-    <t>In a Medication Administration Record, for instance, you need to take a general specification, and turn it into a precise specification.</t>
+    <t>たとえば、投薬投与の記録では、一般的な仕様を取得し、それを正確な仕様に変える必要があります。 / In a Medication Administration Record, for instance, you need to take a general specification, and turn it into a precise specification.</t>
   </si>
   <si>
     <t>Timing.event</t>
@@ -2058,8 +2060,8 @@
     <t>Timing.repeat</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-tim-1:if there's a duration, there needs to be duration units {duration.empty() or durationUnit.exists()}tim-2:if there's a period, there needs to be period units {period.empty() or periodUnit.exists()}tim-4:duration SHALL be a non-negative value {duration.exists() implies duration &gt;= 0}tim-5:period SHALL be a non-negative value {period.exists() implies period &gt;= 0}tim-6:If there's a periodMax, there must be a period {periodMax.empty() or period.exists()}tim-7:If there's a durationMax, there must be a duration {durationMax.empty() or duration.exists()}tim-8:If there's a countMax, there must be a count {countMax.empty() or count.exists()}tim-9:If there's an offset, there must be a when (and not C, CM, CD, CV) {offset.empty() or (when.exists() and ((when in ('C' | 'CM' | 'CD' | 'CV')).not()))}tim-10:If there's a timeOfDay, there cannot be a when, or vice versa {timeOfDay.empty() or when.empty()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+tim-1:期間がある場合は、期間単位が必要です / if there's a duration, there needs to be duration units {duration.empty() or durationUnit.exists()}tim-2:期間がある場合、期間単位が必要です / if there's a period, there needs to be period units {period.empty() or periodUnit.exists()}tim-4:期間は非陰性価値です / duration SHALL be a non-negative value {duration.exists() implies duration &gt;= 0}tim-5:期間は非陰性の価値です / period SHALL be a non-negative value {period.exists() implies period &gt;= 0}tim-6:期間がある場合、期間がなければなりません / If there's a periodMax, there must be a period {periodMax.empty() or period.exists()}tim-7:Hurtermaxがある場合、期間がなければなりません / If there's a durationMax, there must be a duration {durationMax.empty() or duration.exists()}tim-8:countmaxがある場合、カウントが必要です / If there's a countMax, there must be a count {countMax.empty() or count.exists()}tim-9:オフセットがある場合、c、cm、cd、cvではなく（c、cvではない）存在する必要があります。 / If there's an offset, there must be a when (and not C, CM, CD, CV) {offset.empty() or (when.exists() and ((when in ('C' | 'CM' | 'CD' | 'CV')).not()))}tim-10:時間がある場合、いつ、またはその逆もありません / If there's a timeOfDay, there cannot be a when, or vice versa {timeOfDay.empty() or when.empty()}</t>
   </si>
   <si>
     <t>Implies PIVL or EIVL</t>
@@ -2097,10 +2099,10 @@
 </t>
   </si>
   <si>
-    <t>Length/Range of lengths, or (Start and/or end) limits</t>
-  </si>
-  <si>
-    <t>Either a duration for the length of the timing schedule, a range of possible length, or outer bounds for start and/or end limits of the timing schedule.</t>
+    <t>長さ/長さの範囲、または（開始および/または終了）制限 / Length/Range of lengths, or (Start and/or end) limits</t>
+  </si>
+  <si>
+    <t>タイミングスケジュールの長さの期間、可能な長さの範囲、またはタイミングスケジュールの開始および/または終了制限の外側の境界のいずれか。 / Either a duration for the length of the timing schedule, a range of possible length, or outer bounds for start and/or end limits of the timing schedule.</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.timing.repeat.bounds[x].id</t>
@@ -2119,10 +2121,10 @@
     <t>投薬日数</t>
   </si>
   <si>
-    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
-  </si>
-  <si>
-    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+    <t>値の暗黙の精度は常に尊重されるべきです。金銭的価値には、精度を処理するための独自のルールがあります（標準的な会計の教科書を参照）。 / The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>精度は、測定のほとんどすべての場合に暗黙的に処理されます。 / Precision is handled implicitly in almost all cases of measurement.</t>
   </si>
   <si>
     <t>Quantity.value</t>
@@ -2137,19 +2139,19 @@
     <t>MedicationRequest.dosageInstruction.timing.repeat.bounds[x].comparator</t>
   </si>
   <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
-  </si>
-  <si>
-    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
-  </si>
-  <si>
-    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
-  </si>
-  <si>
-    <t>If there is no comparator, then there is no modification of the value</t>
-  </si>
-  <si>
-    <t>How the Quantity should be understood and represented.</t>
+    <t>&lt;|&lt;= |&gt; = |&gt;  - 価値を理解する方法 / &lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>値をどのように理解し、表現する必要があるか - 測定の問題により実際の値が記載されている値よりも大きいか小さいかどうか。例えばコンパレータが「&lt;」の場合、実際の値は&lt;stated値です。 / How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
+  </si>
+  <si>
+    <t>測定方法の制限があるため、値が&lt;5ug/Lまたは&gt; 400mg/Lの測定値を処理するためのフレームワークが必要です。 / Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>コンパレータがない場合、値の変更はありません / If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>量を理解し、表現する方法。 / How the Quantity should be understood and represented.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
@@ -2173,7 +2175,7 @@
     <t>投薬日数の単位文字列。日で固定される</t>
   </si>
   <si>
-    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+    <t>測定単位には多くの表現があり、多くのコンテキストでは、特定の表現が固定され、必要です。すなわちマイクログラム用MCG。 / There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
   </si>
   <si>
     <t>日</t>
@@ -2197,7 +2199,7 @@
     <t>単位コード UCUMを識別するURI。固定値。</t>
   </si>
   <si>
-    <t>Need to know the system that defines the coded form of the unit.</t>
+    <t>ユニットのコード化された形式を定義するシステムを知る必要があります。 / Need to know the system that defines the coded form of the unit.</t>
   </si>
   <si>
     <t>http://unitsofmeasure.org</t>
@@ -2222,10 +2224,10 @@
     <t>単位コードUCUMにおける投与日数の単位。dで固定される。</t>
   </si>
   <si>
-    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
-  </si>
-  <si>
-    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+    <t>優先システムはUCUMですが、スノムCTは（慣習ユニットに）または通貨にISO 4217を使用することもできます。使用のコンテキストには、特定のシステムからのコードがさらに必要になる場合があります。 / The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>すべてのフォームに固定されたユニットの計算可能な形式が必要です。UCUMはこれを数量で提供しますが、Snomed CTは多くの関心のある単位を提供します。 / Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
   </si>
   <si>
     <t>d</t>
@@ -2253,7 +2255,7 @@
     <t>回数に上限、下限の範囲がある場合は、このcountで示される回数が起きるまでは、エレメントは範囲の中にあると解釈されるべきである。</t>
   </si>
   <si>
-    <t>Repetitions may be limited by end time or total occurrences.</t>
+    <t>繰り返しは、終了時間または合計発生によって制限される場合があります。 / Repetitions may be limited by end time or total occurrences.</t>
   </si>
   <si>
     <t>Timing.repeat.count</t>
@@ -2313,13 +2315,13 @@
     <t>MedicationRequest.dosageInstruction.timing.repeat.durationUnit</t>
   </si>
   <si>
-    <t>s | min | h | d | wk | mo | a - unit of time (UCUM)</t>
+    <t>s |min |h |d |wk |mo |A-時間単位（ucum） / s | min | h | d | wk | mo | a - unit of time (UCUM)</t>
   </si>
   <si>
     <t>UCUM単位で表される継続時間についての単位。</t>
   </si>
   <si>
-    <t>A unit of time (units from UCUM).</t>
+    <t>時間単位（UCUMからの単位）。 / A unit of time (units from UCUM).</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/units-of-time|4.0.1</t>
@@ -2343,7 +2345,7 @@
     <t>32ビットの数値。もし、値がそれを上回るようであればdecimalを使用する。</t>
   </si>
   <si>
-    <t>If no frequency is stated, the assumption is that the event occurs once per period, but systems SHOULD always be specific about this</t>
+    <t>頻度が記載されていない場合、イベントは期間ごとに1回発生するという仮定ですが、システムは常にこれについて具体的でなければなりません / If no frequency is stated, the assumption is that the event occurs once per period, but systems SHOULD always be specific about this</t>
   </si>
   <si>
     <t>Timing.repeat.frequency</t>
@@ -2403,7 +2405,7 @@
     <t>MedicationRequest.dosageInstruction.timing.repeat.dayOfWeek</t>
   </si>
   <si>
-    <t>mon | tue | wed | thu | fri | sat | sun</t>
+    <t>月|火|水|木|金|土|太陽 / mon | tue | wed | thu | fri | sat | sun</t>
   </si>
   <si>
     <t>期間として1週間以上が指定されていれば、指定された曜日のみで投与が行われる。</t>
@@ -2452,7 +2454,7 @@
     <t>タイミングはしばしば起床や食事、睡眠などのできごとによってしばしば決定されている。</t>
   </si>
   <si>
-    <t>Real world event relating to the schedule.</t>
+    <t>スケジュールに関連する現実世界のイベント。 / Real world event relating to the schedule.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/event-timing|4.0.1</t>
@@ -2486,7 +2488,7 @@
     <t>MedicationRequest.dosageInstruction.timing.code</t>
   </si>
   <si>
-    <t>BID | TID | QID | AM | PM | QD | QOD | +</t>
+    <t>入札|TID |QID |AM |PM |QD |qod |+ / BID | TID | QID | AM | PM | QD | QOD | +</t>
   </si>
   <si>
     <t>スケジュール上のタイミングを表すコード（あるいはcode.text内のテキスト）。BID(1日2回)のようなコードはどこにでもあるが、多くの医療機関は付加的なコードを定義している。もし、コードが示されていれば、構造化されたタイミングで完全に示されたデータであると解釈され、コードまたはTimingを解釈するためのデータであると解釈される。しかし、例外的に.repeat.bounds（コードは含まれない)はコードを上書きして適用される。</t>
@@ -2495,7 +2497,7 @@
     <t>BIDなどは「施設特有の時間」として定義される。たとえば、施設がBIDを「つねに朝7時と夕方6時」であると指定することがある。この指定が不適切であれば、BIDというコードは使うべきではない。その代わり、HL7が定義したBIDのコードではなく、その施設特有のコードで明示的に示すべきであり、構造化された表現を使うべきである（この場合、2回のイベントの時刻を指定する必要がある）。</t>
   </si>
   <si>
-    <t>Code for a known / defined timing pattern.</t>
+    <t>既知 /定義されたタイミングパターンのコード。 / Code for a known / defined timing pattern.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/timing-abbreviation</t>
@@ -2517,7 +2519,7 @@
 Medication(薬剤)が必要なときに指定された量とスケジュールのみで内服するか（Booleanで選択される）、内服する前提条件(CodeableConcept)を示している。</t>
   </si>
   <si>
-    <t>Can express "as needed" without a reason by setting the Boolean = True.  In this case the CodeableConcept is not populated.  Or you can express "as needed" with a reason by including the CodeableConcept.  In this case the Boolean is assumed to be True.  If you set the Boolean to False, then the dose is given according to the schedule and is not "prn" or "as needed".</t>
+    <t>boolean = trueを設定することにより、理由なしに「必要に応じて」表現できます。この場合、codeableconceptは存在しません。または、Codeableconceptを含めることにより、「必要に応じて」理由で「必要に応じて」表現することができます。この場合、ブール値は真であると想定されています。ブール値をfalseに設定すると、用量はスケジュールに従って与えられ、「PRN」または「必要に応じて」ではありません。 / Can express "as needed" without a reason by setting the Boolean = True.  In this case the CodeableConcept is not populated.  Or you can express "as needed" with a reason by including the CodeableConcept.  In this case the Boolean is assumed to be True.  If you set the Boolean to False, then the dose is given according to the schedule and is not "prn" or "as needed".</t>
   </si>
   <si>
     <t>Dosage.asNeeded[x]</t>
@@ -2541,10 +2543,10 @@
     <t>もし、BodySite resourceの属性が必要な場合(たとえば、部位の指定や別々に投与経路を設定する場合)は、[bodySite](extension-bodysite.html)の標準拡張を使うこと。要約コードや非常に正確な位置の定義へのreferenceを使用することもできる。</t>
   </si>
   <si>
-    <t>A coded specification of the anatomic site where the medication first enters the body.</t>
-  </si>
-  <si>
-    <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
+    <t>薬が最初に体に入る解剖学的部位のコード化された仕様。 / A coded specification of the anatomic site where the medication first enters the body.</t>
+  </si>
+  <si>
+    <t>薬が身体に入る、または体に入るサイトの場所を説明するコード化された概念。 / A coded concept describing the site location the medicine enters into or onto the body.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
@@ -2628,7 +2630,7 @@
     <t>治療薬剤が患者の体内に投与される生理学的な経路を特定するためのコード。</t>
   </si>
   <si>
-    <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
+    <t>被験者の体への、またはそれへの治療剤の投与の経路または生理学的経路を説明するコード化された概念。 / A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/route-codes</t>
@@ -2715,7 +2717,7 @@
     <t>コード化された値は体内に薬剤が投与される方法を示している。注射ではよく使われる。たとえば、緩徐に注入、深部に静注など。</t>
   </si>
   <si>
-    <t>A coded concept describing the technique by which the medicine is administered.</t>
+    <t>薬が投与される手法を説明するコード化された概念。 / A coded concept describing the technique by which the medicine is administered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
@@ -2739,13 +2741,13 @@
     <t>MedicationRequest.dosageInstruction.method.coding</t>
   </si>
   <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+    <t>用語システムによって定義されたコード / Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>用語システムによって定義されたコードへの参照。 / A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>コードは、列挙されたCTなどの非常に正式な定義まで、列挙またはコードリストで非常にさりげなく定義される場合があります。詳細については、HL7 V3コアプリンシップを参照してください。コーディングの順序付けは未定義であり、意味を推測するために使用されません。一般に、せいぜい、コーディング値の1つのみがuserselected = trueとしてラベル付けされます。 / Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
   </si>
   <si>
     <t>unitDigit1</t>
@@ -2868,7 +2870,7 @@
     <t>このtypeに値が指定されていなければ、"ordered"であることが想定される。</t>
   </si>
   <si>
-    <t>The kind of dose or rate specified.</t>
+    <t>指定された用量またはレートの種類。 / The kind of dose or rate specified.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/dose-rate-type</t>
@@ -2941,14 +2943,14 @@
     <t>この量は指定された薬剤の量を指定するものであって、各有効成分の量を指定するものではない。各成分の量はMedication resourceで伝えることができる。たとえば、有効成分が375mgである錠剤を1錠投与することを伝えたい場合、Medication resourceを利用して、XYZ成分が375mg含有しているという錠剤であることを文書化することができる。あるいは1回投与量が375mgであることを伝えるのであれば、Medication resourceをつかって単にそれが錠剤であることを示せばよい。もし、ドーパミンの静注を例に挙げて、400mgのドーパミンを500mlの注射溶液に混ぜて使うことを伝えたいのであれば、それをすべてMedication resourceで伝えることができる。もし、投与について即時に伝達することを意図していない（たとえば投与速度が示されていたり、投与時期に範囲があるような場合）のであれば、たとえば1回500mlを4時間以上かけて投与する予定を伝える場合にもMecication resourceで伝えることができる。</t>
   </si>
   <si>
-    <t>The amount of therapeutic or other substance given at one administration event.</t>
+    <t>1つの投与イベントで与えられた治療またはその他の物質の量。 / The amount of therapeutic or other substance given at one administration event.</t>
   </si>
   <si>
     <t>Dosage.doseAndRate.dose[x]</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:ユニットのコードが存在する場合、システムも存在するものとします / If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:コンパレータは、単純なQuantityで使用されません / The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
   </si>
   <si>
     <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
@@ -2969,16 +2971,16 @@
     <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].comparator</t>
   </si>
   <si>
-    <t>Not allowed to be used in this context</t>
+    <t>この文脈で使用することは許可されていません / Not allowed to be used in this context</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].unit</t>
   </si>
   <si>
-    <t>Unit representation</t>
-  </si>
-  <si>
-    <t>A human-readable form of the unit.</t>
+    <t>ユニット表現 / Unit representation</t>
+  </si>
+  <si>
+    <t>ユニットの人間の読み取り可能な形式。 / A human-readable form of the unit.</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].system</t>
@@ -3389,13 +3391,13 @@
     <t>MedicationRequest.dispenseRequest.extension.url</t>
   </si>
   <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+    <t>拡張機能の意味を識別します / identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>拡張コードの定義のソース - 論理名またはURL。 / Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>定義は、拡張性コードの計算可能または人間が読み取る可能性のある定義を直接指している場合があります。または、他の仕様で宣言されているように、論理的なURIである場合があります。定義は、拡張機能を定義する構造定義のURIでなければなりません。 / The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DispenseRequest_InstructionForDispense</t>
@@ -3555,10 +3557,10 @@
     <t>このエレメントは処方の有効期間（処方が失効する日）を示す。</t>
   </si>
   <si>
-    <t>It reflects the prescribers' perspective for the validity of the prescription. Dispenses must not be made against the prescription outside of this period. The lower-bound of the Dispensing Window signifies the earliest date that the prescription can be filled for the first time. If an upper-bound is not specified then the Prescription is open-ended or will default to a stale-date based on regulations.</t>
-  </si>
-  <si>
-    <t>Indicates when the Prescription becomes valid, and when it ceases to be a dispensable Prescription.</t>
+    <t>それは、処方箋の妥当性に対する処方者の視点を反映しています。この期間以外の処方箋に対して分配してはなりません。分配ウィンドウの下限は、処方箋が初めて満たすことができる最も早い日付を意味します。上限が指定されていない場合、処方箋はオープンエンドであるか、規制に基づいて古い日付にデフォルトになります。 / It reflects the prescribers' perspective for the validity of the prescription. Dispenses must not be made against the prescription outside of this period. The lower-bound of the Dispensing Window signifies the earliest date that the prescription can be filled for the first time. If an upper-bound is not specified then the Prescription is open-ended or will default to a stale-date based on regulations.</t>
+  </si>
+  <si>
+    <t>処方箋がいつ有効になるか、そしてそれが不可欠な処方箋であることを停止することを示します。 / Indicates when the Prescription becomes valid, and when it ceases to be a dispensable Prescription.</t>
   </si>
   <si>
     <t>Message/Body/NewRx/MedicationPrescribed/Refills</t>
@@ -3610,7 +3612,7 @@
     <t>終了時刻は全ての日付・時刻に対応する。たとえば、2012-02-03T10:00:00は2012-02-03を終了時刻(end)の値とする期間を示す。</t>
   </si>
   <si>
-    <t>If the end of the period is missing, it means that the period is ongoing</t>
+    <t>期間の終了が欠落している場合、それは期間が進行中であることを意味します / If the end of the period is missing, it means that the period is ongoing</t>
   </si>
   <si>
     <t>Period.end</t>
@@ -3797,7 +3799,7 @@
     <t>代替品が許可されるかどうかは無視できないので、このエレメントはmodifierとしてラベルされる。</t>
   </si>
   <si>
-    <t>Identifies the type of substitution allowed.</t>
+    <t>許可された置換の種類を識別します。 / Identifies the type of substitution allowed.</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-ActSubstanceAdminSubstitutionCode</t>
@@ -3860,25 +3862,25 @@
     <t>MedicationRequest.substitution.allowed[x].coding.userSelected</t>
   </si>
   <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+    <t>このコーディングがユーザーによって直接選択された場合 / If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>このコーディングがユーザーによって直接選択されたことを示します。利用可能なアイテムのピックリスト（コードまたはディスプレイ）。 / Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>一連の代替案の中で、直接選択されたコードが新しい翻訳の最も適切な出発点です。この要素の使用とその結果をより完全に明確にするためには、「直接選択された」ことについては曖昧さがあり、取引パートナー契約が必要になる場合があります。 / Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
   </si>
   <si>
     <t>MedicationRequest.substitution.allowed[x].text</t>
   </si>
   <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
+    <t>コンセプトの単純なテキスト表現 / Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>データを入力したユーザー、および/またはユーザーの意図された意味を表すユーザーによって見られる/選択/発言された概念の人間の言語表現。 / A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>多くの場合、テキストはコーディングの1つの表示名と同じです。 / Very often the text is the same as a displayName of one of the codings.</t>
   </si>
   <si>
     <t>MedicationRequest.substitution.reason</t>
@@ -3893,7 +3895,7 @@
     <t>代替品の理由を表す一般的パターンに全てのターミノロジーが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。</t>
   </si>
   <si>
-    <t>A coded concept describing the reason that a different medication should (or should not) be substituted from what was prescribed.</t>
+    <t>別の薬物療法が処方されたものから置き換える（またはすべきではない）理由を説明するコード化された概念。 / A coded concept describing the reason that a different medication should (or should not) be substituted from what was prescribed.</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-SubstanceAdminSubstitutionReason</t>
@@ -4295,7 +4297,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="82.3671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="133.58203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4308,7 +4310,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="124.42578125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="179.01953125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="71.296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -265,8 +265,8 @@
     <t>患者への薬の供給と内服指示を共に提供するオーダ。ケアプランやワークフローパターンとハーモナイズし、入院や外来でも使えるようにするため、このリソースは"MedicationPrescription"や"MedicationOrder"ではなく、"MedicationRequest"と呼ばれる。</t>
   </si>
   <si>
-    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Request</t>
@@ -291,13 +291,13 @@
 </t>
   </si>
   <si>
-    <t>このアーティファクトの論理ID / Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>リソースのURLで使用されるリソースの論理ID。割り当てられたら、この値は変更されません。 / The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>リソースにIDがないのは、IDが作成操作を使用してサーバーに送信されている場合です。 / The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -310,16 +310,16 @@
 </t>
   </si>
   <si>
-    <t>リソースに関するメタデータ / Metadata about the resource</t>
-  </si>
-  <si>
-    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -330,13 +330,13 @@
 </t>
   </si>
   <si>
-    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -349,19 +349,19 @@
 </t>
   </si>
   <si>
-    <t>リソースコンテンツの言語 / Language of the resource content</t>
-  </si>
-  <si>
-    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>人間の言語。 / A human language.</t>
+    <t>A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -381,13 +381,13 @@
 </t>
   </si>
   <si>
-    <t>人間の解釈のためのリソースのテキスト概要 / Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>含まれるリソースには叙述(Narative)がありません。含まれていないリソースには叙述(Narative)が必要です。場合によっては、リソースには、追加の個別のデータがほとんどまたはまったくないテキストのみがあります（すべてのMinoccur = 1要素が満たされている限り）。これは、情報がtext blob (バイナリー ラージ オブジェクト)としてキャプチャされるレガシーシステムからのデータ、またはテキストが生またはナレーションされ、エンコードされた情報が後で追加される場合に必要になる場合があります。 / Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -407,13 +407,13 @@
 </t>
   </si>
   <si>
-    <t>インラインリソースが含まれています / Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -445,8 +445,8 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>preparation</t>
@@ -473,18 +473,17 @@
 user content</t>
   </si>
   <si>
-    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
-モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -545,10 +544,10 @@
     <t>MedicationRequest.identifier.id</t>
   </si>
   <si>
-    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -560,10 +559,10 @@
     <t>MedicationRequest.identifier.extension</t>
   </si>
   <si>
-    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -575,22 +574,22 @@
     <t>MedicationRequest.identifier.use</t>
   </si>
   <si>
-    <t>通常|公式|温度|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>この識別子の目的。 / The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>アプリケーションは、識別子が一時的なものであると明示的に言っていない限り、永続的であると想定できます。 / Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>特定の使用のコンテキストが一連の識別子の中から選択される適切な識別子を許可します。 / Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>既知の場合、この識別子の目的を識別します。 / Identifies the purpose for this identifier, if known .</t>
+    <t>Identifies the purpose for this identifier, if known .</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
@@ -609,22 +608,22 @@
 </t>
   </si>
   <si>
-    <t>識別子の説明 / Description of identifier</t>
-  </si>
-  <si>
-    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>この要素は、識別子の一般的なカテゴリのみを扱います。識別子。システムに対応するコードに使用しないでください。一部の識別子は、一般的な使用法により複数のカテゴリに分類される場合があります。システムがわかっている場合、タイプは常にシステム定義の一部であるため、タイプは不要です。ただし、システムが不明な識別子を処理する必要があることがよくあります。多くの異なるシステムが同じタイプを持っているため、タイプとシステムの間に1：1の関係はありません。 / This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>識別子システムが不明な場合、ユーザーは識別子を使用できます。 / Allows users to make use of identifiers when the identifier system is not known.</t>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
@@ -645,10 +644,10 @@
     <t>ここで付番されたIDがRp番号であることを明示するためにOIDとして定義された。urn:oid:1.2.392.100495.20.3.81で固定される。</t>
   </si>
   <si>
-    <t>識別子。システムは常にケースに敏感です。 / Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>識別子のセットがたくさんあります。2つの識別子を一致させるには、どのセットを扱っているかを知る必要があります。システムは、特定の一意の識別子セットを識別します。 / There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.100495.20.3.81</t>
@@ -697,10 +696,10 @@
 </t>
   </si>
   <si>
-    <t>IDが使用に有効だった時間期間 / Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>識別子が使用される/有効な期間。 / Time period during which identifier is/was valid for use.</t>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
     <t>Identifier.period</t>
@@ -719,13 +718,13 @@
 </t>
   </si>
   <si>
-    <t>IDを発行した組織（単なるテキストである可能性があります） / Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>識別子を発行/管理する組織。 / Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>識別子は、.reference要素を省略し、割り当て組織に関する名前またはその他のテキスト情報を反映した.display要素のみを含む場合があります。 / The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
   </si>
   <si>
     <t>Identifier.assigner</t>
@@ -773,31 +772,31 @@
     <t>薬剤をオーダーする単位としての処方箋に対するID。MedicationRequestは単一の薬剤でインスタンスが作成されるが、それの集合としての処方箋のID。</t>
   </si>
   <si>
-    <t>これはビジネス識別子であり、リソース識別子ではありません。 / This is a business identifier, not a resource identifier.</t>
-  </si>
-  <si>
-    <t>識別子値の名前空間 / The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>値の名前空間、つまり一意のセット値を記述するURLを確立します。 / Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+    <t>This is a business identifier, not a resource identifier.</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Common/IdSystem/resourceInstance-identifier</t>
   </si>
   <si>
-    <t>一意の値 / The value that is unique</t>
-  </si>
-  <si>
-    <t>通常、識別子の部分はユーザーに関連し、システムのコンテキスト内で一意のユーザーに関連しています。 / The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>値が完全なURIの場合、システムはurn：ietf：rfc：3986でなければなりません。値の主な目的は、計算マッピングです。その結果、比較目的で正規化される可能性があります（例えば、有意でない白文字、ダッシュなどの削除）ヒューマンディスプレイ用の値は、[レンダリングされた値拡張]（拡張レンダリングValue.html）を使用して伝達できます。識別子。価値は、識別子の知識を使用しない限り、ケースに敏感なものとして扱われます。システムにより、プロセッサーは、非セイズに固有の処理が安全であると確信できます。 / If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>MedicationRequest.status</t>
   </si>
   <si>
-    <t>アクティブ|オンホールド|キャンセル|完了|エラーに入った|停止|ドラフト|わからない / active | on-hold | cancelled | completed | entered-in-error | stopped | draft | unknown</t>
+    <t>active | on-hold | cancelled | completed | entered-in-error | stopped | draft | unknown</t>
   </si>
   <si>
     <t>JP Coreでは"active"に固定される。
@@ -807,7 +806,7 @@
     <t>このエレメントはmodifierとされている。StatusとはこのResourceが現在妥当な状態ではないことも示すからである。</t>
   </si>
   <si>
-    <t>処方イベントの状態を指定するコード化された概念。処方箋のライフサイクルについて説明します。 / A coded concept specifying the state of the prescribing event. Describes the lifecycle of the prescription.</t>
+    <t>A coded concept specifying the state of the prescribing event. Describes the lifecycle of the prescription.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationrequest-status|4.0.1</t>
@@ -840,7 +839,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>特定のステータスの理由を特定します。 / Identifies the reasons for a given status.</t>
+    <t>Identifies the reasons for a given status.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationrequest-status-reason</t>
@@ -855,7 +854,7 @@
     <t>MedicationRequest.intent</t>
   </si>
   <si>
-    <t>提案|計画|注文|オリジナルオーダー|反射順|フィラーオーダー|インスタンスオーダー|オプション / proposal | plan | order | original-order | reflex-order | filler-order | instance-order | option</t>
+    <t>proposal | plan | order | original-order | reflex-order | filler-order | instance-order | option</t>
   </si>
   <si>
     <t>JP Coreでは "order" に固定される。
@@ -871,7 +870,7 @@
     <t>order</t>
   </si>
   <si>
-    <t>種類の薬順。 / The kind of medication order.</t>
+    <t>The kind of medication order.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationrequest-intent|4.0.1</t>
@@ -920,7 +919,7 @@
     <t>MedicationRequest.priority</t>
   </si>
   <si>
-    <t>ルーチン|緊急|できるだけ早く|統計 / routine | urgent | asap | stat</t>
+    <t>routine | urgent | asap | stat</t>
   </si>
   <si>
     <t>このMedicatinRequestオーダーの優先度。他のオーダーと比較して表現される。</t>
@@ -929,7 +928,7 @@
     <t>FHIRでは文字列の大きさが1MBを超えてはならない(SHALL NOT)。</t>
   </si>
   <si>
-    <t>リクエストの実行に割り当てられる重要性のレベルを特定します。 / Identifies the level of importance to be assigned to actioning the request.</t>
+    <t>Identifies the level of importance to be assigned to actioning the request.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
@@ -986,16 +985,16 @@
 Reference</t>
   </si>
   <si>
-    <t>服用する薬 / Medication to be taken</t>
-  </si>
-  <si>
-    <t>要求されている薬を特定します。これは、薬物の詳細である可能性のある薬物療法を表すリソースへのリンク、または単に既知の薬物のリストから薬物を識別するコードを運ぶ属性です。 / Identifies the medication being requested. This is a link to a resource that represents the medication which may be the details of the medication or simply an attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>コードのみが指定されている場合、特定の製品のコードである必要があります。より多くの情報が必要な場合は、投薬リソースの使用をお勧めします。たとえば、フォームまたはロット番号が必要な場合、または薬物療法が複合または延長された場合は、薬リソースを参照する必要があります。 / If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the Medication resource is recommended.  For example, if you require form or lot number or if the medication is compounded or extemporaneously prepared, then you must reference the Medication resource.</t>
-  </si>
-  <si>
-    <t>注文できる物質または製品を識別するコード化された概念。 / A coded concept identifying substance or product that can be ordered.</t>
+    <t>Medication to be taken</t>
+  </si>
+  <si>
+    <t>Identifies the medication being requested. This is a link to a resource that represents the medication which may be the details of the medication or simply an attribute carrying a code that identifies the medication from a known list of medications.</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the Medication resource is recommended.  For example, if you require form or lot number or if the medication is compounded or extemporaneously prepared, then you must reference the Medication resource.</t>
+  </si>
+  <si>
+    <t>A coded concept identifying substance or product that can be ordered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
@@ -1064,7 +1063,7 @@
 【JP-CORE】Medication要素の説明を参照のこと。</t>
   </si>
   <si>
-    <t>コードシステム内の代替エンコーディング、および他のコードシステムへの翻訳が可能になります。 / Allows for alternative encodings within a code system, and translations to other code systems.</t>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -1085,16 +1084,16 @@
     <t>MedicationRequest.medication[x].coding.system</t>
   </si>
   <si>
-    <t>用語システムのアイデンティティ / Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>コード内のシンボルの意味を定義するコードシステムの識別。 / The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>uriは、oid（urn：oid：...）またはuuid（urn：uuid：...）である場合があります。OIDとUUIDは、HL7 OIDレジストリへの参照となります。それ以外の場合、URIは、FHIRの特別なURIを定義したHL7のリストから来るか、システムを明確かつ明確に確立する定義を参照する必要があります。 / The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -1109,13 +1108,13 @@
     <t>MedicationRequest.medication[x].coding.version</t>
   </si>
   <si>
-    <t>システムのバージョン - 関連する場合 / Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>このコードを選択するときに使用されたコードシステムのバージョン。コードの意味がバージョン全体で一貫しているため、適切にメンテナンスしたコードシステムでは報告されたバージョンを必要としないことに注意してください。ただし、これは一貫して保証することはできず、意味が一貫していることが保証されていない場合、バージョンを交換する必要があります。 / The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>用語がコードシステムバージョンを識別するために使用する文字列を明確に定義していない場合、推奨は、そのバージョンがバージョンの日付として公式に公開された日付（FHIR日付形式で表現）を使用することです。 / Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
   </si>
   <si>
     <t>Coding.version</t>
@@ -1130,13 +1129,13 @@
     <t>MedicationRequest.medication[x].coding.code</t>
   </si>
   <si>
-    <t>システムによって定義された構文のシンボル / Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>システムによって定義された構文のシンボル。シンボルは、定義されたコードまたはコーディングシステムによって定義された構文の式（例：調整後）である場合があります。 / A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>システム内の特定のコードを参照する必要があります。 / Need to refer to a particular code in the system.</t>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -1151,13 +1150,13 @@
     <t>MedicationRequest.medication[x].coding.display</t>
   </si>
   <si>
-    <t>システムによって定義された表現 / Representation defined by the system</t>
-  </si>
-  <si>
-    <t>システムのルールに従って、システム内のコードの意味の表現。 / A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>システムを知らない読者のために、コードの人間の読み取り可能な意味を持ち込むことができる必要があります。 / Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
   </si>
   <si>
     <t>Coding.display</t>
@@ -1178,7 +1177,7 @@
     <t>ユーザーが直接コーディングしたかどうかを示す。たとえば、有効な項目のリスト（コードか表現）から選択したかどうか。</t>
   </si>
   <si>
-    <t>これは、臨床安全基準として特定されています - この正確なシステム/コードペアは、いくつかのルールまたは言語処理に基づいてシステムによって推測されるのではなく、明示的に選択されたことです。 / This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
   </si>
   <si>
     <t>Coding.userSelected</t>
@@ -1202,7 +1201,7 @@
     <t>textエレメントはcodingのdisplayNameエレメントと一致することがよくある。</t>
   </si>
   <si>
-    <t>用語からのコードは、それらを使用する人間のすべてのニュアンスを使用して、常に正しい意味をキャプチャするとは限りません。または、適切なコードがまったくない場合があります。これらの場合、テキストはソースの完全な意味をキャプチャするために使用されます。 / The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
     <t>CodeableConcept.text</t>
@@ -1302,7 +1301,7 @@
     <t>このelementは参照の対象の型を指定するためのものである。他のElementで指定されていた型であってもなくても指定することができる。場合によっては、対象の型は参照（たとえば、RESTful URL)についての調査により決定されることもあるし、参照の対象から決定されることもある。もし、参照と型のどちらもが指定されていたら、参照は指定された型を決定されるべきである(SHALL)。</t>
   </si>
   <si>
-    <t>AAリソース（または、論理モデルの場合、論理モデルのURI）。 / Aa resource (or, for logical models, the URI of the logical model).</t>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/resource-types</t>
@@ -1335,13 +1334,13 @@
     <t>MedicationRequest.subject.display</t>
   </si>
   <si>
-    <t>リソースのテキスト代替 / Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>リソースリファレンスに加えてリソースを識別するプレーンテキストの叙述(Narative)。 / Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>これは通常、参照されるリソースのリソース.textと同じではありません。目的は、参照されているものを完全に説明するのではなく、特定することです。 / This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
   </si>
   <si>
     <t>Reference.display</t>
@@ -1480,7 +1479,7 @@
     <t>Performerを示さずにこのエレメントが指定された場合は、このエレメントは薬剤の投与／管理が指定の職種でなければならないと言うことを示している。Performerと共に指定された場合は、もし指定されたPerformerが実施できない場合に薬剤投与・管理を行うものについての要件が示されたことを意味する。</t>
   </si>
   <si>
-    <t>薬を投与することが望まれる個人のタイプを識別します。 / Identifies the type of individual that is desired to administer the medication.</t>
+    <t>Identifies the type of individual that is desired to administer the medication.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/performer-role</t>
@@ -1525,7 +1524,7 @@
     <t>このエレメントは病名コードであってもよい。もし、すべての条件を示す記録があって他の詳細な記録が必要であれば、reasonReferenceを使用すること。</t>
   </si>
   <si>
-    <t>薬が注文された理由を示すコード化された概念。 / A coded concept indicating why the medication was ordered.</t>
+    <t>A coded concept indicating why the medication was ordered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-code</t>
@@ -1648,7 +1647,7 @@
     <t>この属性は薬剤プロトコールと混同してはならない。</t>
   </si>
   <si>
-    <t>投薬投与の全体的なパターンを特定します。 / Identifies the overall pattern of medication administratio.</t>
+    <t>Identifies the overall pattern of medication administratio.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationrequest-course-of-therapy</t>
@@ -1788,11 +1787,10 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
-モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -1863,7 +1861,7 @@
     <t>補足指示はコード化されるように意図されているが、コードがない場合はエレメントはテキストだけで表現することができる。たとえば、「大量の水で服用する」という指示はコード化されていることもあれば、されていないことおある。</t>
   </si>
   <si>
-    <t>「水で取る」や「重機の操作を避ける」などの追加の指示を識別するコード化された概念。 / A coded concept identifying additional instructions such as "take with water" or "avoid operating heavy machinery".</t>
+    <t>A coded concept identifying additional instructions such as "take with water" or "avoid operating heavy machinery".</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/additional-instruction-codes</t>
@@ -2032,7 +2030,7 @@
     <t>服⽤タイミングを具体的な日時で指定する場合に使⽤する</t>
   </si>
   <si>
-    <t>たとえば、投薬投与の記録では、一般的な仕様を取得し、それを正確な仕様に変える必要があります。 / In a Medication Administration Record, for instance, you need to take a general specification, and turn it into a precise specification.</t>
+    <t>In a Medication Administration Record, for instance, you need to take a general specification, and turn it into a precise specification.</t>
   </si>
   <si>
     <t>Timing.event</t>
@@ -2060,8 +2058,8 @@
     <t>Timing.repeat</t>
   </si>
   <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-tim-1:期間がある場合は、期間単位が必要です / if there's a duration, there needs to be duration units {duration.empty() or durationUnit.exists()}tim-2:期間がある場合、期間単位が必要です / if there's a period, there needs to be period units {period.empty() or periodUnit.exists()}tim-4:期間は非陰性価値です / duration SHALL be a non-negative value {duration.exists() implies duration &gt;= 0}tim-5:期間は非陰性の価値です / period SHALL be a non-negative value {period.exists() implies period &gt;= 0}tim-6:期間がある場合、期間がなければなりません / If there's a periodMax, there must be a period {periodMax.empty() or period.exists()}tim-7:Hurtermaxがある場合、期間がなければなりません / If there's a durationMax, there must be a duration {durationMax.empty() or duration.exists()}tim-8:countmaxがある場合、カウントが必要です / If there's a countMax, there must be a count {countMax.empty() or count.exists()}tim-9:オフセットがある場合、c、cm、cd、cvではなく（c、cvではない）存在する必要があります。 / If there's an offset, there must be a when (and not C, CM, CD, CV) {offset.empty() or (when.exists() and ((when in ('C' | 'CM' | 'CD' | 'CV')).not()))}tim-10:時間がある場合、いつ、またはその逆もありません / If there's a timeOfDay, there cannot be a when, or vice versa {timeOfDay.empty() or when.empty()}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+tim-1:if there's a duration, there needs to be duration units {duration.empty() or durationUnit.exists()}tim-2:if there's a period, there needs to be period units {period.empty() or periodUnit.exists()}tim-4:duration SHALL be a non-negative value {duration.exists() implies duration &gt;= 0}tim-5:period SHALL be a non-negative value {period.exists() implies period &gt;= 0}tim-6:If there's a periodMax, there must be a period {periodMax.empty() or period.exists()}tim-7:If there's a durationMax, there must be a duration {durationMax.empty() or duration.exists()}tim-8:If there's a countMax, there must be a count {countMax.empty() or count.exists()}tim-9:If there's an offset, there must be a when (and not C, CM, CD, CV) {offset.empty() or (when.exists() and ((when in ('C' | 'CM' | 'CD' | 'CV')).not()))}tim-10:If there's a timeOfDay, there cannot be a when, or vice versa {timeOfDay.empty() or when.empty()}</t>
   </si>
   <si>
     <t>Implies PIVL or EIVL</t>
@@ -2099,10 +2097,10 @@
 </t>
   </si>
   <si>
-    <t>長さ/長さの範囲、または（開始および/または終了）制限 / Length/Range of lengths, or (Start and/or end) limits</t>
-  </si>
-  <si>
-    <t>タイミングスケジュールの長さの期間、可能な長さの範囲、またはタイミングスケジュールの開始および/または終了制限の外側の境界のいずれか。 / Either a duration for the length of the timing schedule, a range of possible length, or outer bounds for start and/or end limits of the timing schedule.</t>
+    <t>Length/Range of lengths, or (Start and/or end) limits</t>
+  </si>
+  <si>
+    <t>Either a duration for the length of the timing schedule, a range of possible length, or outer bounds for start and/or end limits of the timing schedule.</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.timing.repeat.bounds[x].id</t>
@@ -2121,10 +2119,10 @@
     <t>投薬日数</t>
   </si>
   <si>
-    <t>値の暗黙の精度は常に尊重されるべきです。金銭的価値には、精度を処理するための独自のルールがあります（標準的な会計の教科書を参照）。 / The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
-  </si>
-  <si>
-    <t>精度は、測定のほとんどすべての場合に暗黙的に処理されます。 / Precision is handled implicitly in almost all cases of measurement.</t>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
   </si>
   <si>
     <t>Quantity.value</t>
@@ -2139,19 +2137,19 @@
     <t>MedicationRequest.dosageInstruction.timing.repeat.bounds[x].comparator</t>
   </si>
   <si>
-    <t>&lt;|&lt;= |&gt; = |&gt;  - 価値を理解する方法 / &lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
-  </si>
-  <si>
-    <t>値をどのように理解し、表現する必要があるか - 測定の問題により実際の値が記載されている値よりも大きいか小さいかどうか。例えばコンパレータが「&lt;」の場合、実際の値は&lt;stated値です。 / How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
-  </si>
-  <si>
-    <t>測定方法の制限があるため、値が&lt;5ug/Lまたは&gt; 400mg/Lの測定値を処理するためのフレームワークが必要です。 / Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
-  </si>
-  <si>
-    <t>コンパレータがない場合、値の変更はありません / If there is no comparator, then there is no modification of the value</t>
-  </si>
-  <si>
-    <t>量を理解し、表現する方法。 / How the Quantity should be understood and represented.</t>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
+  </si>
+  <si>
+    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>How the Quantity should be understood and represented.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
@@ -2175,7 +2173,7 @@
     <t>投薬日数の単位文字列。日で固定される</t>
   </si>
   <si>
-    <t>測定単位には多くの表現があり、多くのコンテキストでは、特定の表現が固定され、必要です。すなわちマイクログラム用MCG。 / There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
   </si>
   <si>
     <t>日</t>
@@ -2199,7 +2197,7 @@
     <t>単位コード UCUMを識別するURI。固定値。</t>
   </si>
   <si>
-    <t>ユニットのコード化された形式を定義するシステムを知る必要があります。 / Need to know the system that defines the coded form of the unit.</t>
+    <t>Need to know the system that defines the coded form of the unit.</t>
   </si>
   <si>
     <t>http://unitsofmeasure.org</t>
@@ -2224,10 +2222,10 @@
     <t>単位コードUCUMにおける投与日数の単位。dで固定される。</t>
   </si>
   <si>
-    <t>優先システムはUCUMですが、スノムCTは（慣習ユニットに）または通貨にISO 4217を使用することもできます。使用のコンテキストには、特定のシステムからのコードがさらに必要になる場合があります。 / The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
-  </si>
-  <si>
-    <t>すべてのフォームに固定されたユニットの計算可能な形式が必要です。UCUMはこれを数量で提供しますが、Snomed CTは多くの関心のある単位を提供します。 / Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
   </si>
   <si>
     <t>d</t>
@@ -2255,7 +2253,7 @@
     <t>回数に上限、下限の範囲がある場合は、このcountで示される回数が起きるまでは、エレメントは範囲の中にあると解釈されるべきである。</t>
   </si>
   <si>
-    <t>繰り返しは、終了時間または合計発生によって制限される場合があります。 / Repetitions may be limited by end time or total occurrences.</t>
+    <t>Repetitions may be limited by end time or total occurrences.</t>
   </si>
   <si>
     <t>Timing.repeat.count</t>
@@ -2315,13 +2313,13 @@
     <t>MedicationRequest.dosageInstruction.timing.repeat.durationUnit</t>
   </si>
   <si>
-    <t>s |min |h |d |wk |mo |A-時間単位（ucum） / s | min | h | d | wk | mo | a - unit of time (UCUM)</t>
+    <t>s | min | h | d | wk | mo | a - unit of time (UCUM)</t>
   </si>
   <si>
     <t>UCUM単位で表される継続時間についての単位。</t>
   </si>
   <si>
-    <t>時間単位（UCUMからの単位）。 / A unit of time (units from UCUM).</t>
+    <t>A unit of time (units from UCUM).</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/units-of-time|4.0.1</t>
@@ -2345,7 +2343,7 @@
     <t>32ビットの数値。もし、値がそれを上回るようであればdecimalを使用する。</t>
   </si>
   <si>
-    <t>頻度が記載されていない場合、イベントは期間ごとに1回発生するという仮定ですが、システムは常にこれについて具体的でなければなりません / If no frequency is stated, the assumption is that the event occurs once per period, but systems SHOULD always be specific about this</t>
+    <t>If no frequency is stated, the assumption is that the event occurs once per period, but systems SHOULD always be specific about this</t>
   </si>
   <si>
     <t>Timing.repeat.frequency</t>
@@ -2405,7 +2403,7 @@
     <t>MedicationRequest.dosageInstruction.timing.repeat.dayOfWeek</t>
   </si>
   <si>
-    <t>月|火|水|木|金|土|太陽 / mon | tue | wed | thu | fri | sat | sun</t>
+    <t>mon | tue | wed | thu | fri | sat | sun</t>
   </si>
   <si>
     <t>期間として1週間以上が指定されていれば、指定された曜日のみで投与が行われる。</t>
@@ -2454,7 +2452,7 @@
     <t>タイミングはしばしば起床や食事、睡眠などのできごとによってしばしば決定されている。</t>
   </si>
   <si>
-    <t>スケジュールに関連する現実世界のイベント。 / Real world event relating to the schedule.</t>
+    <t>Real world event relating to the schedule.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/event-timing|4.0.1</t>
@@ -2488,7 +2486,7 @@
     <t>MedicationRequest.dosageInstruction.timing.code</t>
   </si>
   <si>
-    <t>入札|TID |QID |AM |PM |QD |qod |+ / BID | TID | QID | AM | PM | QD | QOD | +</t>
+    <t>BID | TID | QID | AM | PM | QD | QOD | +</t>
   </si>
   <si>
     <t>スケジュール上のタイミングを表すコード（あるいはcode.text内のテキスト）。BID(1日2回)のようなコードはどこにでもあるが、多くの医療機関は付加的なコードを定義している。もし、コードが示されていれば、構造化されたタイミングで完全に示されたデータであると解釈され、コードまたはTimingを解釈するためのデータであると解釈される。しかし、例外的に.repeat.bounds（コードは含まれない)はコードを上書きして適用される。</t>
@@ -2497,7 +2495,7 @@
     <t>BIDなどは「施設特有の時間」として定義される。たとえば、施設がBIDを「つねに朝7時と夕方6時」であると指定することがある。この指定が不適切であれば、BIDというコードは使うべきではない。その代わり、HL7が定義したBIDのコードではなく、その施設特有のコードで明示的に示すべきであり、構造化された表現を使うべきである（この場合、2回のイベントの時刻を指定する必要がある）。</t>
   </si>
   <si>
-    <t>既知 /定義されたタイミングパターンのコード。 / Code for a known / defined timing pattern.</t>
+    <t>Code for a known / defined timing pattern.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/timing-abbreviation</t>
@@ -2519,7 +2517,7 @@
 Medication(薬剤)が必要なときに指定された量とスケジュールのみで内服するか（Booleanで選択される）、内服する前提条件(CodeableConcept)を示している。</t>
   </si>
   <si>
-    <t>boolean = trueを設定することにより、理由なしに「必要に応じて」表現できます。この場合、codeableconceptは存在しません。または、Codeableconceptを含めることにより、「必要に応じて」理由で「必要に応じて」表現することができます。この場合、ブール値は真であると想定されています。ブール値をfalseに設定すると、用量はスケジュールに従って与えられ、「PRN」または「必要に応じて」ではありません。 / Can express "as needed" without a reason by setting the Boolean = True.  In this case the CodeableConcept is not populated.  Or you can express "as needed" with a reason by including the CodeableConcept.  In this case the Boolean is assumed to be True.  If you set the Boolean to False, then the dose is given according to the schedule and is not "prn" or "as needed".</t>
+    <t>Can express "as needed" without a reason by setting the Boolean = True.  In this case the CodeableConcept is not populated.  Or you can express "as needed" with a reason by including the CodeableConcept.  In this case the Boolean is assumed to be True.  If you set the Boolean to False, then the dose is given according to the schedule and is not "prn" or "as needed".</t>
   </si>
   <si>
     <t>Dosage.asNeeded[x]</t>
@@ -2543,10 +2541,10 @@
     <t>もし、BodySite resourceの属性が必要な場合(たとえば、部位の指定や別々に投与経路を設定する場合)は、[bodySite](extension-bodysite.html)の標準拡張を使うこと。要約コードや非常に正確な位置の定義へのreferenceを使用することもできる。</t>
   </si>
   <si>
-    <t>薬が最初に体に入る解剖学的部位のコード化された仕様。 / A coded specification of the anatomic site where the medication first enters the body.</t>
-  </si>
-  <si>
-    <t>薬が身体に入る、または体に入るサイトの場所を説明するコード化された概念。 / A coded concept describing the site location the medicine enters into or onto the body.</t>
+    <t>A coded specification of the anatomic site where the medication first enters the body.</t>
+  </si>
+  <si>
+    <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
@@ -2630,7 +2628,7 @@
     <t>治療薬剤が患者の体内に投与される生理学的な経路を特定するためのコード。</t>
   </si>
   <si>
-    <t>被験者の体への、またはそれへの治療剤の投与の経路または生理学的経路を説明するコード化された概念。 / A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
+    <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/route-codes</t>
@@ -2717,7 +2715,7 @@
     <t>コード化された値は体内に薬剤が投与される方法を示している。注射ではよく使われる。たとえば、緩徐に注入、深部に静注など。</t>
   </si>
   <si>
-    <t>薬が投与される手法を説明するコード化された概念。 / A coded concept describing the technique by which the medicine is administered.</t>
+    <t>A coded concept describing the technique by which the medicine is administered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
@@ -2741,13 +2739,13 @@
     <t>MedicationRequest.dosageInstruction.method.coding</t>
   </si>
   <si>
-    <t>用語システムによって定義されたコード / Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>用語システムによって定義されたコードへの参照。 / A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>コードは、列挙されたCTなどの非常に正式な定義まで、列挙またはコードリストで非常にさりげなく定義される場合があります。詳細については、HL7 V3コアプリンシップを参照してください。コーディングの順序付けは未定義であり、意味を推測するために使用されません。一般に、せいぜい、コーディング値の1つのみがuserselected = trueとしてラベル付けされます。 / Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
   </si>
   <si>
     <t>unitDigit1</t>
@@ -2870,7 +2868,7 @@
     <t>このtypeに値が指定されていなければ、"ordered"であることが想定される。</t>
   </si>
   <si>
-    <t>指定された用量またはレートの種類。 / The kind of dose or rate specified.</t>
+    <t>The kind of dose or rate specified.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/dose-rate-type</t>
@@ -2943,14 +2941,14 @@
     <t>この量は指定された薬剤の量を指定するものであって、各有効成分の量を指定するものではない。各成分の量はMedication resourceで伝えることができる。たとえば、有効成分が375mgである錠剤を1錠投与することを伝えたい場合、Medication resourceを利用して、XYZ成分が375mg含有しているという錠剤であることを文書化することができる。あるいは1回投与量が375mgであることを伝えるのであれば、Medication resourceをつかって単にそれが錠剤であることを示せばよい。もし、ドーパミンの静注を例に挙げて、400mgのドーパミンを500mlの注射溶液に混ぜて使うことを伝えたいのであれば、それをすべてMedication resourceで伝えることができる。もし、投与について即時に伝達することを意図していない（たとえば投与速度が示されていたり、投与時期に範囲があるような場合）のであれば、たとえば1回500mlを4時間以上かけて投与する予定を伝える場合にもMecication resourceで伝えることができる。</t>
   </si>
   <si>
-    <t>1つの投与イベントで与えられた治療またはその他の物質の量。 / The amount of therapeutic or other substance given at one administration event.</t>
+    <t>The amount of therapeutic or other substance given at one administration event.</t>
   </si>
   <si>
     <t>Dosage.doseAndRate.dose[x]</t>
   </si>
   <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:ユニットのコードが存在する場合、システムも存在するものとします / If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:コンパレータは、単純なQuantityで使用されません / The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
   </si>
   <si>
     <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
@@ -2971,16 +2969,16 @@
     <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].comparator</t>
   </si>
   <si>
-    <t>この文脈で使用することは許可されていません / Not allowed to be used in this context</t>
+    <t>Not allowed to be used in this context</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].unit</t>
   </si>
   <si>
-    <t>ユニット表現 / Unit representation</t>
-  </si>
-  <si>
-    <t>ユニットの人間の読み取り可能な形式。 / A human-readable form of the unit.</t>
+    <t>Unit representation</t>
+  </si>
+  <si>
+    <t>A human-readable form of the unit.</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].system</t>
@@ -3391,13 +3389,13 @@
     <t>MedicationRequest.dispenseRequest.extension.url</t>
   </si>
   <si>
-    <t>拡張機能の意味を識別します / identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>拡張コードの定義のソース - 論理名またはURL。 / Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>定義は、拡張性コードの計算可能または人間が読み取る可能性のある定義を直接指している場合があります。または、他の仕様で宣言されているように、論理的なURIである場合があります。定義は、拡張機能を定義する構造定義のURIでなければなりません。 / The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DispenseRequest_InstructionForDispense</t>
@@ -3557,10 +3555,10 @@
     <t>このエレメントは処方の有効期間（処方が失効する日）を示す。</t>
   </si>
   <si>
-    <t>それは、処方箋の妥当性に対する処方者の視点を反映しています。この期間以外の処方箋に対して分配してはなりません。分配ウィンドウの下限は、処方箋が初めて満たすことができる最も早い日付を意味します。上限が指定されていない場合、処方箋はオープンエンドであるか、規制に基づいて古い日付にデフォルトになります。 / It reflects the prescribers' perspective for the validity of the prescription. Dispenses must not be made against the prescription outside of this period. The lower-bound of the Dispensing Window signifies the earliest date that the prescription can be filled for the first time. If an upper-bound is not specified then the Prescription is open-ended or will default to a stale-date based on regulations.</t>
-  </si>
-  <si>
-    <t>処方箋がいつ有効になるか、そしてそれが不可欠な処方箋であることを停止することを示します。 / Indicates when the Prescription becomes valid, and when it ceases to be a dispensable Prescription.</t>
+    <t>It reflects the prescribers' perspective for the validity of the prescription. Dispenses must not be made against the prescription outside of this period. The lower-bound of the Dispensing Window signifies the earliest date that the prescription can be filled for the first time. If an upper-bound is not specified then the Prescription is open-ended or will default to a stale-date based on regulations.</t>
+  </si>
+  <si>
+    <t>Indicates when the Prescription becomes valid, and when it ceases to be a dispensable Prescription.</t>
   </si>
   <si>
     <t>Message/Body/NewRx/MedicationPrescribed/Refills</t>
@@ -3612,7 +3610,7 @@
     <t>終了時刻は全ての日付・時刻に対応する。たとえば、2012-02-03T10:00:00は2012-02-03を終了時刻(end)の値とする期間を示す。</t>
   </si>
   <si>
-    <t>期間の終了が欠落している場合、それは期間が進行中であることを意味します / If the end of the period is missing, it means that the period is ongoing</t>
+    <t>If the end of the period is missing, it means that the period is ongoing</t>
   </si>
   <si>
     <t>Period.end</t>
@@ -3799,7 +3797,7 @@
     <t>代替品が許可されるかどうかは無視できないので、このエレメントはmodifierとしてラベルされる。</t>
   </si>
   <si>
-    <t>許可された置換の種類を識別します。 / Identifies the type of substitution allowed.</t>
+    <t>Identifies the type of substitution allowed.</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-ActSubstanceAdminSubstitutionCode</t>
@@ -3862,25 +3860,25 @@
     <t>MedicationRequest.substitution.allowed[x].coding.userSelected</t>
   </si>
   <si>
-    <t>このコーディングがユーザーによって直接選択された場合 / If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>このコーディングがユーザーによって直接選択されたことを示します。利用可能なアイテムのピックリスト（コードまたはディスプレイ）。 / Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>一連の代替案の中で、直接選択されたコードが新しい翻訳の最も適切な出発点です。この要素の使用とその結果をより完全に明確にするためには、「直接選択された」ことについては曖昧さがあり、取引パートナー契約が必要になる場合があります。 / Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
   </si>
   <si>
     <t>MedicationRequest.substitution.allowed[x].text</t>
   </si>
   <si>
-    <t>コンセプトの単純なテキスト表現 / Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>データを入力したユーザー、および/またはユーザーの意図された意味を表すユーザーによって見られる/選択/発言された概念の人間の言語表現。 / A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>多くの場合、テキストはコーディングの1つの表示名と同じです。 / Very often the text is the same as a displayName of one of the codings.</t>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
   </si>
   <si>
     <t>MedicationRequest.substitution.reason</t>
@@ -3895,7 +3893,7 @@
     <t>代替品の理由を表す一般的パターンに全てのターミノロジーが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。</t>
   </si>
   <si>
-    <t>別の薬物療法が処方されたものから置き換える（またはすべきではない）理由を説明するコード化された概念。 / A coded concept describing the reason that a different medication should (or should not) be substituted from what was prescribed.</t>
+    <t>A coded concept describing the reason that a different medication should (or should not) be substituted from what was prescribed.</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-SubstanceAdminSubstitutionReason</t>
@@ -4297,7 +4295,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="133.58203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="82.3671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4310,7 +4308,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="179.01953125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="124.42578125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="71.296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -2673,7 +2673,7 @@
     <t>HL7v2-0162表をベースにしたJPFHIRでの投与経路コード表を示すURL</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/ePrescription/CodeSystem/route-codes</t>
+    <t>http://jpfhir.jp/fhir/Common/CodeSystem/route-codes</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.route.coding.version</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -1060,7 +1060,7 @@
   </si>
   <si>
     <t>コードは臨時で列記したものや、コードのリストからSNOMED CTのように公式に定義されたものまである（HL7 v3 core principle を参照)。FHIR自体ではコーディング規約を定めてはいないし、意味を暗示するために利用されない(SHALL NOT)。一般的に UserSelected = trueの場合には一つのコードシステムが使われる。
-【JP-CORE】Medication要素の説明を参照のこと。</t>
+【JP-Core仕様】Medication要素の説明を参照のこと。</t>
   </si>
   <si>
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -26729,10 +26729,10 @@
       </c>
       <c r="P197" s="2"/>
       <c r="Q197" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R197" t="s" s="2">
         <v>947</v>
-      </c>
-      <c r="R197" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="S197" t="s" s="2">
         <v>80</v>
@@ -27985,10 +27985,10 @@
       </c>
       <c r="P208" s="2"/>
       <c r="Q208" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R208" t="s" s="2">
         <v>947</v>
-      </c>
-      <c r="R208" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="S208" t="s" s="2">
         <v>80</v>
@@ -38089,10 +38089,10 @@
       </c>
       <c r="P296" s="2"/>
       <c r="Q296" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R296" t="s" s="2">
         <v>947</v>
-      </c>
-      <c r="R296" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="S296" t="s" s="2">
         <v>80</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -803,7 +803,7 @@
     <t>現在のステータスの理由</t>
   </si>
   <si>
-    <t>一般的には「保留(suspended)」や「中止(cancelled)」といった例外的状態を示すために持ちいられる。MedicationRequestオーダーが発生した理由についてはreaseonCodeに記載され、この項目は用いられない。</t>
+    <t>一般的には「保留(suspended)」や「中止(cancelled)」といった例外的状態を示すために持ちいられる。MedicationRequestオーダーが発生した理由についてはreasonCodeに記載され、この項目は用いられない。</t>
   </si>
   <si>
     <t>example</t>
@@ -892,7 +892,7 @@
     <t>routine | urgent | asap | stat</t>
   </si>
   <si>
-    <t>このMedicatinRequestオーダーの優先度。他のオーダーと比較して表現される。</t>
+    <t>このMedicationRequestオーダーの優先度。他のオーダーと比較して表現される。</t>
   </si>
   <si>
     <t>FHIRでは文字列の大きさが1MBを超えてはならない(SHALL NOT)。</t>
@@ -1265,7 +1265,7 @@
   <si>
     <t>参照されるPatientが型として示される。
 一般的には参照の対象として予定される型。もし、Reference.typeとReference.referenceがともに指定されていて、Reference.referenceがFHIRのURLであればどちらも一致させるべきである(SHALL)。
-型はResouce Definitionに対するCanonical URLであってその型も参照の対象となる。Referenceはhttp://hl7.org/fhir/StructureDefinition/に対する相対URLである。たとえば、"Patient"はhttp://hl7.org/fhir/StructureDefinition/Patientへの参照である。絶対URLは論理モデルにおいて、論理モデル内部での参照として飲み使用可能であり、Resouceに対しては指定できない。</t>
+型はResource Definitionに対するCanonical URLであってその型も参照の対象となる。Referenceはhttp://hl7.org/fhir/StructureDefinition/に対する相対URLである。たとえば、"Patient"はhttp://hl7.org/fhir/StructureDefinition/Patientへの参照である。絶対URLは論理モデルにおいて、論理モデル内部での参照として飲み使用可能であり、Resourceに対しては指定できない。</t>
   </si>
   <si>
     <t>このelementは参照の対象の型を指定するためのものである。他のElementで指定されていた型であってもなくても指定することができる。場合によっては、対象の型は参照（たとえば、RESTful URL)についての調査により決定されることもあるし、参照の対象から決定されることもある。もし、参照と型のどちらもが指定されていたら、参照は指定された型を決定されるべきである(SHALL)。</t>
@@ -1286,7 +1286,7 @@
     <t>文字列による参照が不明な場合の論理参照</t>
   </si>
   <si>
-    <t>対象となるresouceへのID。FHIRサーバを経由してこの参照が指定するEntityが指定できないか、実際の位置を示す既知のIDへとResourceを変換できない場合のように、ほかのresourceを直接参照することができない場合に使われる。Reference.identifireがFHIRインスタンスである何かを実際に示している必要はないが、FHIRインスタンスとして表現されると想定される業務概念を示されなくてはらならず(SHALL)、そのインスタンスは参照先のFHIRのResource型である必要がある。</t>
+    <t>対象となるresourceへのID。FHIRサーバを経由してこの参照が指定するEntityが指定できないか、実際の位置を示す既知のIDへとResourceを変換できない場合のように、ほかのresourceを直接参照することができない場合に使われる。Reference.identifierがFHIRインスタンスである何かを実際に示している必要はないが、FHIRインスタンスとして表現されると想定される業務概念を示されなくてはらならず(SHALL)、そのインスタンスは参照先のFHIRのResource型である必要がある。</t>
   </si>
   <si>
     <t>IDが参照として与えられている場合には、参照を処理するシステムはIDをIDが利用される業務コンテキストがわかっているかどうか参照を解決するためにしか利用することができない。このIDはグローバル(たとえば国民ID）であることもあるが、そうでないこともある。そのため、この参照を利用する有効な機構（たとえば、データを連鎖させたり、包含させるなど）、サーバが参照を解決することができるとも期待できない。サーバは到達できなかったり、解決できないあるいは拒否されるような参照でもIDとして受け取ることができる。CapabilityStatement.rest.resource.referencePolicyを参照のこと。
@@ -1358,7 +1358,7 @@
     <t>薬剤をオーダーするときに補助的となる追加情報（たとえば、患者の身長や体重））を含む。</t>
   </si>
   <si>
-    <t>参照先は実存するFHIR Resourceでなければならず(SHALL)、解決可能(アクセスコントロールや、一時的に利用不可であることなどは許容される)でなければならない(SHALL)。解決の方法はURLから取得可能であるか、Resouce型が適応できるかどうか、正規のURLとして絶対的参照を扱うことができるか、ローカルのレジストリ／リポジトリから参照することができるかである。</t>
+    <t>参照先は実存するFHIR Resourceでなければならず(SHALL)、解決可能(アクセスコントロールや、一時的に利用不可であることなどは許容される)でなければならない(SHALL)。解決の方法はURLから取得可能であるか、Resource型が適応できるかどうか、正規のURLとして絶対的参照を扱うことができるか、ローカルのレジストリ／リポジトリから参照することができるかである。</t>
   </si>
   <si>
     <t>Request.supportingInfo</t>
@@ -1590,7 +1590,7 @@
     <t>MedicationRequest.groupIdentifier</t>
   </si>
   <si>
-    <t>このRerquestを一部とする複数のオーダーを構成するID</t>
+    <t>このRequestを一部とする複数のオーダーを構成するID</t>
   </si>
   <si>
     <t>一人の処方者が同時期に前後して作成した全てのリクエストに共通するIDで、処方や薬品請求のIDを示す。</t>
@@ -1708,7 +1708,7 @@
     <t>投与期間の開始日を明示するための拡張</t>
   </si>
   <si>
-    <t>MedcationRequestの投与期間の開始日を明示するための拡張</t>
+    <t>MedicationRequestの投与期間の開始日を明示するための拡張</t>
   </si>
   <si>
     <t>usageDuration</t>
@@ -2637,10 +2637,10 @@
     <t>MedicationRequest.dosageInstruction.route.coding.system</t>
   </si>
   <si>
-    <t>HL7v2-0162表をベースにしたJPFHIRでの投与経路コード表</t>
-  </si>
-  <si>
-    <t>HL7v2-0162表をベースにしたJPFHIRでの投与経路コード表を示すURL</t>
+    <t>HL7v2-0162表をベースにしたJP Coreでの投与経路コード表</t>
+  </si>
+  <si>
+    <t>HL7v2-0162表をベースにしたJP Coreでの投与経路コード表を示すURL</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Common/CodeSystem/route-codes</t>
@@ -2908,7 +2908,7 @@
     <t>1回投与量</t>
   </si>
   <si>
-    <t>この量は指定された薬剤の量を指定するものであって、各有効成分の量を指定するものではない。各成分の量はMedication resourceで伝えることができる。たとえば、有効成分が375mgである錠剤を1錠投与することを伝えたい場合、Medication resourceを利用して、XYZ成分が375mg含有しているという錠剤であることを文書化することができる。あるいは1回投与量が375mgであることを伝えるのであれば、Medication resourceをつかって単にそれが錠剤であることを示せばよい。もし、ドーパミンの静注を例に挙げて、400mgのドーパミンを500mlの注射溶液に混ぜて使うことを伝えたいのであれば、それをすべてMedication resourceで伝えることができる。もし、投与について即時に伝達することを意図していない（たとえば投与速度が示されていたり、投与時期に範囲があるような場合）のであれば、たとえば1回500mlを4時間以上かけて投与する予定を伝える場合にもMecication resourceで伝えることができる。</t>
+    <t>この量は指定された薬剤の量を指定するものであって、各有効成分の量を指定するものではない。各成分の量はMedication resourceで伝えることができる。たとえば、有効成分が375mgである錠剤を1錠投与することを伝えたい場合、Medication resourceを利用して、XYZ成分が375mg含有しているという錠剤であることを文書化することができる。あるいは1回投与量が375mgであることを伝えるのであれば、Medication resourceをつかって単にそれが錠剤であることを示せばよい。もし、ドーパミンの静注を例に挙げて、400mgのドーパミンを500mlの注射溶液に混ぜて使うことを伝えたいのであれば、それをすべてMedication resourceで伝えることができる。もし、投与について即時に伝達することを意図していない（たとえば投与速度が示されていたり、投与時期に範囲があるような場合）のであれば、たとえば1回500mlを4時間以上かけて投与する予定を伝える場合にもMedication resourceで伝えることができる。</t>
   </si>
   <si>
     <t>The amount of therapeutic or other substance given at one administration event.</t>
@@ -2983,7 +2983,7 @@
   </si>
   <si>
     <t>JP Coreでは日本ではまだ一般的に利用されている一日量での処方のためにrateRatioを用いる。
-薬剤の詳細な投与法、提供方法を伝えるために、投与速度(rate)とdoseQuantityの両方の情報を提供することができる。もし、投与速度が変更されるようであれば、ローカルルールや制限に基づいて、全ての変更は新しいバージョンのMeddicationRequestに更新された投与速度を記録するか、MedicationRequestの新しいインスタンスに新しい投与速度を記録されるようにするべきである。
+薬剤の詳細な投与法、提供方法を伝えるために、投与速度(rate)とdoseQuantityの両方の情報を提供することができる。もし、投与速度が変更されるようであれば、ローカルルールや制限に基づいて、全ての変更は新しいバージョンのMedicationRequestに更新された投与速度を記録するか、MedicationRequestの新しいインスタンスに新しい投与速度を記録されるようにするべきである。
 rateRatioとrateQuantityのいずれかを使って時間内の投与速度（たとえば100ml/hour)を指定することができる。rateQuantityを使うには、ml/hourが投与速度の単位と言うだけではなく、時間が分母として指定されているということを示しているというようなUCUM単位の文法をシステムがパース可能であることが求められる。500mlを2時間でというような投与速度指示では、rateRatioがrateQuantityで250mg/hourとするよりもセマンティクスを正確に伝えることができるかもしれない。</t>
   </si>
   <si>
@@ -3852,7 +3852,7 @@
     <t>前回のオーダー/処方</t>
   </si>
   <si>
-    <t>関連する先行オーダーや処方を表現するMedicationRequest Resouceへのリンク。</t>
+    <t>関連する先行オーダーや処方を表現するMedicationRequest Resourceへのリンク。</t>
   </si>
   <si>
     <t>Request.replaces</t>
@@ -3897,7 +3897,7 @@
     <t>このリソースの現在のバージョンをユーザーから見て関係していそうなキーとなる更新や状態遷移と識別される過去のバージョンのこのリソースあるいは調剤請求あるいはEvent ResourceについてのProvenance resourceへの参照。</t>
   </si>
   <si>
-    <t>このエレメントには全てのバージョンのMedicationRequestについてのProvenanceが取り込まれているわけではない。「関連する」あるいは重要と思われたものだけである。現在のバージョンのResouceに関連したProvenance resouceを含めてはならない(SHALL NOT)。（もし、Provenanceとして「関連した」変化と思われれば、後の更新の一部として取り込まれる必要があるだろう。それまでは、このバージョンを_revincludeを使ってprovenanceとして指定して直接クエリーを発行することができる。全てのProvenanceがこのRequestについての履歴を対象として持つべきである。）</t>
+    <t>このエレメントには全てのバージョンのMedicationRequestについてのProvenanceが取り込まれているわけではない。「関連する」あるいは重要と思われたものだけである。現在のバージョンのResourceに関連したProvenance resourceを含めてはならない(SHALL NOT)。（もし、Provenanceとして「関連した」変化と思われれば、後の更新の一部として取り込まれる必要があるだろう。それまでは、このバージョンを_revincludeを使ってprovenanceとして指定して直接クエリーを発行することができる。全てのProvenanceがこのRequestについての履歴を対象として持つべきである。）</t>
   </si>
   <si>
     <t>Request.relevantHistory</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -870,7 +870,7 @@
     <t>薬剤が投与あるいはその他の用途で利用されると想定される場面についての区分である。</t>
   </si>
   <si>
-    <t>MedicationRequest Resourceの区分を示すコード化された概念。たとえば、どこで服薬あるいは投与されるか、治療の種別はどうかについて。FHIRでは</t>
+    <t>MedicationRequest Resourceの区分を示すコード化された概念。たとえば、どこで服薬あるいは投与されるか、治療の種別はどうかについて。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationrequest-category</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -20841,10 +20841,10 @@
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F146" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G146" t="s" s="2">
         <v>80</v>
@@ -24973,10 +24973,10 @@
       </c>
       <c r="D182" s="2"/>
       <c r="E182" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F182" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G182" t="s" s="2">
         <v>80</v>
@@ -40117,10 +40117,10 @@
       </c>
       <c r="D314" s="2"/>
       <c r="E314" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F314" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G314" t="s" s="2">
         <v>80</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -1030,7 +1030,7 @@
   </si>
   <si>
     <t>コードは臨時で列記したものや、コードのリストからSNOMED CTのように公式に定義されたものまである（HL7 v3 core principle を参照)。FHIR自体ではコーディング規約を定めてはいないし、意味を暗示するために利用されない(SHALL NOT)。一般的に UserSelected = trueの場合には一つのコードシステムが使われる。
-【JP-Core仕様】Medication要素の説明を参照のこと。</t>
+【JP Core仕様】Medication要素の説明を参照のこと。</t>
   </si>
   <si>
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11458" uniqueCount="1242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11634" uniqueCount="1251">
   <si>
     <t>Property</t>
   </si>
@@ -2727,6 +2727,9 @@
     <t>投与⽅法に対応するJAMI 用法コード表基本用法１桁コードを識別するURI。</t>
   </si>
   <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
+  </si>
+  <si>
     <t>MedicationRequest.dosageInstruction.method.coding.id</t>
   </si>
   <si>
@@ -2776,6 +2779,9 @@
   </si>
   <si>
     <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コードを識別するURI。２桁コードurn:oid:1.2.392.200250.2.2.20.40</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
   </si>
   <si>
     <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コード。２桁コードurn:oid:1.2.392.200250.2.2.20.40で固定される。</t>
@@ -3296,6 +3302,39 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.extension.value[x].id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.extension.value[x].extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.extension.value[x].coding</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Examples/ValueSet/JP_MedicationInstructionForDispenseJHSP0002_VS</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.extension.value[x].text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
     <t>expectedRepeatCount</t>
   </si>
   <si>
@@ -3683,10 +3722,7 @@
     <t>代替品が許可されるかどうかは無視できないので、このエレメントはmodifierとしてラベルされる。</t>
   </si>
   <si>
-    <t>Identifies the type of substitution allowed.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActSubstanceAdminSubstitutionCode</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationSubstitutionNotAllowedReason_VS</t>
   </si>
   <si>
     <t>code</t>
@@ -3756,15 +3792,6 @@
   </si>
   <si>
     <t>MedicationRequest.substitution.allowed[x].text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
   </si>
   <si>
     <t>MedicationRequest.substitution.reason</t>
@@ -4162,7 +4189,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN315"/>
+  <dimension ref="A1:AN320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4195,7 +4222,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="124.42578125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="71.296875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="82.23046875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -22339,13 +22366,11 @@
         <v>80</v>
       </c>
       <c r="W159" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X159" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X159" s="2"/>
       <c r="Y159" t="s" s="2">
-        <v>80</v>
+        <v>870</v>
       </c>
       <c r="Z159" t="s" s="2">
         <v>80</v>
@@ -22395,7 +22420,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -22507,7 +22532,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -22621,7 +22646,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -22647,10 +22672,10 @@
         <v>102</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="M162" t="s" s="2">
         <v>593</v>
@@ -22663,7 +22688,7 @@
       </c>
       <c r="P162" s="2"/>
       <c r="Q162" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="R162" t="s" s="2">
         <v>80</v>
@@ -22737,7 +22762,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -22851,7 +22876,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -22877,10 +22902,10 @@
         <v>108</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="M164" t="s" s="2">
         <v>566</v>
@@ -22967,7 +22992,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -22993,10 +23018,10 @@
         <v>90</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="M165" t="s" s="2">
         <v>566</v>
@@ -23083,7 +23108,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -23202,7 +23227,7 @@
         <v>863</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C167" t="s" s="2">
         <v>80</v>
@@ -23227,10 +23252,10 @@
         <v>317</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="M167" t="s" s="2">
         <v>586</v>
@@ -23261,13 +23286,11 @@
         <v>80</v>
       </c>
       <c r="W167" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X167" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X167" s="2"/>
       <c r="Y167" t="s" s="2">
-        <v>80</v>
+        <v>888</v>
       </c>
       <c r="Z167" t="s" s="2">
         <v>80</v>
@@ -23317,7 +23340,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -23429,7 +23452,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -23543,7 +23566,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -23569,10 +23592,10 @@
         <v>102</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="M170" t="s" s="2">
         <v>593</v>
@@ -23585,7 +23608,7 @@
       </c>
       <c r="P170" s="2"/>
       <c r="Q170" t="s" s="2">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="R170" t="s" s="2">
         <v>80</v>
@@ -23659,7 +23682,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -23773,7 +23796,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -23799,10 +23822,10 @@
         <v>108</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="M172" t="s" s="2">
         <v>566</v>
@@ -23889,7 +23912,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -23915,10 +23938,10 @@
         <v>90</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="M173" t="s" s="2">
         <v>566</v>
@@ -24005,7 +24028,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -24121,7 +24144,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -24147,10 +24170,10 @@
         <v>90</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="M175" t="s" s="2">
         <v>366</v>
@@ -24237,7 +24260,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -24263,10 +24286,10 @@
         <v>635</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="M176" s="2"/>
       <c r="N176" s="2"/>
@@ -24317,7 +24340,7 @@
         <v>80</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>78</v>
@@ -24344,12 +24367,12 @@
         <v>80</v>
       </c>
       <c r="AN176" t="s" s="2">
-        <v>900</v>
+        <v>902</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -24461,7 +24484,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -24575,7 +24598,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -24601,14 +24624,14 @@
         <v>188</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" t="s" s="2">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>80</v>
@@ -24636,10 +24659,10 @@
         <v>255</v>
       </c>
       <c r="X179" t="s" s="2">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="Y179" t="s" s="2">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="Z179" t="s" s="2">
         <v>80</v>
@@ -24657,7 +24680,7 @@
         <v>80</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>78</v>
@@ -24684,12 +24707,12 @@
         <v>80</v>
       </c>
       <c r="AN179" t="s" s="2">
-        <v>910</v>
+        <v>912</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -24712,19 +24735,19 @@
         <v>80</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>80</v>
@@ -24773,7 +24796,7 @@
         <v>80</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>78</v>
@@ -24785,7 +24808,7 @@
         <v>144</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="AJ180" t="s" s="2">
         <v>80</v>
@@ -24794,18 +24817,18 @@
         <v>80</v>
       </c>
       <c r="AL180" t="s" s="2">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="AM180" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN180" t="s" s="2">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -24917,7 +24940,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -25031,7 +25054,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -25057,10 +25080,10 @@
         <v>657</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="M183" t="s" s="2">
         <v>659</v>
@@ -25147,7 +25170,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -25176,7 +25199,7 @@
         <v>665</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M184" s="2"/>
       <c r="N184" t="s" s="2">
@@ -25263,7 +25286,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -25289,10 +25312,10 @@
         <v>90</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="M185" s="2"/>
       <c r="N185" t="s" s="2">
@@ -25377,7 +25400,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -25403,10 +25426,10 @@
         <v>102</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="M186" s="2"/>
       <c r="N186" t="s" s="2">
@@ -25420,7 +25443,7 @@
         <v>80</v>
       </c>
       <c r="R186" t="s" s="2">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="S186" t="s" s="2">
         <v>80</v>
@@ -25491,7 +25514,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -25517,10 +25540,10 @@
         <v>108</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="M187" t="s" s="2">
         <v>693</v>
@@ -25607,7 +25630,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -25630,19 +25653,19 @@
         <v>89</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>80</v>
@@ -25691,7 +25714,7 @@
         <v>80</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>78</v>
@@ -25712,18 +25735,18 @@
         <v>80</v>
       </c>
       <c r="AL188" t="s" s="2">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="AM188" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN188" t="s" s="2">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -25835,7 +25858,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -25949,7 +25972,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -25972,13 +25995,13 @@
         <v>89</v>
       </c>
       <c r="J191" t="s" s="2">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="M191" s="2"/>
       <c r="N191" s="2"/>
@@ -26029,7 +26052,7 @@
         <v>80</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>78</v>
@@ -26050,7 +26073,7 @@
         <v>80</v>
       </c>
       <c r="AL191" t="s" s="2">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="AM191" t="s" s="2">
         <v>80</v>
@@ -26061,7 +26084,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -26173,7 +26196,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -26287,7 +26310,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -26313,10 +26336,10 @@
         <v>657</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="M194" t="s" s="2">
         <v>659</v>
@@ -26403,7 +26426,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -26519,7 +26542,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -26545,10 +26568,10 @@
         <v>90</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="M196" s="2"/>
       <c r="N196" t="s" s="2">
@@ -26633,7 +26656,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -26659,10 +26682,10 @@
         <v>102</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="M197" s="2"/>
       <c r="N197" t="s" s="2">
@@ -26676,7 +26699,7 @@
         <v>80</v>
       </c>
       <c r="R197" t="s" s="2">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="S197" t="s" s="2">
         <v>80</v>
@@ -26747,7 +26770,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -26773,10 +26796,10 @@
         <v>108</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="M198" t="s" s="2">
         <v>693</v>
@@ -26863,7 +26886,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -26886,13 +26909,13 @@
         <v>89</v>
       </c>
       <c r="J199" t="s" s="2">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="M199" s="2"/>
       <c r="N199" s="2"/>
@@ -26943,7 +26966,7 @@
         <v>80</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>78</v>
@@ -26964,7 +26987,7 @@
         <v>80</v>
       </c>
       <c r="AL199" t="s" s="2">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="AM199" t="s" s="2">
         <v>80</v>
@@ -26975,7 +26998,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -26998,19 +27021,19 @@
         <v>89</v>
       </c>
       <c r="J200" t="s" s="2">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="O200" t="s" s="2">
         <v>80</v>
@@ -27059,7 +27082,7 @@
         <v>80</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>78</v>
@@ -27080,18 +27103,18 @@
         <v>80</v>
       </c>
       <c r="AL200" t="s" s="2">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="AM200" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN200" t="s" s="2">
-        <v>971</v>
+        <v>973</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -27203,7 +27226,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -27317,7 +27340,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -27340,16 +27363,16 @@
         <v>89</v>
       </c>
       <c r="J203" t="s" s="2">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="N203" s="2"/>
       <c r="O203" t="s" s="2">
@@ -27399,7 +27422,7 @@
         <v>80</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>78</v>
@@ -27420,7 +27443,7 @@
         <v>80</v>
       </c>
       <c r="AL203" t="s" s="2">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="AM203" t="s" s="2">
         <v>80</v>
@@ -27431,7 +27454,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -27543,7 +27566,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -27657,7 +27680,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -27683,13 +27706,13 @@
         <v>657</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="N206" t="s" s="2">
         <v>660</v>
@@ -27773,7 +27796,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -27799,16 +27822,16 @@
         <v>108</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="M207" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="O207" t="s" s="2">
         <v>80</v>
@@ -27891,7 +27914,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -27917,16 +27940,16 @@
         <v>90</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="M208" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="O208" t="s" s="2">
         <v>80</v>
@@ -28007,7 +28030,7 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -28033,16 +28056,16 @@
         <v>102</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="M209" t="s" s="2">
         <v>490</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="O209" t="s" s="2">
         <v>80</v>
@@ -28123,7 +28146,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -28149,16 +28172,16 @@
         <v>108</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>80</v>
@@ -28239,7 +28262,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -28262,16 +28285,16 @@
         <v>89</v>
       </c>
       <c r="J211" t="s" s="2">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="N211" s="2"/>
       <c r="O211" t="s" s="2">
@@ -28321,7 +28344,7 @@
         <v>80</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>78</v>
@@ -28342,7 +28365,7 @@
         <v>80</v>
       </c>
       <c r="AL211" t="s" s="2">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="AM211" t="s" s="2">
         <v>80</v>
@@ -28353,7 +28376,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -28465,7 +28488,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -28579,7 +28602,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -28605,13 +28628,13 @@
         <v>657</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="N214" t="s" s="2">
         <v>660</v>
@@ -28695,7 +28718,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -28721,16 +28744,16 @@
         <v>108</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="M215" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="O215" t="s" s="2">
         <v>80</v>
@@ -28813,7 +28836,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -28839,16 +28862,16 @@
         <v>90</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="M216" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="O216" t="s" s="2">
         <v>80</v>
@@ -28929,7 +28952,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -28955,16 +28978,16 @@
         <v>102</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="M217" t="s" s="2">
         <v>490</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="O217" t="s" s="2">
         <v>80</v>
@@ -29045,7 +29068,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -29071,16 +29094,16 @@
         <v>108</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="O218" t="s" s="2">
         <v>80</v>
@@ -29161,7 +29184,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -29184,19 +29207,19 @@
         <v>89</v>
       </c>
       <c r="J219" t="s" s="2">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="O219" t="s" s="2">
         <v>80</v>
@@ -29245,7 +29268,7 @@
         <v>80</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>78</v>
@@ -29266,7 +29289,7 @@
         <v>80</v>
       </c>
       <c r="AL219" t="s" s="2">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="AM219" t="s" s="2">
         <v>80</v>
@@ -29277,7 +29300,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -29389,7 +29412,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -29503,7 +29526,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -29529,13 +29552,13 @@
         <v>657</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="N222" t="s" s="2">
         <v>660</v>
@@ -29619,7 +29642,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -29645,16 +29668,16 @@
         <v>108</v>
       </c>
       <c r="K223" t="s" s="2">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="M223" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N223" t="s" s="2">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="O223" t="s" s="2">
         <v>80</v>
@@ -29737,7 +29760,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -29763,16 +29786,16 @@
         <v>90</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="M224" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="O224" t="s" s="2">
         <v>80</v>
@@ -29853,7 +29876,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -29879,16 +29902,16 @@
         <v>102</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="M225" t="s" s="2">
         <v>490</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="O225" t="s" s="2">
         <v>80</v>
@@ -29969,7 +29992,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -29995,16 +30018,16 @@
         <v>108</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="N226" t="s" s="2">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="O226" t="s" s="2">
         <v>80</v>
@@ -30085,7 +30108,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -30108,19 +30131,19 @@
         <v>89</v>
       </c>
       <c r="J227" t="s" s="2">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="O227" t="s" s="2">
         <v>80</v>
@@ -30169,7 +30192,7 @@
         <v>80</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>78</v>
@@ -30190,7 +30213,7 @@
         <v>80</v>
       </c>
       <c r="AL227" t="s" s="2">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="AM227" t="s" s="2">
         <v>80</v>
@@ -30201,7 +30224,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -30313,7 +30336,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -30427,7 +30450,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -30453,13 +30476,13 @@
         <v>657</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="N230" t="s" s="2">
         <v>660</v>
@@ -30543,7 +30566,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -30569,16 +30592,16 @@
         <v>108</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="M231" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="O231" t="s" s="2">
         <v>80</v>
@@ -30661,7 +30684,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -30687,16 +30710,16 @@
         <v>90</v>
       </c>
       <c r="K232" t="s" s="2">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="M232" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N232" t="s" s="2">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="O232" t="s" s="2">
         <v>80</v>
@@ -30777,7 +30800,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -30803,16 +30826,16 @@
         <v>102</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="M233" t="s" s="2">
         <v>490</v>
       </c>
       <c r="N233" t="s" s="2">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="O233" t="s" s="2">
         <v>80</v>
@@ -30893,7 +30916,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -30919,16 +30942,16 @@
         <v>108</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="N234" t="s" s="2">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="O234" t="s" s="2">
         <v>80</v>
@@ -31009,7 +31032,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -31032,13 +31055,13 @@
         <v>80</v>
       </c>
       <c r="J235" t="s" s="2">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="M235" s="2"/>
       <c r="N235" s="2"/>
@@ -31089,7 +31112,7 @@
         <v>80</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>78</v>
@@ -31107,10 +31130,10 @@
         <v>80</v>
       </c>
       <c r="AK235" t="s" s="2">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="AL235" t="s" s="2">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="AM235" t="s" s="2">
         <v>80</v>
@@ -31121,7 +31144,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -31233,7 +31256,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -31343,10 +31366,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="C238" t="s" s="2">
         <v>80</v>
@@ -31368,13 +31391,13 @@
         <v>80</v>
       </c>
       <c r="J238" t="s" s="2">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="M238" s="2"/>
       <c r="N238" s="2"/>
@@ -31457,7 +31480,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -31569,7 +31592,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -31681,7 +31704,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -31707,13 +31730,13 @@
         <v>102</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="N241" s="2"/>
       <c r="O241" t="s" s="2">
@@ -31721,7 +31744,7 @@
       </c>
       <c r="P241" s="2"/>
       <c r="Q241" t="s" s="2">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="R241" t="s" s="2">
         <v>80</v>
@@ -31763,7 +31786,7 @@
         <v>80</v>
       </c>
       <c r="AE241" t="s" s="2">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="AF241" t="s" s="2">
         <v>88</v>
@@ -31795,7 +31818,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -31821,10 +31844,10 @@
         <v>188</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="M242" s="2"/>
       <c r="N242" s="2"/>
@@ -31863,19 +31886,17 @@
         <v>80</v>
       </c>
       <c r="AA242" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB242" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="AB242" s="2"/>
       <c r="AC242" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD242" t="s" s="2">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="AE242" t="s" s="2">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="AF242" t="s" s="2">
         <v>78</v>
@@ -31907,10 +31928,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>1041</v>
+        <v>1056</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="C243" t="s" s="2">
         <v>80</v>
@@ -31932,13 +31953,13 @@
         <v>80</v>
       </c>
       <c r="J243" t="s" s="2">
-        <v>1058</v>
+        <v>188</v>
       </c>
       <c r="K243" t="s" s="2">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="M243" s="2"/>
       <c r="N243" s="2"/>
@@ -31989,19 +32010,19 @@
         <v>80</v>
       </c>
       <c r="AE243" t="s" s="2">
-        <v>176</v>
+        <v>1058</v>
       </c>
       <c r="AF243" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG243" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH243" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AI243" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ243" t="s" s="2">
         <v>80</v>
@@ -32010,7 +32031,7 @@
         <v>80</v>
       </c>
       <c r="AL243" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AM243" t="s" s="2">
         <v>80</v>
@@ -32021,43 +32042,39 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
-        <v>550</v>
+        <v>80</v>
       </c>
       <c r="D244" s="2"/>
       <c r="E244" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F244" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G244" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H244" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I244" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J244" t="s" s="2">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>551</v>
+        <v>168</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="M244" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N244" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="M244" s="2"/>
+      <c r="N244" s="2"/>
       <c r="O244" t="s" s="2">
         <v>80</v>
       </c>
@@ -32105,19 +32122,19 @@
         <v>80</v>
       </c>
       <c r="AE244" t="s" s="2">
-        <v>553</v>
+        <v>170</v>
       </c>
       <c r="AF244" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG244" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH244" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI244" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AJ244" t="s" s="2">
         <v>80</v>
@@ -32126,7 +32143,7 @@
         <v>80</v>
       </c>
       <c r="AL244" t="s" s="2">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="AM244" t="s" s="2">
         <v>80</v>
@@ -32137,18 +32154,18 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D245" s="2"/>
       <c r="E245" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F245" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G245" t="s" s="2">
         <v>80</v>
@@ -32160,16 +32177,16 @@
         <v>80</v>
       </c>
       <c r="J245" t="s" s="2">
-        <v>1035</v>
+        <v>133</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>1062</v>
+        <v>173</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>1063</v>
+        <v>174</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>1064</v>
+        <v>149</v>
       </c>
       <c r="N245" s="2"/>
       <c r="O245" t="s" s="2">
@@ -32207,31 +32224,31 @@
         <v>80</v>
       </c>
       <c r="AA245" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB245" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AC245" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD245" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE245" t="s" s="2">
-        <v>1061</v>
+        <v>176</v>
       </c>
       <c r="AF245" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG245" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH245" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI245" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ245" t="s" s="2">
         <v>80</v>
@@ -32240,7 +32257,7 @@
         <v>80</v>
       </c>
       <c r="AL245" t="s" s="2">
-        <v>1065</v>
+        <v>171</v>
       </c>
       <c r="AM245" t="s" s="2">
         <v>80</v>
@@ -32251,7 +32268,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -32262,7 +32279,7 @@
         <v>78</v>
       </c>
       <c r="F246" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G246" t="s" s="2">
         <v>80</v>
@@ -32271,19 +32288,23 @@
         <v>80</v>
       </c>
       <c r="I246" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J246" t="s" s="2">
-        <v>90</v>
+        <v>317</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>384</v>
+        <v>864</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="M246" s="2"/>
-      <c r="N246" s="2"/>
+        <v>865</v>
+      </c>
+      <c r="M246" t="s" s="2">
+        <v>866</v>
+      </c>
+      <c r="N246" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="O246" t="s" s="2">
         <v>80</v>
       </c>
@@ -32307,13 +32328,11 @@
         <v>80</v>
       </c>
       <c r="W246" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X246" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X246" s="2"/>
       <c r="Y246" t="s" s="2">
-        <v>80</v>
+        <v>1065</v>
       </c>
       <c r="Z246" t="s" s="2">
         <v>80</v>
@@ -32331,19 +32350,19 @@
         <v>80</v>
       </c>
       <c r="AE246" t="s" s="2">
-        <v>170</v>
+        <v>322</v>
       </c>
       <c r="AF246" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG246" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH246" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI246" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ246" t="s" s="2">
         <v>80</v>
@@ -32352,29 +32371,29 @@
         <v>80</v>
       </c>
       <c r="AL246" t="s" s="2">
-        <v>171</v>
+        <v>323</v>
       </c>
       <c r="AM246" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN246" t="s" s="2">
-        <v>80</v>
+        <v>324</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F247" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G247" t="s" s="2">
         <v>80</v>
@@ -32383,21 +32402,23 @@
         <v>80</v>
       </c>
       <c r="I247" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J247" t="s" s="2">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>173</v>
+        <v>1067</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>174</v>
+        <v>1068</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N247" s="2"/>
+        <v>1069</v>
+      </c>
+      <c r="N247" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O247" t="s" s="2">
         <v>80</v>
       </c>
@@ -32445,19 +32466,19 @@
         <v>80</v>
       </c>
       <c r="AE247" t="s" s="2">
-        <v>176</v>
+        <v>368</v>
       </c>
       <c r="AF247" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG247" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH247" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI247" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ247" t="s" s="2">
         <v>80</v>
@@ -32466,54 +32487,52 @@
         <v>80</v>
       </c>
       <c r="AL247" t="s" s="2">
-        <v>171</v>
+        <v>369</v>
       </c>
       <c r="AM247" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN247" t="s" s="2">
-        <v>80</v>
+        <v>370</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>1068</v>
-      </c>
-      <c r="B248" s="2"/>
+        <v>1043</v>
+      </c>
+      <c r="B248" t="s" s="2">
+        <v>1070</v>
+      </c>
       <c r="C248" t="s" s="2">
-        <v>550</v>
+        <v>80</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F248" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G248" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H248" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I248" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J248" t="s" s="2">
-        <v>133</v>
+        <v>1071</v>
       </c>
       <c r="K248" t="s" s="2">
-        <v>551</v>
+        <v>1072</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="M248" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N248" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>1072</v>
+      </c>
+      <c r="M248" s="2"/>
+      <c r="N248" s="2"/>
       <c r="O248" t="s" s="2">
         <v>80</v>
       </c>
@@ -32561,7 +32580,7 @@
         <v>80</v>
       </c>
       <c r="AE248" t="s" s="2">
-        <v>553</v>
+        <v>176</v>
       </c>
       <c r="AF248" t="s" s="2">
         <v>78</v>
@@ -32570,7 +32589,7 @@
         <v>79</v>
       </c>
       <c r="AH248" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AI248" t="s" s="2">
         <v>139</v>
@@ -32582,7 +32601,7 @@
         <v>80</v>
       </c>
       <c r="AL248" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AM248" t="s" s="2">
         <v>80</v>
@@ -32593,41 +32612,43 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
-        <v>80</v>
+        <v>550</v>
       </c>
       <c r="D249" s="2"/>
       <c r="E249" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F249" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G249" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H249" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I249" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J249" t="s" s="2">
-        <v>912</v>
+        <v>133</v>
       </c>
       <c r="K249" t="s" s="2">
-        <v>1070</v>
+        <v>551</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>1071</v>
+        <v>552</v>
       </c>
       <c r="M249" t="s" s="2">
-        <v>976</v>
-      </c>
-      <c r="N249" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N249" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O249" t="s" s="2">
         <v>80</v>
       </c>
@@ -32675,19 +32696,19 @@
         <v>80</v>
       </c>
       <c r="AE249" t="s" s="2">
-        <v>1069</v>
+        <v>553</v>
       </c>
       <c r="AF249" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG249" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH249" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI249" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ249" t="s" s="2">
         <v>80</v>
@@ -32696,7 +32717,7 @@
         <v>80</v>
       </c>
       <c r="AL249" t="s" s="2">
-        <v>1072</v>
+        <v>131</v>
       </c>
       <c r="AM249" t="s" s="2">
         <v>80</v>
@@ -32707,7 +32728,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -32730,15 +32751,17 @@
         <v>80</v>
       </c>
       <c r="J250" t="s" s="2">
-        <v>90</v>
+        <v>1037</v>
       </c>
       <c r="K250" t="s" s="2">
-        <v>580</v>
+        <v>1075</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="M250" s="2"/>
+        <v>1076</v>
+      </c>
+      <c r="M250" t="s" s="2">
+        <v>1077</v>
+      </c>
       <c r="N250" s="2"/>
       <c r="O250" t="s" s="2">
         <v>80</v>
@@ -32787,7 +32810,7 @@
         <v>80</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>170</v>
+        <v>1074</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>78</v>
@@ -32799,7 +32822,7 @@
         <v>80</v>
       </c>
       <c r="AI250" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ250" t="s" s="2">
         <v>80</v>
@@ -32808,7 +32831,7 @@
         <v>80</v>
       </c>
       <c r="AL250" t="s" s="2">
-        <v>171</v>
+        <v>1078</v>
       </c>
       <c r="AM250" t="s" s="2">
         <v>80</v>
@@ -32819,18 +32842,18 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>1074</v>
+        <v>1079</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F251" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G251" t="s" s="2">
         <v>80</v>
@@ -32842,17 +32865,15 @@
         <v>80</v>
       </c>
       <c r="J251" t="s" s="2">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="K251" t="s" s="2">
-        <v>173</v>
+        <v>384</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M251" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="M251" s="2"/>
       <c r="N251" s="2"/>
       <c r="O251" t="s" s="2">
         <v>80</v>
@@ -32889,31 +32910,31 @@
         <v>80</v>
       </c>
       <c r="AA251" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB251" t="s" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="AC251" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD251" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE251" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="AF251" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG251" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH251" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI251" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AJ251" t="s" s="2">
         <v>80</v>
@@ -32933,18 +32954,18 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>1075</v>
+        <v>1080</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D252" s="2"/>
       <c r="E252" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F252" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G252" t="s" s="2">
         <v>80</v>
@@ -32953,23 +32974,21 @@
         <v>80</v>
       </c>
       <c r="I252" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J252" t="s" s="2">
-        <v>657</v>
+        <v>133</v>
       </c>
       <c r="K252" t="s" s="2">
-        <v>980</v>
+        <v>173</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>981</v>
+        <v>174</v>
       </c>
       <c r="M252" t="s" s="2">
-        <v>982</v>
-      </c>
-      <c r="N252" t="s" s="2">
-        <v>660</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="N252" s="2"/>
       <c r="O252" t="s" s="2">
         <v>80</v>
       </c>
@@ -33017,19 +33036,19 @@
         <v>80</v>
       </c>
       <c r="AE252" t="s" s="2">
-        <v>661</v>
+        <v>176</v>
       </c>
       <c r="AF252" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG252" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH252" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI252" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ252" t="s" s="2">
         <v>80</v>
@@ -33038,29 +33057,29 @@
         <v>80</v>
       </c>
       <c r="AL252" t="s" s="2">
-        <v>662</v>
+        <v>171</v>
       </c>
       <c r="AM252" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN252" t="s" s="2">
-        <v>663</v>
+        <v>80</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>1076</v>
+        <v>1081</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
-        <v>80</v>
+        <v>550</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F253" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G253" t="s" s="2">
         <v>80</v>
@@ -33072,26 +33091,24 @@
         <v>89</v>
       </c>
       <c r="J253" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>984</v>
+        <v>551</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>985</v>
+        <v>552</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>566</v>
+        <v>149</v>
       </c>
       <c r="N253" t="s" s="2">
-        <v>986</v>
+        <v>150</v>
       </c>
       <c r="O253" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P253" t="s" s="2">
-        <v>668</v>
-      </c>
+      <c r="P253" s="2"/>
       <c r="Q253" t="s" s="2">
         <v>80</v>
       </c>
@@ -33111,13 +33128,13 @@
         <v>80</v>
       </c>
       <c r="W253" t="s" s="2">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="X253" t="s" s="2">
-        <v>669</v>
+        <v>80</v>
       </c>
       <c r="Y253" t="s" s="2">
-        <v>670</v>
+        <v>80</v>
       </c>
       <c r="Z253" t="s" s="2">
         <v>80</v>
@@ -33135,19 +33152,19 @@
         <v>80</v>
       </c>
       <c r="AE253" t="s" s="2">
-        <v>671</v>
+        <v>553</v>
       </c>
       <c r="AF253" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG253" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH253" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI253" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ253" t="s" s="2">
         <v>80</v>
@@ -33156,18 +33173,18 @@
         <v>80</v>
       </c>
       <c r="AL253" t="s" s="2">
-        <v>672</v>
+        <v>131</v>
       </c>
       <c r="AM253" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN253" t="s" s="2">
-        <v>673</v>
+        <v>80</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>1077</v>
+        <v>1082</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -33187,23 +33204,21 @@
         <v>80</v>
       </c>
       <c r="I254" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J254" t="s" s="2">
-        <v>90</v>
+        <v>914</v>
       </c>
       <c r="K254" t="s" s="2">
-        <v>988</v>
+        <v>1083</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>989</v>
+        <v>1084</v>
       </c>
       <c r="M254" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N254" t="s" s="2">
-        <v>990</v>
-      </c>
+        <v>978</v>
+      </c>
+      <c r="N254" s="2"/>
       <c r="O254" t="s" s="2">
         <v>80</v>
       </c>
@@ -33251,7 +33266,7 @@
         <v>80</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>679</v>
+        <v>1082</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>78</v>
@@ -33272,18 +33287,18 @@
         <v>80</v>
       </c>
       <c r="AL254" t="s" s="2">
-        <v>680</v>
+        <v>1085</v>
       </c>
       <c r="AM254" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN254" t="s" s="2">
-        <v>681</v>
+        <v>80</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>1078</v>
+        <v>1086</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -33303,23 +33318,19 @@
         <v>80</v>
       </c>
       <c r="I255" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J255" t="s" s="2">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="K255" t="s" s="2">
-        <v>992</v>
+        <v>580</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>993</v>
-      </c>
-      <c r="M255" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N255" t="s" s="2">
-        <v>994</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="M255" s="2"/>
+      <c r="N255" s="2"/>
       <c r="O255" t="s" s="2">
         <v>80</v>
       </c>
@@ -33367,7 +33378,7 @@
         <v>80</v>
       </c>
       <c r="AE255" t="s" s="2">
-        <v>687</v>
+        <v>170</v>
       </c>
       <c r="AF255" t="s" s="2">
         <v>78</v>
@@ -33376,10 +33387,10 @@
         <v>88</v>
       </c>
       <c r="AH255" t="s" s="2">
-        <v>688</v>
+        <v>80</v>
       </c>
       <c r="AI255" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ255" t="s" s="2">
         <v>80</v>
@@ -33388,29 +33399,29 @@
         <v>80</v>
       </c>
       <c r="AL255" t="s" s="2">
-        <v>689</v>
+        <v>171</v>
       </c>
       <c r="AM255" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN255" t="s" s="2">
-        <v>681</v>
+        <v>80</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>1079</v>
+        <v>1087</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D256" s="2"/>
       <c r="E256" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F256" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G256" t="s" s="2">
         <v>80</v>
@@ -33419,23 +33430,21 @@
         <v>80</v>
       </c>
       <c r="I256" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J256" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K256" t="s" s="2">
-        <v>996</v>
+        <v>173</v>
       </c>
       <c r="L256" t="s" s="2">
-        <v>997</v>
+        <v>174</v>
       </c>
       <c r="M256" t="s" s="2">
-        <v>998</v>
-      </c>
-      <c r="N256" t="s" s="2">
-        <v>999</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="N256" s="2"/>
       <c r="O256" t="s" s="2">
         <v>80</v>
       </c>
@@ -33471,31 +33480,31 @@
         <v>80</v>
       </c>
       <c r="AA256" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB256" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AC256" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD256" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE256" t="s" s="2">
-        <v>696</v>
+        <v>176</v>
       </c>
       <c r="AF256" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG256" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH256" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI256" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ256" t="s" s="2">
         <v>80</v>
@@ -33504,18 +33513,18 @@
         <v>80</v>
       </c>
       <c r="AL256" t="s" s="2">
-        <v>697</v>
+        <v>171</v>
       </c>
       <c r="AM256" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN256" t="s" s="2">
-        <v>681</v>
+        <v>80</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>1080</v>
+        <v>1088</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -33535,21 +33544,23 @@
         <v>80</v>
       </c>
       <c r="I257" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J257" t="s" s="2">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="K257" t="s" s="2">
-        <v>1081</v>
+        <v>982</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>1082</v>
+        <v>983</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>976</v>
-      </c>
-      <c r="N257" s="2"/>
+        <v>984</v>
+      </c>
+      <c r="N257" t="s" s="2">
+        <v>660</v>
+      </c>
       <c r="O257" t="s" s="2">
         <v>80</v>
       </c>
@@ -33597,7 +33608,7 @@
         <v>80</v>
       </c>
       <c r="AE257" t="s" s="2">
-        <v>1080</v>
+        <v>661</v>
       </c>
       <c r="AF257" t="s" s="2">
         <v>78</v>
@@ -33618,18 +33629,18 @@
         <v>80</v>
       </c>
       <c r="AL257" t="s" s="2">
-        <v>1083</v>
+        <v>662</v>
       </c>
       <c r="AM257" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN257" t="s" s="2">
-        <v>80</v>
+        <v>663</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>1084</v>
+        <v>1089</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -33640,32 +33651,38 @@
         <v>78</v>
       </c>
       <c r="F258" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G258" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H258" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I258" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J258" t="s" s="2">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="K258" t="s" s="2">
-        <v>580</v>
+        <v>986</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="M258" s="2"/>
-      <c r="N258" s="2"/>
+        <v>987</v>
+      </c>
+      <c r="M258" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="N258" t="s" s="2">
+        <v>988</v>
+      </c>
       <c r="O258" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P258" s="2"/>
+      <c r="P258" t="s" s="2">
+        <v>668</v>
+      </c>
       <c r="Q258" t="s" s="2">
         <v>80</v>
       </c>
@@ -33685,13 +33702,13 @@
         <v>80</v>
       </c>
       <c r="W258" t="s" s="2">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="X258" t="s" s="2">
-        <v>80</v>
+        <v>669</v>
       </c>
       <c r="Y258" t="s" s="2">
-        <v>80</v>
+        <v>670</v>
       </c>
       <c r="Z258" t="s" s="2">
         <v>80</v>
@@ -33709,7 +33726,7 @@
         <v>80</v>
       </c>
       <c r="AE258" t="s" s="2">
-        <v>170</v>
+        <v>671</v>
       </c>
       <c r="AF258" t="s" s="2">
         <v>78</v>
@@ -33721,7 +33738,7 @@
         <v>80</v>
       </c>
       <c r="AI258" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ258" t="s" s="2">
         <v>80</v>
@@ -33730,29 +33747,29 @@
         <v>80</v>
       </c>
       <c r="AL258" t="s" s="2">
-        <v>171</v>
+        <v>672</v>
       </c>
       <c r="AM258" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN258" t="s" s="2">
-        <v>80</v>
+        <v>673</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>1085</v>
+        <v>1090</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F259" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G259" t="s" s="2">
         <v>80</v>
@@ -33761,21 +33778,23 @@
         <v>80</v>
       </c>
       <c r="I259" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J259" t="s" s="2">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="K259" t="s" s="2">
-        <v>173</v>
+        <v>990</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>174</v>
+        <v>991</v>
       </c>
       <c r="M259" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N259" s="2"/>
+        <v>566</v>
+      </c>
+      <c r="N259" t="s" s="2">
+        <v>992</v>
+      </c>
       <c r="O259" t="s" s="2">
         <v>80</v>
       </c>
@@ -33811,31 +33830,31 @@
         <v>80</v>
       </c>
       <c r="AA259" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB259" t="s" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="AC259" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD259" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE259" t="s" s="2">
-        <v>176</v>
+        <v>679</v>
       </c>
       <c r="AF259" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG259" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH259" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI259" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ259" t="s" s="2">
         <v>80</v>
@@ -33844,18 +33863,18 @@
         <v>80</v>
       </c>
       <c r="AL259" t="s" s="2">
-        <v>171</v>
+        <v>680</v>
       </c>
       <c r="AM259" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN259" t="s" s="2">
-        <v>80</v>
+        <v>681</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>1086</v>
+        <v>1091</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -33878,19 +33897,19 @@
         <v>89</v>
       </c>
       <c r="J260" t="s" s="2">
-        <v>657</v>
+        <v>102</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>980</v>
+        <v>994</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>981</v>
+        <v>995</v>
       </c>
       <c r="M260" t="s" s="2">
-        <v>982</v>
+        <v>490</v>
       </c>
       <c r="N260" t="s" s="2">
-        <v>660</v>
+        <v>996</v>
       </c>
       <c r="O260" t="s" s="2">
         <v>80</v>
@@ -33939,7 +33958,7 @@
         <v>80</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>661</v>
+        <v>687</v>
       </c>
       <c r="AF260" t="s" s="2">
         <v>78</v>
@@ -33948,7 +33967,7 @@
         <v>88</v>
       </c>
       <c r="AH260" t="s" s="2">
-        <v>80</v>
+        <v>688</v>
       </c>
       <c r="AI260" t="s" s="2">
         <v>100</v>
@@ -33960,18 +33979,18 @@
         <v>80</v>
       </c>
       <c r="AL260" t="s" s="2">
-        <v>662</v>
+        <v>689</v>
       </c>
       <c r="AM260" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN260" t="s" s="2">
-        <v>663</v>
+        <v>681</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>1087</v>
+        <v>1092</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -33988,7 +34007,7 @@
         <v>80</v>
       </c>
       <c r="H261" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I261" t="s" s="2">
         <v>89</v>
@@ -33997,23 +34016,21 @@
         <v>108</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>984</v>
+        <v>998</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>985</v>
+        <v>999</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>566</v>
+        <v>1000</v>
       </c>
       <c r="N261" t="s" s="2">
-        <v>986</v>
+        <v>1001</v>
       </c>
       <c r="O261" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P261" t="s" s="2">
-        <v>668</v>
-      </c>
+      <c r="P261" s="2"/>
       <c r="Q261" t="s" s="2">
         <v>80</v>
       </c>
@@ -34033,13 +34050,13 @@
         <v>80</v>
       </c>
       <c r="W261" t="s" s="2">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="X261" t="s" s="2">
-        <v>669</v>
+        <v>80</v>
       </c>
       <c r="Y261" t="s" s="2">
-        <v>670</v>
+        <v>80</v>
       </c>
       <c r="Z261" t="s" s="2">
         <v>80</v>
@@ -34057,7 +34074,7 @@
         <v>80</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>671</v>
+        <v>696</v>
       </c>
       <c r="AF261" t="s" s="2">
         <v>78</v>
@@ -34078,18 +34095,18 @@
         <v>80</v>
       </c>
       <c r="AL261" t="s" s="2">
-        <v>672</v>
+        <v>697</v>
       </c>
       <c r="AM261" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN261" t="s" s="2">
-        <v>673</v>
+        <v>681</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>1088</v>
+        <v>1093</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -34109,23 +34126,21 @@
         <v>80</v>
       </c>
       <c r="I262" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J262" t="s" s="2">
-        <v>90</v>
+        <v>651</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>988</v>
+        <v>1094</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>989</v>
+        <v>1095</v>
       </c>
       <c r="M262" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N262" t="s" s="2">
-        <v>990</v>
-      </c>
+        <v>978</v>
+      </c>
+      <c r="N262" s="2"/>
       <c r="O262" t="s" s="2">
         <v>80</v>
       </c>
@@ -34173,7 +34188,7 @@
         <v>80</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>679</v>
+        <v>1093</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>78</v>
@@ -34194,18 +34209,18 @@
         <v>80</v>
       </c>
       <c r="AL262" t="s" s="2">
-        <v>680</v>
+        <v>1096</v>
       </c>
       <c r="AM262" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN262" t="s" s="2">
-        <v>681</v>
+        <v>80</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>1089</v>
+        <v>1097</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -34225,23 +34240,19 @@
         <v>80</v>
       </c>
       <c r="I263" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J263" t="s" s="2">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="K263" t="s" s="2">
-        <v>992</v>
+        <v>580</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>993</v>
-      </c>
-      <c r="M263" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N263" t="s" s="2">
-        <v>994</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="M263" s="2"/>
+      <c r="N263" s="2"/>
       <c r="O263" t="s" s="2">
         <v>80</v>
       </c>
@@ -34289,7 +34300,7 @@
         <v>80</v>
       </c>
       <c r="AE263" t="s" s="2">
-        <v>687</v>
+        <v>170</v>
       </c>
       <c r="AF263" t="s" s="2">
         <v>78</v>
@@ -34298,10 +34309,10 @@
         <v>88</v>
       </c>
       <c r="AH263" t="s" s="2">
-        <v>688</v>
+        <v>80</v>
       </c>
       <c r="AI263" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ263" t="s" s="2">
         <v>80</v>
@@ -34310,29 +34321,29 @@
         <v>80</v>
       </c>
       <c r="AL263" t="s" s="2">
-        <v>689</v>
+        <v>171</v>
       </c>
       <c r="AM263" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN263" t="s" s="2">
-        <v>681</v>
+        <v>80</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>1090</v>
+        <v>1098</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D264" s="2"/>
       <c r="E264" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F264" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G264" t="s" s="2">
         <v>80</v>
@@ -34341,23 +34352,21 @@
         <v>80</v>
       </c>
       <c r="I264" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J264" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K264" t="s" s="2">
-        <v>996</v>
+        <v>173</v>
       </c>
       <c r="L264" t="s" s="2">
-        <v>997</v>
+        <v>174</v>
       </c>
       <c r="M264" t="s" s="2">
-        <v>998</v>
-      </c>
-      <c r="N264" t="s" s="2">
-        <v>999</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="N264" s="2"/>
       <c r="O264" t="s" s="2">
         <v>80</v>
       </c>
@@ -34393,31 +34402,31 @@
         <v>80</v>
       </c>
       <c r="AA264" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB264" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AC264" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD264" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE264" t="s" s="2">
-        <v>696</v>
+        <v>176</v>
       </c>
       <c r="AF264" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG264" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH264" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI264" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ264" t="s" s="2">
         <v>80</v>
@@ -34426,18 +34435,18 @@
         <v>80</v>
       </c>
       <c r="AL264" t="s" s="2">
-        <v>697</v>
+        <v>171</v>
       </c>
       <c r="AM264" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN264" t="s" s="2">
-        <v>681</v>
+        <v>80</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>1091</v>
+        <v>1099</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -34457,21 +34466,23 @@
         <v>80</v>
       </c>
       <c r="I265" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J265" t="s" s="2">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="K265" t="s" s="2">
-        <v>1092</v>
+        <v>982</v>
       </c>
       <c r="L265" t="s" s="2">
-        <v>1093</v>
+        <v>983</v>
       </c>
       <c r="M265" t="s" s="2">
-        <v>976</v>
-      </c>
-      <c r="N265" s="2"/>
+        <v>984</v>
+      </c>
+      <c r="N265" t="s" s="2">
+        <v>660</v>
+      </c>
       <c r="O265" t="s" s="2">
         <v>80</v>
       </c>
@@ -34519,7 +34530,7 @@
         <v>80</v>
       </c>
       <c r="AE265" t="s" s="2">
-        <v>1091</v>
+        <v>661</v>
       </c>
       <c r="AF265" t="s" s="2">
         <v>78</v>
@@ -34540,18 +34551,18 @@
         <v>80</v>
       </c>
       <c r="AL265" t="s" s="2">
-        <v>1083</v>
+        <v>662</v>
       </c>
       <c r="AM265" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN265" t="s" s="2">
-        <v>80</v>
+        <v>663</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>1094</v>
+        <v>1100</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -34568,26 +34579,32 @@
         <v>80</v>
       </c>
       <c r="H266" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I266" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J266" t="s" s="2">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="K266" t="s" s="2">
-        <v>580</v>
+        <v>986</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="M266" s="2"/>
-      <c r="N266" s="2"/>
+        <v>987</v>
+      </c>
+      <c r="M266" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="N266" t="s" s="2">
+        <v>988</v>
+      </c>
       <c r="O266" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P266" s="2"/>
+      <c r="P266" t="s" s="2">
+        <v>668</v>
+      </c>
       <c r="Q266" t="s" s="2">
         <v>80</v>
       </c>
@@ -34607,13 +34624,13 @@
         <v>80</v>
       </c>
       <c r="W266" t="s" s="2">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="X266" t="s" s="2">
-        <v>80</v>
+        <v>669</v>
       </c>
       <c r="Y266" t="s" s="2">
-        <v>80</v>
+        <v>670</v>
       </c>
       <c r="Z266" t="s" s="2">
         <v>80</v>
@@ -34631,7 +34648,7 @@
         <v>80</v>
       </c>
       <c r="AE266" t="s" s="2">
-        <v>170</v>
+        <v>671</v>
       </c>
       <c r="AF266" t="s" s="2">
         <v>78</v>
@@ -34643,7 +34660,7 @@
         <v>80</v>
       </c>
       <c r="AI266" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ266" t="s" s="2">
         <v>80</v>
@@ -34652,29 +34669,29 @@
         <v>80</v>
       </c>
       <c r="AL266" t="s" s="2">
-        <v>171</v>
+        <v>672</v>
       </c>
       <c r="AM266" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN266" t="s" s="2">
-        <v>80</v>
+        <v>673</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>1095</v>
+        <v>1101</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F267" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G267" t="s" s="2">
         <v>80</v>
@@ -34683,21 +34700,23 @@
         <v>80</v>
       </c>
       <c r="I267" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J267" t="s" s="2">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="K267" t="s" s="2">
-        <v>173</v>
+        <v>990</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>174</v>
+        <v>991</v>
       </c>
       <c r="M267" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N267" s="2"/>
+        <v>566</v>
+      </c>
+      <c r="N267" t="s" s="2">
+        <v>992</v>
+      </c>
       <c r="O267" t="s" s="2">
         <v>80</v>
       </c>
@@ -34733,31 +34752,31 @@
         <v>80</v>
       </c>
       <c r="AA267" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB267" t="s" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="AC267" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD267" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE267" t="s" s="2">
-        <v>176</v>
+        <v>679</v>
       </c>
       <c r="AF267" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG267" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH267" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI267" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ267" t="s" s="2">
         <v>80</v>
@@ -34766,18 +34785,18 @@
         <v>80</v>
       </c>
       <c r="AL267" t="s" s="2">
-        <v>171</v>
+        <v>680</v>
       </c>
       <c r="AM267" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN267" t="s" s="2">
-        <v>80</v>
+        <v>681</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -34800,19 +34819,19 @@
         <v>89</v>
       </c>
       <c r="J268" t="s" s="2">
-        <v>657</v>
+        <v>102</v>
       </c>
       <c r="K268" t="s" s="2">
-        <v>980</v>
+        <v>994</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>981</v>
+        <v>995</v>
       </c>
       <c r="M268" t="s" s="2">
-        <v>982</v>
+        <v>490</v>
       </c>
       <c r="N268" t="s" s="2">
-        <v>660</v>
+        <v>996</v>
       </c>
       <c r="O268" t="s" s="2">
         <v>80</v>
@@ -34861,7 +34880,7 @@
         <v>80</v>
       </c>
       <c r="AE268" t="s" s="2">
-        <v>661</v>
+        <v>687</v>
       </c>
       <c r="AF268" t="s" s="2">
         <v>78</v>
@@ -34870,7 +34889,7 @@
         <v>88</v>
       </c>
       <c r="AH268" t="s" s="2">
-        <v>80</v>
+        <v>688</v>
       </c>
       <c r="AI268" t="s" s="2">
         <v>100</v>
@@ -34882,18 +34901,18 @@
         <v>80</v>
       </c>
       <c r="AL268" t="s" s="2">
-        <v>662</v>
+        <v>689</v>
       </c>
       <c r="AM268" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN268" t="s" s="2">
-        <v>663</v>
+        <v>681</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>1097</v>
+        <v>1103</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -34910,7 +34929,7 @@
         <v>80</v>
       </c>
       <c r="H269" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I269" t="s" s="2">
         <v>89</v>
@@ -34919,23 +34938,21 @@
         <v>108</v>
       </c>
       <c r="K269" t="s" s="2">
-        <v>984</v>
+        <v>998</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>985</v>
+        <v>999</v>
       </c>
       <c r="M269" t="s" s="2">
-        <v>566</v>
+        <v>1000</v>
       </c>
       <c r="N269" t="s" s="2">
-        <v>986</v>
+        <v>1001</v>
       </c>
       <c r="O269" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P269" t="s" s="2">
-        <v>668</v>
-      </c>
+      <c r="P269" s="2"/>
       <c r="Q269" t="s" s="2">
         <v>80</v>
       </c>
@@ -34955,13 +34972,13 @@
         <v>80</v>
       </c>
       <c r="W269" t="s" s="2">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="X269" t="s" s="2">
-        <v>669</v>
+        <v>80</v>
       </c>
       <c r="Y269" t="s" s="2">
-        <v>670</v>
+        <v>80</v>
       </c>
       <c r="Z269" t="s" s="2">
         <v>80</v>
@@ -34979,7 +34996,7 @@
         <v>80</v>
       </c>
       <c r="AE269" t="s" s="2">
-        <v>671</v>
+        <v>696</v>
       </c>
       <c r="AF269" t="s" s="2">
         <v>78</v>
@@ -35000,18 +35017,18 @@
         <v>80</v>
       </c>
       <c r="AL269" t="s" s="2">
-        <v>672</v>
+        <v>697</v>
       </c>
       <c r="AM269" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN269" t="s" s="2">
-        <v>673</v>
+        <v>681</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>1098</v>
+        <v>1104</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -35031,23 +35048,21 @@
         <v>80</v>
       </c>
       <c r="I270" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J270" t="s" s="2">
-        <v>90</v>
+        <v>651</v>
       </c>
       <c r="K270" t="s" s="2">
-        <v>988</v>
+        <v>1105</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>989</v>
+        <v>1106</v>
       </c>
       <c r="M270" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N270" t="s" s="2">
-        <v>990</v>
-      </c>
+        <v>978</v>
+      </c>
+      <c r="N270" s="2"/>
       <c r="O270" t="s" s="2">
         <v>80</v>
       </c>
@@ -35095,7 +35110,7 @@
         <v>80</v>
       </c>
       <c r="AE270" t="s" s="2">
-        <v>679</v>
+        <v>1104</v>
       </c>
       <c r="AF270" t="s" s="2">
         <v>78</v>
@@ -35116,18 +35131,18 @@
         <v>80</v>
       </c>
       <c r="AL270" t="s" s="2">
-        <v>680</v>
+        <v>1096</v>
       </c>
       <c r="AM270" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN270" t="s" s="2">
-        <v>681</v>
+        <v>80</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>1099</v>
+        <v>1107</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -35147,23 +35162,19 @@
         <v>80</v>
       </c>
       <c r="I271" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J271" t="s" s="2">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="K271" t="s" s="2">
-        <v>992</v>
+        <v>580</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>993</v>
-      </c>
-      <c r="M271" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N271" t="s" s="2">
-        <v>994</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="M271" s="2"/>
+      <c r="N271" s="2"/>
       <c r="O271" t="s" s="2">
         <v>80</v>
       </c>
@@ -35211,7 +35222,7 @@
         <v>80</v>
       </c>
       <c r="AE271" t="s" s="2">
-        <v>687</v>
+        <v>170</v>
       </c>
       <c r="AF271" t="s" s="2">
         <v>78</v>
@@ -35220,10 +35231,10 @@
         <v>88</v>
       </c>
       <c r="AH271" t="s" s="2">
-        <v>688</v>
+        <v>80</v>
       </c>
       <c r="AI271" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ271" t="s" s="2">
         <v>80</v>
@@ -35232,29 +35243,29 @@
         <v>80</v>
       </c>
       <c r="AL271" t="s" s="2">
-        <v>689</v>
+        <v>171</v>
       </c>
       <c r="AM271" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN271" t="s" s="2">
-        <v>681</v>
+        <v>80</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>1100</v>
+        <v>1108</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F272" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G272" t="s" s="2">
         <v>80</v>
@@ -35263,23 +35274,21 @@
         <v>80</v>
       </c>
       <c r="I272" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J272" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K272" t="s" s="2">
-        <v>996</v>
+        <v>173</v>
       </c>
       <c r="L272" t="s" s="2">
-        <v>997</v>
+        <v>174</v>
       </c>
       <c r="M272" t="s" s="2">
-        <v>998</v>
-      </c>
-      <c r="N272" t="s" s="2">
-        <v>999</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="N272" s="2"/>
       <c r="O272" t="s" s="2">
         <v>80</v>
       </c>
@@ -35315,31 +35324,31 @@
         <v>80</v>
       </c>
       <c r="AA272" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB272" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AC272" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD272" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE272" t="s" s="2">
-        <v>696</v>
+        <v>176</v>
       </c>
       <c r="AF272" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG272" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH272" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI272" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ272" t="s" s="2">
         <v>80</v>
@@ -35348,18 +35357,18 @@
         <v>80</v>
       </c>
       <c r="AL272" t="s" s="2">
-        <v>697</v>
+        <v>171</v>
       </c>
       <c r="AM272" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN272" t="s" s="2">
-        <v>681</v>
+        <v>80</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>1101</v>
+        <v>1109</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -35379,22 +35388,22 @@
         <v>80</v>
       </c>
       <c r="I273" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J273" t="s" s="2">
-        <v>217</v>
+        <v>657</v>
       </c>
       <c r="K273" t="s" s="2">
-        <v>1102</v>
+        <v>982</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>1103</v>
+        <v>983</v>
       </c>
       <c r="M273" t="s" s="2">
-        <v>1104</v>
+        <v>984</v>
       </c>
       <c r="N273" t="s" s="2">
-        <v>1105</v>
+        <v>660</v>
       </c>
       <c r="O273" t="s" s="2">
         <v>80</v>
@@ -35443,7 +35452,7 @@
         <v>80</v>
       </c>
       <c r="AE273" t="s" s="2">
-        <v>1101</v>
+        <v>661</v>
       </c>
       <c r="AF273" t="s" s="2">
         <v>78</v>
@@ -35461,21 +35470,21 @@
         <v>80</v>
       </c>
       <c r="AK273" t="s" s="2">
-        <v>1106</v>
+        <v>80</v>
       </c>
       <c r="AL273" t="s" s="2">
-        <v>1107</v>
+        <v>662</v>
       </c>
       <c r="AM273" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN273" t="s" s="2">
-        <v>80</v>
+        <v>663</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -35492,26 +35501,32 @@
         <v>80</v>
       </c>
       <c r="H274" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I274" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J274" t="s" s="2">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="K274" t="s" s="2">
-        <v>580</v>
+        <v>986</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="M274" s="2"/>
-      <c r="N274" s="2"/>
+        <v>987</v>
+      </c>
+      <c r="M274" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="N274" t="s" s="2">
+        <v>988</v>
+      </c>
       <c r="O274" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P274" s="2"/>
+      <c r="P274" t="s" s="2">
+        <v>668</v>
+      </c>
       <c r="Q274" t="s" s="2">
         <v>80</v>
       </c>
@@ -35531,13 +35546,13 @@
         <v>80</v>
       </c>
       <c r="W274" t="s" s="2">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="X274" t="s" s="2">
-        <v>80</v>
+        <v>669</v>
       </c>
       <c r="Y274" t="s" s="2">
-        <v>80</v>
+        <v>670</v>
       </c>
       <c r="Z274" t="s" s="2">
         <v>80</v>
@@ -35555,7 +35570,7 @@
         <v>80</v>
       </c>
       <c r="AE274" t="s" s="2">
-        <v>170</v>
+        <v>671</v>
       </c>
       <c r="AF274" t="s" s="2">
         <v>78</v>
@@ -35567,7 +35582,7 @@
         <v>80</v>
       </c>
       <c r="AI274" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ274" t="s" s="2">
         <v>80</v>
@@ -35576,29 +35591,29 @@
         <v>80</v>
       </c>
       <c r="AL274" t="s" s="2">
-        <v>171</v>
+        <v>672</v>
       </c>
       <c r="AM274" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN274" t="s" s="2">
-        <v>80</v>
+        <v>673</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D275" s="2"/>
       <c r="E275" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F275" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G275" t="s" s="2">
         <v>80</v>
@@ -35607,21 +35622,23 @@
         <v>80</v>
       </c>
       <c r="I275" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J275" t="s" s="2">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="K275" t="s" s="2">
-        <v>173</v>
+        <v>990</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>174</v>
+        <v>991</v>
       </c>
       <c r="M275" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N275" s="2"/>
+        <v>566</v>
+      </c>
+      <c r="N275" t="s" s="2">
+        <v>992</v>
+      </c>
       <c r="O275" t="s" s="2">
         <v>80</v>
       </c>
@@ -35657,31 +35674,31 @@
         <v>80</v>
       </c>
       <c r="AA275" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB275" t="s" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="AC275" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD275" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE275" t="s" s="2">
-        <v>176</v>
+        <v>679</v>
       </c>
       <c r="AF275" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG275" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH275" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI275" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ275" t="s" s="2">
         <v>80</v>
@@ -35690,18 +35707,18 @@
         <v>80</v>
       </c>
       <c r="AL275" t="s" s="2">
-        <v>171</v>
+        <v>680</v>
       </c>
       <c r="AM275" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN275" t="s" s="2">
-        <v>80</v>
+        <v>681</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -35724,18 +35741,20 @@
         <v>89</v>
       </c>
       <c r="J276" t="s" s="2">
-        <v>428</v>
+        <v>102</v>
       </c>
       <c r="K276" t="s" s="2">
-        <v>1111</v>
+        <v>994</v>
       </c>
       <c r="L276" t="s" s="2">
-        <v>1112</v>
+        <v>995</v>
       </c>
       <c r="M276" t="s" s="2">
-        <v>1113</v>
-      </c>
-      <c r="N276" s="2"/>
+        <v>490</v>
+      </c>
+      <c r="N276" t="s" s="2">
+        <v>996</v>
+      </c>
       <c r="O276" t="s" s="2">
         <v>80</v>
       </c>
@@ -35783,7 +35802,7 @@
         <v>80</v>
       </c>
       <c r="AE276" t="s" s="2">
-        <v>1114</v>
+        <v>687</v>
       </c>
       <c r="AF276" t="s" s="2">
         <v>78</v>
@@ -35792,7 +35811,7 @@
         <v>88</v>
       </c>
       <c r="AH276" t="s" s="2">
-        <v>1115</v>
+        <v>688</v>
       </c>
       <c r="AI276" t="s" s="2">
         <v>100</v>
@@ -35804,18 +35823,18 @@
         <v>80</v>
       </c>
       <c r="AL276" t="s" s="2">
-        <v>1116</v>
+        <v>689</v>
       </c>
       <c r="AM276" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN276" t="s" s="2">
-        <v>1117</v>
+        <v>681</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -35838,24 +35857,24 @@
         <v>89</v>
       </c>
       <c r="J277" t="s" s="2">
-        <v>428</v>
+        <v>108</v>
       </c>
       <c r="K277" t="s" s="2">
-        <v>1119</v>
+        <v>998</v>
       </c>
       <c r="L277" t="s" s="2">
-        <v>1120</v>
+        <v>999</v>
       </c>
       <c r="M277" t="s" s="2">
-        <v>1121</v>
-      </c>
-      <c r="N277" s="2"/>
+        <v>1000</v>
+      </c>
+      <c r="N277" t="s" s="2">
+        <v>1001</v>
+      </c>
       <c r="O277" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P277" t="s" s="2">
-        <v>1122</v>
-      </c>
+      <c r="P277" s="2"/>
       <c r="Q277" t="s" s="2">
         <v>80</v>
       </c>
@@ -35899,7 +35918,7 @@
         <v>80</v>
       </c>
       <c r="AE277" t="s" s="2">
-        <v>1123</v>
+        <v>696</v>
       </c>
       <c r="AF277" t="s" s="2">
         <v>78</v>
@@ -35908,7 +35927,7 @@
         <v>88</v>
       </c>
       <c r="AH277" t="s" s="2">
-        <v>1115</v>
+        <v>80</v>
       </c>
       <c r="AI277" t="s" s="2">
         <v>100</v>
@@ -35920,18 +35939,18 @@
         <v>80</v>
       </c>
       <c r="AL277" t="s" s="2">
-        <v>1124</v>
+        <v>697</v>
       </c>
       <c r="AM277" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN277" t="s" s="2">
-        <v>1125</v>
+        <v>681</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -35954,18 +35973,20 @@
         <v>80</v>
       </c>
       <c r="J278" t="s" s="2">
-        <v>774</v>
+        <v>217</v>
       </c>
       <c r="K278" t="s" s="2">
-        <v>1127</v>
+        <v>1115</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>1128</v>
+        <v>1116</v>
       </c>
       <c r="M278" t="s" s="2">
-        <v>1129</v>
-      </c>
-      <c r="N278" s="2"/>
+        <v>1117</v>
+      </c>
+      <c r="N278" t="s" s="2">
+        <v>1118</v>
+      </c>
       <c r="O278" t="s" s="2">
         <v>80</v>
       </c>
@@ -36013,7 +36034,7 @@
         <v>80</v>
       </c>
       <c r="AE278" t="s" s="2">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="AF278" t="s" s="2">
         <v>78</v>
@@ -36031,21 +36052,21 @@
         <v>80</v>
       </c>
       <c r="AK278" t="s" s="2">
-        <v>1130</v>
+        <v>1119</v>
       </c>
       <c r="AL278" t="s" s="2">
-        <v>1131</v>
+        <v>1120</v>
       </c>
       <c r="AM278" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN278" t="s" s="2">
-        <v>1132</v>
+        <v>80</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>1133</v>
+        <v>1121</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -36068,17 +36089,15 @@
         <v>80</v>
       </c>
       <c r="J279" t="s" s="2">
-        <v>912</v>
+        <v>90</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>1134</v>
+        <v>580</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>1135</v>
-      </c>
-      <c r="M279" t="s" s="2">
-        <v>976</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="M279" s="2"/>
       <c r="N279" s="2"/>
       <c r="O279" t="s" s="2">
         <v>80</v>
@@ -36127,7 +36146,7 @@
         <v>80</v>
       </c>
       <c r="AE279" t="s" s="2">
-        <v>1133</v>
+        <v>170</v>
       </c>
       <c r="AF279" t="s" s="2">
         <v>78</v>
@@ -36139,38 +36158,38 @@
         <v>80</v>
       </c>
       <c r="AI279" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ279" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK279" t="s" s="2">
-        <v>1136</v>
+        <v>80</v>
       </c>
       <c r="AL279" t="s" s="2">
-        <v>1137</v>
+        <v>171</v>
       </c>
       <c r="AM279" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN279" t="s" s="2">
-        <v>1138</v>
+        <v>80</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>1139</v>
+        <v>1122</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D280" s="2"/>
       <c r="E280" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F280" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G280" t="s" s="2">
         <v>80</v>
@@ -36182,15 +36201,17 @@
         <v>80</v>
       </c>
       <c r="J280" t="s" s="2">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="K280" t="s" s="2">
-        <v>580</v>
+        <v>173</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="M280" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="M280" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="N280" s="2"/>
       <c r="O280" t="s" s="2">
         <v>80</v>
@@ -36227,31 +36248,31 @@
         <v>80</v>
       </c>
       <c r="AA280" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB280" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AC280" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD280" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE280" t="s" s="2">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AF280" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG280" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH280" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI280" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AJ280" t="s" s="2">
         <v>80</v>
@@ -36271,18 +36292,18 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>1140</v>
+        <v>1123</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D281" s="2"/>
       <c r="E281" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F281" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G281" t="s" s="2">
         <v>80</v>
@@ -36291,19 +36312,19 @@
         <v>80</v>
       </c>
       <c r="I281" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J281" t="s" s="2">
-        <v>133</v>
+        <v>428</v>
       </c>
       <c r="K281" t="s" s="2">
-        <v>173</v>
+        <v>1124</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>174</v>
+        <v>1125</v>
       </c>
       <c r="M281" t="s" s="2">
-        <v>149</v>
+        <v>1126</v>
       </c>
       <c r="N281" s="2"/>
       <c r="O281" t="s" s="2">
@@ -36341,31 +36362,31 @@
         <v>80</v>
       </c>
       <c r="AA281" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB281" t="s" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="AC281" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD281" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE281" t="s" s="2">
-        <v>176</v>
+        <v>1127</v>
       </c>
       <c r="AF281" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG281" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH281" t="s" s="2">
-        <v>80</v>
+        <v>1128</v>
       </c>
       <c r="AI281" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ281" t="s" s="2">
         <v>80</v>
@@ -36374,18 +36395,18 @@
         <v>80</v>
       </c>
       <c r="AL281" t="s" s="2">
-        <v>171</v>
+        <v>1129</v>
       </c>
       <c r="AM281" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN281" t="s" s="2">
-        <v>80</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>1141</v>
+        <v>1131</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -36393,7 +36414,7 @@
       </c>
       <c r="D282" s="2"/>
       <c r="E282" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F282" t="s" s="2">
         <v>88</v>
@@ -36408,24 +36429,24 @@
         <v>89</v>
       </c>
       <c r="J282" t="s" s="2">
-        <v>657</v>
+        <v>428</v>
       </c>
       <c r="K282" t="s" s="2">
+        <v>1132</v>
+      </c>
+      <c r="L282" t="s" s="2">
+        <v>1133</v>
+      </c>
+      <c r="M282" t="s" s="2">
         <v>1134</v>
       </c>
-      <c r="L282" t="s" s="2">
-        <v>1142</v>
-      </c>
-      <c r="M282" t="s" s="2">
-        <v>982</v>
-      </c>
-      <c r="N282" t="s" s="2">
-        <v>660</v>
-      </c>
+      <c r="N282" s="2"/>
       <c r="O282" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P282" s="2"/>
+      <c r="P282" t="s" s="2">
+        <v>1135</v>
+      </c>
       <c r="Q282" t="s" s="2">
         <v>80</v>
       </c>
@@ -36469,7 +36490,7 @@
         <v>80</v>
       </c>
       <c r="AE282" t="s" s="2">
-        <v>661</v>
+        <v>1136</v>
       </c>
       <c r="AF282" t="s" s="2">
         <v>78</v>
@@ -36478,7 +36499,7 @@
         <v>88</v>
       </c>
       <c r="AH282" t="s" s="2">
-        <v>80</v>
+        <v>1128</v>
       </c>
       <c r="AI282" t="s" s="2">
         <v>100</v>
@@ -36490,18 +36511,18 @@
         <v>80</v>
       </c>
       <c r="AL282" t="s" s="2">
-        <v>662</v>
+        <v>1137</v>
       </c>
       <c r="AM282" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN282" t="s" s="2">
-        <v>663</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -36512,38 +36533,34 @@
         <v>78</v>
       </c>
       <c r="F283" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G283" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H283" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I283" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J283" t="s" s="2">
-        <v>108</v>
+        <v>774</v>
       </c>
       <c r="K283" t="s" s="2">
-        <v>984</v>
+        <v>1140</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>985</v>
+        <v>1141</v>
       </c>
       <c r="M283" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N283" t="s" s="2">
-        <v>986</v>
-      </c>
+        <v>1142</v>
+      </c>
+      <c r="N283" s="2"/>
       <c r="O283" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P283" t="s" s="2">
-        <v>668</v>
-      </c>
+      <c r="P283" s="2"/>
       <c r="Q283" t="s" s="2">
         <v>80</v>
       </c>
@@ -36563,13 +36580,13 @@
         <v>80</v>
       </c>
       <c r="W283" t="s" s="2">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="X283" t="s" s="2">
-        <v>669</v>
+        <v>80</v>
       </c>
       <c r="Y283" t="s" s="2">
-        <v>670</v>
+        <v>80</v>
       </c>
       <c r="Z283" t="s" s="2">
         <v>80</v>
@@ -36587,7 +36604,7 @@
         <v>80</v>
       </c>
       <c r="AE283" t="s" s="2">
-        <v>671</v>
+        <v>1139</v>
       </c>
       <c r="AF283" t="s" s="2">
         <v>78</v>
@@ -36605,21 +36622,21 @@
         <v>80</v>
       </c>
       <c r="AK283" t="s" s="2">
-        <v>80</v>
+        <v>1143</v>
       </c>
       <c r="AL283" t="s" s="2">
-        <v>672</v>
+        <v>1144</v>
       </c>
       <c r="AM283" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN283" t="s" s="2">
-        <v>673</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -36627,7 +36644,7 @@
       </c>
       <c r="D284" s="2"/>
       <c r="E284" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F284" t="s" s="2">
         <v>88</v>
@@ -36639,23 +36656,21 @@
         <v>80</v>
       </c>
       <c r="I284" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J284" t="s" s="2">
-        <v>90</v>
+        <v>914</v>
       </c>
       <c r="K284" t="s" s="2">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="M284" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N284" t="s" s="2">
-        <v>990</v>
-      </c>
+        <v>978</v>
+      </c>
+      <c r="N284" s="2"/>
       <c r="O284" t="s" s="2">
         <v>80</v>
       </c>
@@ -36703,7 +36718,7 @@
         <v>80</v>
       </c>
       <c r="AE284" t="s" s="2">
-        <v>679</v>
+        <v>1146</v>
       </c>
       <c r="AF284" t="s" s="2">
         <v>78</v>
@@ -36721,21 +36736,21 @@
         <v>80</v>
       </c>
       <c r="AK284" t="s" s="2">
-        <v>80</v>
+        <v>1149</v>
       </c>
       <c r="AL284" t="s" s="2">
-        <v>680</v>
+        <v>1150</v>
       </c>
       <c r="AM284" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN284" t="s" s="2">
-        <v>681</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>1146</v>
+        <v>1152</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" t="s" s="2">
@@ -36743,7 +36758,7 @@
       </c>
       <c r="D285" s="2"/>
       <c r="E285" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F285" t="s" s="2">
         <v>88</v>
@@ -36755,23 +36770,19 @@
         <v>80</v>
       </c>
       <c r="I285" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J285" t="s" s="2">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="K285" t="s" s="2">
-        <v>1147</v>
+        <v>580</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>1148</v>
-      </c>
-      <c r="M285" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N285" t="s" s="2">
-        <v>994</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="M285" s="2"/>
+      <c r="N285" s="2"/>
       <c r="O285" t="s" s="2">
         <v>80</v>
       </c>
@@ -36780,7 +36791,7 @@
         <v>80</v>
       </c>
       <c r="R285" t="s" s="2">
-        <v>931</v>
+        <v>80</v>
       </c>
       <c r="S285" t="s" s="2">
         <v>80</v>
@@ -36819,7 +36830,7 @@
         <v>80</v>
       </c>
       <c r="AE285" t="s" s="2">
-        <v>687</v>
+        <v>170</v>
       </c>
       <c r="AF285" t="s" s="2">
         <v>78</v>
@@ -36828,10 +36839,10 @@
         <v>88</v>
       </c>
       <c r="AH285" t="s" s="2">
-        <v>688</v>
+        <v>80</v>
       </c>
       <c r="AI285" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ285" t="s" s="2">
         <v>80</v>
@@ -36840,29 +36851,29 @@
         <v>80</v>
       </c>
       <c r="AL285" t="s" s="2">
-        <v>689</v>
+        <v>171</v>
       </c>
       <c r="AM285" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN285" t="s" s="2">
-        <v>681</v>
+        <v>80</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>1149</v>
+        <v>1153</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F286" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G286" t="s" s="2">
         <v>80</v>
@@ -36871,23 +36882,21 @@
         <v>80</v>
       </c>
       <c r="I286" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J286" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K286" t="s" s="2">
-        <v>1150</v>
+        <v>173</v>
       </c>
       <c r="L286" t="s" s="2">
-        <v>1150</v>
+        <v>174</v>
       </c>
       <c r="M286" t="s" s="2">
-        <v>998</v>
-      </c>
-      <c r="N286" t="s" s="2">
-        <v>999</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="N286" s="2"/>
       <c r="O286" t="s" s="2">
         <v>80</v>
       </c>
@@ -36923,31 +36932,31 @@
         <v>80</v>
       </c>
       <c r="AA286" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB286" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AC286" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD286" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE286" t="s" s="2">
-        <v>696</v>
+        <v>176</v>
       </c>
       <c r="AF286" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG286" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH286" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI286" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ286" t="s" s="2">
         <v>80</v>
@@ -36956,18 +36965,18 @@
         <v>80</v>
       </c>
       <c r="AL286" t="s" s="2">
-        <v>697</v>
+        <v>171</v>
       </c>
       <c r="AM286" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN286" t="s" s="2">
-        <v>681</v>
+        <v>80</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
@@ -36975,7 +36984,7 @@
       </c>
       <c r="D287" s="2"/>
       <c r="E287" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F287" t="s" s="2">
         <v>88</v>
@@ -36987,21 +36996,23 @@
         <v>80</v>
       </c>
       <c r="I287" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J287" t="s" s="2">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="K287" t="s" s="2">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="M287" t="s" s="2">
-        <v>1154</v>
-      </c>
-      <c r="N287" s="2"/>
+        <v>984</v>
+      </c>
+      <c r="N287" t="s" s="2">
+        <v>660</v>
+      </c>
       <c r="O287" t="s" s="2">
         <v>80</v>
       </c>
@@ -37049,7 +37060,7 @@
         <v>80</v>
       </c>
       <c r="AE287" t="s" s="2">
-        <v>1151</v>
+        <v>661</v>
       </c>
       <c r="AF287" t="s" s="2">
         <v>78</v>
@@ -37067,21 +37078,21 @@
         <v>80</v>
       </c>
       <c r="AK287" t="s" s="2">
-        <v>1155</v>
+        <v>80</v>
       </c>
       <c r="AL287" t="s" s="2">
-        <v>1156</v>
+        <v>662</v>
       </c>
       <c r="AM287" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN287" t="s" s="2">
-        <v>80</v>
+        <v>663</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -37092,32 +37103,38 @@
         <v>78</v>
       </c>
       <c r="F288" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G288" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H288" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I288" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J288" t="s" s="2">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="K288" t="s" s="2">
-        <v>580</v>
+        <v>986</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="M288" s="2"/>
-      <c r="N288" s="2"/>
+        <v>987</v>
+      </c>
+      <c r="M288" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="N288" t="s" s="2">
+        <v>988</v>
+      </c>
       <c r="O288" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P288" s="2"/>
+      <c r="P288" t="s" s="2">
+        <v>668</v>
+      </c>
       <c r="Q288" t="s" s="2">
         <v>80</v>
       </c>
@@ -37137,13 +37154,13 @@
         <v>80</v>
       </c>
       <c r="W288" t="s" s="2">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="X288" t="s" s="2">
-        <v>80</v>
+        <v>669</v>
       </c>
       <c r="Y288" t="s" s="2">
-        <v>80</v>
+        <v>670</v>
       </c>
       <c r="Z288" t="s" s="2">
         <v>80</v>
@@ -37161,7 +37178,7 @@
         <v>80</v>
       </c>
       <c r="AE288" t="s" s="2">
-        <v>170</v>
+        <v>671</v>
       </c>
       <c r="AF288" t="s" s="2">
         <v>78</v>
@@ -37173,7 +37190,7 @@
         <v>80</v>
       </c>
       <c r="AI288" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ288" t="s" s="2">
         <v>80</v>
@@ -37182,29 +37199,29 @@
         <v>80</v>
       </c>
       <c r="AL288" t="s" s="2">
-        <v>171</v>
+        <v>672</v>
       </c>
       <c r="AM288" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN288" t="s" s="2">
-        <v>80</v>
+        <v>673</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F289" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G289" t="s" s="2">
         <v>80</v>
@@ -37213,21 +37230,23 @@
         <v>80</v>
       </c>
       <c r="I289" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J289" t="s" s="2">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>173</v>
+        <v>1158</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>174</v>
+        <v>1158</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N289" s="2"/>
+        <v>566</v>
+      </c>
+      <c r="N289" t="s" s="2">
+        <v>992</v>
+      </c>
       <c r="O289" t="s" s="2">
         <v>80</v>
       </c>
@@ -37263,31 +37282,31 @@
         <v>80</v>
       </c>
       <c r="AA289" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB289" t="s" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="AC289" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD289" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE289" t="s" s="2">
-        <v>176</v>
+        <v>679</v>
       </c>
       <c r="AF289" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG289" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH289" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI289" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ289" t="s" s="2">
         <v>80</v>
@@ -37296,13 +37315,13 @@
         <v>80</v>
       </c>
       <c r="AL289" t="s" s="2">
-        <v>171</v>
+        <v>680</v>
       </c>
       <c r="AM289" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN289" t="s" s="2">
-        <v>80</v>
+        <v>681</v>
       </c>
     </row>
     <row r="290">
@@ -37330,19 +37349,19 @@
         <v>89</v>
       </c>
       <c r="J290" t="s" s="2">
-        <v>657</v>
+        <v>102</v>
       </c>
       <c r="K290" t="s" s="2">
-        <v>1152</v>
+        <v>1160</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>1152</v>
+        <v>1161</v>
       </c>
       <c r="M290" t="s" s="2">
-        <v>982</v>
+        <v>490</v>
       </c>
       <c r="N290" t="s" s="2">
-        <v>660</v>
+        <v>996</v>
       </c>
       <c r="O290" t="s" s="2">
         <v>80</v>
@@ -37352,7 +37371,7 @@
         <v>80</v>
       </c>
       <c r="R290" t="s" s="2">
-        <v>80</v>
+        <v>933</v>
       </c>
       <c r="S290" t="s" s="2">
         <v>80</v>
@@ -37391,7 +37410,7 @@
         <v>80</v>
       </c>
       <c r="AE290" t="s" s="2">
-        <v>661</v>
+        <v>687</v>
       </c>
       <c r="AF290" t="s" s="2">
         <v>78</v>
@@ -37400,7 +37419,7 @@
         <v>88</v>
       </c>
       <c r="AH290" t="s" s="2">
-        <v>80</v>
+        <v>688</v>
       </c>
       <c r="AI290" t="s" s="2">
         <v>100</v>
@@ -37412,18 +37431,18 @@
         <v>80</v>
       </c>
       <c r="AL290" t="s" s="2">
-        <v>662</v>
+        <v>689</v>
       </c>
       <c r="AM290" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN290" t="s" s="2">
-        <v>663</v>
+        <v>681</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -37431,16 +37450,16 @@
       </c>
       <c r="D291" s="2"/>
       <c r="E291" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F291" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G291" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H291" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I291" t="s" s="2">
         <v>89</v>
@@ -37449,23 +37468,21 @@
         <v>108</v>
       </c>
       <c r="K291" t="s" s="2">
-        <v>984</v>
+        <v>1163</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>985</v>
+        <v>1163</v>
       </c>
       <c r="M291" t="s" s="2">
-        <v>566</v>
+        <v>1000</v>
       </c>
       <c r="N291" t="s" s="2">
-        <v>986</v>
+        <v>1001</v>
       </c>
       <c r="O291" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P291" t="s" s="2">
-        <v>668</v>
-      </c>
+      <c r="P291" s="2"/>
       <c r="Q291" t="s" s="2">
         <v>80</v>
       </c>
@@ -37485,13 +37502,13 @@
         <v>80</v>
       </c>
       <c r="W291" t="s" s="2">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="X291" t="s" s="2">
-        <v>669</v>
+        <v>80</v>
       </c>
       <c r="Y291" t="s" s="2">
-        <v>670</v>
+        <v>80</v>
       </c>
       <c r="Z291" t="s" s="2">
         <v>80</v>
@@ -37509,7 +37526,7 @@
         <v>80</v>
       </c>
       <c r="AE291" t="s" s="2">
-        <v>671</v>
+        <v>696</v>
       </c>
       <c r="AF291" t="s" s="2">
         <v>78</v>
@@ -37530,18 +37547,18 @@
         <v>80</v>
       </c>
       <c r="AL291" t="s" s="2">
-        <v>672</v>
+        <v>697</v>
       </c>
       <c r="AM291" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN291" t="s" s="2">
-        <v>673</v>
+        <v>681</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" t="s" s="2">
@@ -37549,7 +37566,7 @@
       </c>
       <c r="D292" s="2"/>
       <c r="E292" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F292" t="s" s="2">
         <v>88</v>
@@ -37561,29 +37578,27 @@
         <v>80</v>
       </c>
       <c r="I292" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J292" t="s" s="2">
-        <v>90</v>
+        <v>651</v>
       </c>
       <c r="K292" t="s" s="2">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="M292" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N292" t="s" s="2">
-        <v>990</v>
-      </c>
+        <v>1167</v>
+      </c>
+      <c r="N292" s="2"/>
       <c r="O292" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P292" s="2"/>
       <c r="Q292" t="s" s="2">
-        <v>678</v>
+        <v>80</v>
       </c>
       <c r="R292" t="s" s="2">
         <v>80</v>
@@ -37625,7 +37640,7 @@
         <v>80</v>
       </c>
       <c r="AE292" t="s" s="2">
-        <v>679</v>
+        <v>1164</v>
       </c>
       <c r="AF292" t="s" s="2">
         <v>78</v>
@@ -37643,21 +37658,21 @@
         <v>80</v>
       </c>
       <c r="AK292" t="s" s="2">
-        <v>80</v>
+        <v>1168</v>
       </c>
       <c r="AL292" t="s" s="2">
-        <v>680</v>
+        <v>1169</v>
       </c>
       <c r="AM292" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN292" t="s" s="2">
-        <v>681</v>
+        <v>80</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>1164</v>
+        <v>1170</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" t="s" s="2">
@@ -37665,7 +37680,7 @@
       </c>
       <c r="D293" s="2"/>
       <c r="E293" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F293" t="s" s="2">
         <v>88</v>
@@ -37677,29 +37692,25 @@
         <v>80</v>
       </c>
       <c r="I293" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J293" t="s" s="2">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="K293" t="s" s="2">
-        <v>1165</v>
+        <v>580</v>
       </c>
       <c r="L293" t="s" s="2">
-        <v>1166</v>
-      </c>
-      <c r="M293" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N293" t="s" s="2">
-        <v>994</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="M293" s="2"/>
+      <c r="N293" s="2"/>
       <c r="O293" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P293" s="2"/>
       <c r="Q293" t="s" s="2">
-        <v>686</v>
+        <v>80</v>
       </c>
       <c r="R293" t="s" s="2">
         <v>80</v>
@@ -37741,7 +37752,7 @@
         <v>80</v>
       </c>
       <c r="AE293" t="s" s="2">
-        <v>687</v>
+        <v>170</v>
       </c>
       <c r="AF293" t="s" s="2">
         <v>78</v>
@@ -37750,10 +37761,10 @@
         <v>88</v>
       </c>
       <c r="AH293" t="s" s="2">
-        <v>688</v>
+        <v>80</v>
       </c>
       <c r="AI293" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ293" t="s" s="2">
         <v>80</v>
@@ -37762,29 +37773,29 @@
         <v>80</v>
       </c>
       <c r="AL293" t="s" s="2">
-        <v>689</v>
+        <v>171</v>
       </c>
       <c r="AM293" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN293" t="s" s="2">
-        <v>681</v>
+        <v>80</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>1167</v>
+        <v>1171</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D294" s="2"/>
       <c r="E294" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F294" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G294" t="s" s="2">
         <v>80</v>
@@ -37793,29 +37804,27 @@
         <v>80</v>
       </c>
       <c r="I294" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J294" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K294" t="s" s="2">
-        <v>1168</v>
+        <v>173</v>
       </c>
       <c r="L294" t="s" s="2">
-        <v>1169</v>
+        <v>174</v>
       </c>
       <c r="M294" t="s" s="2">
-        <v>998</v>
-      </c>
-      <c r="N294" t="s" s="2">
-        <v>999</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="N294" s="2"/>
       <c r="O294" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P294" s="2"/>
       <c r="Q294" t="s" s="2">
-        <v>695</v>
+        <v>80</v>
       </c>
       <c r="R294" t="s" s="2">
         <v>80</v>
@@ -37845,31 +37854,31 @@
         <v>80</v>
       </c>
       <c r="AA294" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB294" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AC294" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD294" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE294" t="s" s="2">
-        <v>696</v>
+        <v>176</v>
       </c>
       <c r="AF294" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG294" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH294" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI294" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ294" t="s" s="2">
         <v>80</v>
@@ -37878,18 +37887,18 @@
         <v>80</v>
       </c>
       <c r="AL294" t="s" s="2">
-        <v>697</v>
+        <v>171</v>
       </c>
       <c r="AM294" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN294" t="s" s="2">
-        <v>681</v>
+        <v>80</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" t="s" s="2">
@@ -37897,7 +37906,7 @@
       </c>
       <c r="D295" s="2"/>
       <c r="E295" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F295" t="s" s="2">
         <v>88</v>
@@ -37909,21 +37918,23 @@
         <v>80</v>
       </c>
       <c r="I295" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J295" t="s" s="2">
-        <v>224</v>
+        <v>657</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="M295" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N295" s="2"/>
+        <v>984</v>
+      </c>
+      <c r="N295" t="s" s="2">
+        <v>660</v>
+      </c>
       <c r="O295" t="s" s="2">
         <v>80</v>
       </c>
@@ -37971,7 +37982,7 @@
         <v>80</v>
       </c>
       <c r="AE295" t="s" s="2">
-        <v>1170</v>
+        <v>661</v>
       </c>
       <c r="AF295" t="s" s="2">
         <v>78</v>
@@ -37992,18 +38003,18 @@
         <v>80</v>
       </c>
       <c r="AL295" t="s" s="2">
-        <v>1173</v>
+        <v>662</v>
       </c>
       <c r="AM295" t="s" s="2">
-        <v>462</v>
+        <v>80</v>
       </c>
       <c r="AN295" t="s" s="2">
-        <v>80</v>
+        <v>663</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" t="s" s="2">
@@ -38014,32 +38025,38 @@
         <v>78</v>
       </c>
       <c r="F296" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G296" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H296" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I296" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J296" t="s" s="2">
-        <v>1035</v>
+        <v>108</v>
       </c>
       <c r="K296" t="s" s="2">
-        <v>1175</v>
+        <v>986</v>
       </c>
       <c r="L296" t="s" s="2">
-        <v>1176</v>
-      </c>
-      <c r="M296" s="2"/>
-      <c r="N296" s="2"/>
+        <v>987</v>
+      </c>
+      <c r="M296" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="N296" t="s" s="2">
+        <v>988</v>
+      </c>
       <c r="O296" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P296" s="2"/>
+      <c r="P296" t="s" s="2">
+        <v>668</v>
+      </c>
       <c r="Q296" t="s" s="2">
         <v>80</v>
       </c>
@@ -38059,13 +38076,13 @@
         <v>80</v>
       </c>
       <c r="W296" t="s" s="2">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="X296" t="s" s="2">
-        <v>80</v>
+        <v>669</v>
       </c>
       <c r="Y296" t="s" s="2">
-        <v>80</v>
+        <v>670</v>
       </c>
       <c r="Z296" t="s" s="2">
         <v>80</v>
@@ -38083,7 +38100,7 @@
         <v>80</v>
       </c>
       <c r="AE296" t="s" s="2">
-        <v>1174</v>
+        <v>671</v>
       </c>
       <c r="AF296" t="s" s="2">
         <v>78</v>
@@ -38101,21 +38118,21 @@
         <v>80</v>
       </c>
       <c r="AK296" t="s" s="2">
-        <v>1177</v>
+        <v>80</v>
       </c>
       <c r="AL296" t="s" s="2">
-        <v>1178</v>
+        <v>672</v>
       </c>
       <c r="AM296" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN296" t="s" s="2">
-        <v>80</v>
+        <v>673</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" t="s" s="2">
@@ -38123,7 +38140,7 @@
       </c>
       <c r="D297" s="2"/>
       <c r="E297" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F297" t="s" s="2">
         <v>88</v>
@@ -38135,25 +38152,29 @@
         <v>80</v>
       </c>
       <c r="I297" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J297" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K297" t="s" s="2">
-        <v>384</v>
+        <v>1175</v>
       </c>
       <c r="L297" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M297" s="2"/>
-      <c r="N297" s="2"/>
+        <v>1176</v>
+      </c>
+      <c r="M297" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="N297" t="s" s="2">
+        <v>992</v>
+      </c>
       <c r="O297" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P297" s="2"/>
       <c r="Q297" t="s" s="2">
-        <v>80</v>
+        <v>678</v>
       </c>
       <c r="R297" t="s" s="2">
         <v>80</v>
@@ -38195,7 +38216,7 @@
         <v>80</v>
       </c>
       <c r="AE297" t="s" s="2">
-        <v>170</v>
+        <v>679</v>
       </c>
       <c r="AF297" t="s" s="2">
         <v>78</v>
@@ -38207,7 +38228,7 @@
         <v>80</v>
       </c>
       <c r="AI297" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ297" t="s" s="2">
         <v>80</v>
@@ -38216,29 +38237,29 @@
         <v>80</v>
       </c>
       <c r="AL297" t="s" s="2">
-        <v>171</v>
+        <v>680</v>
       </c>
       <c r="AM297" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN297" t="s" s="2">
-        <v>80</v>
+        <v>681</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F298" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G298" t="s" s="2">
         <v>80</v>
@@ -38247,27 +38268,29 @@
         <v>80</v>
       </c>
       <c r="I298" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J298" t="s" s="2">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="K298" t="s" s="2">
-        <v>173</v>
+        <v>1178</v>
       </c>
       <c r="L298" t="s" s="2">
-        <v>174</v>
+        <v>1179</v>
       </c>
       <c r="M298" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N298" s="2"/>
+        <v>490</v>
+      </c>
+      <c r="N298" t="s" s="2">
+        <v>996</v>
+      </c>
       <c r="O298" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P298" s="2"/>
       <c r="Q298" t="s" s="2">
-        <v>80</v>
+        <v>686</v>
       </c>
       <c r="R298" t="s" s="2">
         <v>80</v>
@@ -38309,19 +38332,19 @@
         <v>80</v>
       </c>
       <c r="AE298" t="s" s="2">
-        <v>176</v>
+        <v>687</v>
       </c>
       <c r="AF298" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG298" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH298" t="s" s="2">
-        <v>80</v>
+        <v>688</v>
       </c>
       <c r="AI298" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ298" t="s" s="2">
         <v>80</v>
@@ -38330,60 +38353,60 @@
         <v>80</v>
       </c>
       <c r="AL298" t="s" s="2">
-        <v>171</v>
+        <v>689</v>
       </c>
       <c r="AM298" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN298" t="s" s="2">
-        <v>80</v>
+        <v>681</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" t="s" s="2">
-        <v>550</v>
+        <v>80</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F299" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G299" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H299" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I299" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J299" t="s" s="2">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="K299" t="s" s="2">
-        <v>551</v>
+        <v>1181</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>552</v>
+        <v>1182</v>
       </c>
       <c r="M299" t="s" s="2">
-        <v>149</v>
+        <v>1000</v>
       </c>
       <c r="N299" t="s" s="2">
-        <v>150</v>
+        <v>1001</v>
       </c>
       <c r="O299" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P299" s="2"/>
       <c r="Q299" t="s" s="2">
-        <v>80</v>
+        <v>695</v>
       </c>
       <c r="R299" t="s" s="2">
         <v>80</v>
@@ -38425,19 +38448,19 @@
         <v>80</v>
       </c>
       <c r="AE299" t="s" s="2">
-        <v>553</v>
+        <v>696</v>
       </c>
       <c r="AF299" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG299" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH299" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI299" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ299" t="s" s="2">
         <v>80</v>
@@ -38446,18 +38469,18 @@
         <v>80</v>
       </c>
       <c r="AL299" t="s" s="2">
-        <v>131</v>
+        <v>697</v>
       </c>
       <c r="AM299" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN299" t="s" s="2">
-        <v>80</v>
+        <v>681</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" t="s" s="2">
@@ -38465,7 +38488,7 @@
       </c>
       <c r="D300" s="2"/>
       <c r="E300" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F300" t="s" s="2">
         <v>88</v>
@@ -38480,16 +38503,16 @@
         <v>80</v>
       </c>
       <c r="J300" t="s" s="2">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K300" t="s" s="2">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="M300" t="s" s="2">
-        <v>1184</v>
+        <v>424</v>
       </c>
       <c r="N300" s="2"/>
       <c r="O300" t="s" s="2">
@@ -38515,13 +38538,13 @@
         <v>80</v>
       </c>
       <c r="W300" t="s" s="2">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="X300" t="s" s="2">
-        <v>1185</v>
+        <v>80</v>
       </c>
       <c r="Y300" t="s" s="2">
-        <v>1186</v>
+        <v>80</v>
       </c>
       <c r="Z300" t="s" s="2">
         <v>80</v>
@@ -38539,10 +38562,10 @@
         <v>80</v>
       </c>
       <c r="AE300" t="s" s="2">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="AF300" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG300" t="s" s="2">
         <v>88</v>
@@ -38557,21 +38580,21 @@
         <v>80</v>
       </c>
       <c r="AK300" t="s" s="2">
-        <v>1177</v>
+        <v>80</v>
       </c>
       <c r="AL300" t="s" s="2">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="AM300" t="s" s="2">
-        <v>80</v>
+        <v>462</v>
       </c>
       <c r="AN300" t="s" s="2">
-        <v>1188</v>
+        <v>80</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" t="s" s="2">
@@ -38594,13 +38617,13 @@
         <v>80</v>
       </c>
       <c r="J301" t="s" s="2">
-        <v>90</v>
+        <v>1037</v>
       </c>
       <c r="K301" t="s" s="2">
-        <v>168</v>
+        <v>1188</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>169</v>
+        <v>1189</v>
       </c>
       <c r="M301" s="2"/>
       <c r="N301" s="2"/>
@@ -38651,7 +38674,7 @@
         <v>80</v>
       </c>
       <c r="AE301" t="s" s="2">
-        <v>170</v>
+        <v>1187</v>
       </c>
       <c r="AF301" t="s" s="2">
         <v>78</v>
@@ -38663,16 +38686,16 @@
         <v>80</v>
       </c>
       <c r="AI301" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ301" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK301" t="s" s="2">
-        <v>80</v>
+        <v>1190</v>
       </c>
       <c r="AL301" t="s" s="2">
-        <v>171</v>
+        <v>1191</v>
       </c>
       <c r="AM301" t="s" s="2">
         <v>80</v>
@@ -38683,18 +38706,18 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F302" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G302" t="s" s="2">
         <v>80</v>
@@ -38706,17 +38729,15 @@
         <v>80</v>
       </c>
       <c r="J302" t="s" s="2">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="K302" t="s" s="2">
-        <v>173</v>
+        <v>384</v>
       </c>
       <c r="L302" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M302" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="M302" s="2"/>
       <c r="N302" s="2"/>
       <c r="O302" t="s" s="2">
         <v>80</v>
@@ -38753,31 +38774,31 @@
         <v>80</v>
       </c>
       <c r="AA302" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB302" t="s" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="AC302" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD302" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE302" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="AF302" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG302" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH302" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI302" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AJ302" t="s" s="2">
         <v>80</v>
@@ -38797,11 +38818,11 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" t="s" s="2">
@@ -38817,23 +38838,21 @@
         <v>80</v>
       </c>
       <c r="I303" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J303" t="s" s="2">
-        <v>317</v>
+        <v>133</v>
       </c>
       <c r="K303" t="s" s="2">
-        <v>1192</v>
+        <v>173</v>
       </c>
       <c r="L303" t="s" s="2">
-        <v>1193</v>
+        <v>174</v>
       </c>
       <c r="M303" t="s" s="2">
-        <v>866</v>
-      </c>
-      <c r="N303" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="N303" s="2"/>
       <c r="O303" t="s" s="2">
         <v>80</v>
       </c>
@@ -38881,7 +38900,7 @@
         <v>80</v>
       </c>
       <c r="AE303" t="s" s="2">
-        <v>322</v>
+        <v>176</v>
       </c>
       <c r="AF303" t="s" s="2">
         <v>78</v>
@@ -38893,7 +38912,7 @@
         <v>80</v>
       </c>
       <c r="AI303" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ303" t="s" s="2">
         <v>80</v>
@@ -38902,13 +38921,13 @@
         <v>80</v>
       </c>
       <c r="AL303" t="s" s="2">
-        <v>323</v>
+        <v>171</v>
       </c>
       <c r="AM303" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN303" t="s" s="2">
-        <v>324</v>
+        <v>80</v>
       </c>
     </row>
     <row r="304">
@@ -38917,35 +38936,39 @@
       </c>
       <c r="B304" s="2"/>
       <c r="C304" t="s" s="2">
-        <v>80</v>
+        <v>550</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F304" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G304" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H304" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I304" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J304" t="s" s="2">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="K304" t="s" s="2">
-        <v>168</v>
+        <v>551</v>
       </c>
       <c r="L304" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M304" s="2"/>
-      <c r="N304" s="2"/>
+        <v>552</v>
+      </c>
+      <c r="M304" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N304" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O304" t="s" s="2">
         <v>80</v>
       </c>
@@ -38993,19 +39016,19 @@
         <v>80</v>
       </c>
       <c r="AE304" t="s" s="2">
-        <v>170</v>
+        <v>553</v>
       </c>
       <c r="AF304" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG304" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH304" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI304" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AJ304" t="s" s="2">
         <v>80</v>
@@ -39014,7 +39037,7 @@
         <v>80</v>
       </c>
       <c r="AL304" t="s" s="2">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="AM304" t="s" s="2">
         <v>80</v>
@@ -39029,14 +39052,14 @@
       </c>
       <c r="B305" s="2"/>
       <c r="C305" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F305" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G305" t="s" s="2">
         <v>80</v>
@@ -39048,16 +39071,16 @@
         <v>80</v>
       </c>
       <c r="J305" t="s" s="2">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="K305" t="s" s="2">
-        <v>173</v>
+        <v>1196</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>174</v>
+        <v>1196</v>
       </c>
       <c r="M305" t="s" s="2">
-        <v>149</v>
+        <v>1197</v>
       </c>
       <c r="N305" s="2"/>
       <c r="O305" t="s" s="2">
@@ -39083,63 +39106,61 @@
         <v>80</v>
       </c>
       <c r="W305" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X305" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X305" s="2"/>
       <c r="Y305" t="s" s="2">
-        <v>80</v>
+        <v>1198</v>
       </c>
       <c r="Z305" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AA305" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB305" t="s" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="AC305" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD305" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE305" t="s" s="2">
-        <v>176</v>
+        <v>1195</v>
       </c>
       <c r="AF305" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG305" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH305" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI305" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ305" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK305" t="s" s="2">
-        <v>80</v>
+        <v>1190</v>
       </c>
       <c r="AL305" t="s" s="2">
-        <v>171</v>
+        <v>1199</v>
       </c>
       <c r="AM305" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN305" t="s" s="2">
-        <v>80</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>1196</v>
+        <v>1201</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" t="s" s="2">
@@ -39147,7 +39168,7 @@
       </c>
       <c r="D306" s="2"/>
       <c r="E306" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F306" t="s" s="2">
         <v>88</v>
@@ -39159,29 +39180,25 @@
         <v>80</v>
       </c>
       <c r="I306" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J306" t="s" s="2">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="K306" t="s" s="2">
-        <v>1197</v>
+        <v>168</v>
       </c>
       <c r="L306" t="s" s="2">
-        <v>1198</v>
-      </c>
-      <c r="M306" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N306" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="M306" s="2"/>
+      <c r="N306" s="2"/>
       <c r="O306" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P306" s="2"/>
       <c r="Q306" t="s" s="2">
-        <v>1199</v>
+        <v>80</v>
       </c>
       <c r="R306" t="s" s="2">
         <v>80</v>
@@ -39223,7 +39240,7 @@
         <v>80</v>
       </c>
       <c r="AE306" t="s" s="2">
-        <v>332</v>
+        <v>170</v>
       </c>
       <c r="AF306" t="s" s="2">
         <v>78</v>
@@ -39235,7 +39252,7 @@
         <v>80</v>
       </c>
       <c r="AI306" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ306" t="s" s="2">
         <v>80</v>
@@ -39244,29 +39261,29 @@
         <v>80</v>
       </c>
       <c r="AL306" t="s" s="2">
-        <v>333</v>
+        <v>171</v>
       </c>
       <c r="AM306" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN306" t="s" s="2">
-        <v>334</v>
+        <v>80</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F307" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G307" t="s" s="2">
         <v>80</v>
@@ -39275,19 +39292,19 @@
         <v>80</v>
       </c>
       <c r="I307" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J307" t="s" s="2">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="K307" t="s" s="2">
-        <v>336</v>
+        <v>173</v>
       </c>
       <c r="L307" t="s" s="2">
-        <v>337</v>
+        <v>174</v>
       </c>
       <c r="M307" t="s" s="2">
-        <v>338</v>
+        <v>149</v>
       </c>
       <c r="N307" s="2"/>
       <c r="O307" t="s" s="2">
@@ -39325,31 +39342,31 @@
         <v>80</v>
       </c>
       <c r="AA307" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB307" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AC307" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD307" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE307" t="s" s="2">
-        <v>339</v>
+        <v>176</v>
       </c>
       <c r="AF307" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG307" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH307" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI307" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ307" t="s" s="2">
         <v>80</v>
@@ -39358,18 +39375,18 @@
         <v>80</v>
       </c>
       <c r="AL307" t="s" s="2">
-        <v>340</v>
+        <v>171</v>
       </c>
       <c r="AM307" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN307" t="s" s="2">
-        <v>341</v>
+        <v>80</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" t="s" s="2">
@@ -39377,10 +39394,10 @@
       </c>
       <c r="D308" s="2"/>
       <c r="E308" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F308" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G308" t="s" s="2">
         <v>80</v>
@@ -39392,17 +39409,19 @@
         <v>89</v>
       </c>
       <c r="J308" t="s" s="2">
-        <v>108</v>
+        <v>317</v>
       </c>
       <c r="K308" t="s" s="2">
-        <v>1192</v>
+        <v>1204</v>
       </c>
       <c r="L308" t="s" s="2">
-        <v>1193</v>
-      </c>
-      <c r="M308" s="2"/>
+        <v>1205</v>
+      </c>
+      <c r="M308" t="s" s="2">
+        <v>866</v>
+      </c>
       <c r="N308" t="s" s="2">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="O308" t="s" s="2">
         <v>80</v>
@@ -39451,13 +39470,13 @@
         <v>80</v>
       </c>
       <c r="AE308" t="s" s="2">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="AF308" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG308" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH308" t="s" s="2">
         <v>80</v>
@@ -39472,18 +39491,18 @@
         <v>80</v>
       </c>
       <c r="AL308" t="s" s="2">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="AM308" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN308" t="s" s="2">
-        <v>348</v>
+        <v>324</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>1202</v>
+        <v>1206</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" t="s" s="2">
@@ -39503,21 +39522,19 @@
         <v>80</v>
       </c>
       <c r="I309" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J309" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K309" t="s" s="2">
-        <v>1203</v>
+        <v>168</v>
       </c>
       <c r="L309" t="s" s="2">
-        <v>1204</v>
+        <v>169</v>
       </c>
       <c r="M309" s="2"/>
-      <c r="N309" t="s" s="2">
-        <v>352</v>
-      </c>
+      <c r="N309" s="2"/>
       <c r="O309" t="s" s="2">
         <v>80</v>
       </c>
@@ -39565,7 +39582,7 @@
         <v>80</v>
       </c>
       <c r="AE309" t="s" s="2">
-        <v>353</v>
+        <v>170</v>
       </c>
       <c r="AF309" t="s" s="2">
         <v>78</v>
@@ -39577,7 +39594,7 @@
         <v>80</v>
       </c>
       <c r="AI309" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ309" t="s" s="2">
         <v>80</v>
@@ -39586,29 +39603,29 @@
         <v>80</v>
       </c>
       <c r="AL309" t="s" s="2">
-        <v>354</v>
+        <v>171</v>
       </c>
       <c r="AM309" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN309" t="s" s="2">
-        <v>355</v>
+        <v>80</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F310" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G310" t="s" s="2">
         <v>80</v>
@@ -39617,23 +39634,21 @@
         <v>80</v>
       </c>
       <c r="I310" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J310" t="s" s="2">
-        <v>288</v>
+        <v>133</v>
       </c>
       <c r="K310" t="s" s="2">
-        <v>1206</v>
+        <v>173</v>
       </c>
       <c r="L310" t="s" s="2">
-        <v>1207</v>
+        <v>174</v>
       </c>
       <c r="M310" t="s" s="2">
-        <v>1208</v>
-      </c>
-      <c r="N310" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="N310" s="2"/>
       <c r="O310" t="s" s="2">
         <v>80</v>
       </c>
@@ -39669,31 +39684,31 @@
         <v>80</v>
       </c>
       <c r="AA310" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB310" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AC310" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD310" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE310" t="s" s="2">
-        <v>360</v>
+        <v>176</v>
       </c>
       <c r="AF310" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG310" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH310" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI310" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ310" t="s" s="2">
         <v>80</v>
@@ -39702,18 +39717,18 @@
         <v>80</v>
       </c>
       <c r="AL310" t="s" s="2">
-        <v>361</v>
+        <v>171</v>
       </c>
       <c r="AM310" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN310" t="s" s="2">
-        <v>362</v>
+        <v>80</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s" s="2">
@@ -39721,7 +39736,7 @@
       </c>
       <c r="D311" s="2"/>
       <c r="E311" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F311" t="s" s="2">
         <v>88</v>
@@ -39736,26 +39751,26 @@
         <v>89</v>
       </c>
       <c r="J311" t="s" s="2">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="K311" t="s" s="2">
+        <v>1209</v>
+      </c>
+      <c r="L311" t="s" s="2">
         <v>1210</v>
       </c>
-      <c r="L311" t="s" s="2">
-        <v>1211</v>
-      </c>
       <c r="M311" t="s" s="2">
-        <v>1212</v>
+        <v>330</v>
       </c>
       <c r="N311" t="s" s="2">
-        <v>367</v>
+        <v>331</v>
       </c>
       <c r="O311" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P311" s="2"/>
       <c r="Q311" t="s" s="2">
-        <v>80</v>
+        <v>1211</v>
       </c>
       <c r="R311" t="s" s="2">
         <v>80</v>
@@ -39797,7 +39812,7 @@
         <v>80</v>
       </c>
       <c r="AE311" t="s" s="2">
-        <v>368</v>
+        <v>332</v>
       </c>
       <c r="AF311" t="s" s="2">
         <v>78</v>
@@ -39818,18 +39833,18 @@
         <v>80</v>
       </c>
       <c r="AL311" t="s" s="2">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="AM311" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN311" t="s" s="2">
-        <v>370</v>
+        <v>334</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" t="s" s="2">
@@ -39849,19 +39864,19 @@
         <v>80</v>
       </c>
       <c r="I312" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J312" t="s" s="2">
-        <v>188</v>
+        <v>90</v>
       </c>
       <c r="K312" t="s" s="2">
-        <v>1214</v>
+        <v>336</v>
       </c>
       <c r="L312" t="s" s="2">
-        <v>1215</v>
+        <v>337</v>
       </c>
       <c r="M312" t="s" s="2">
-        <v>1216</v>
+        <v>338</v>
       </c>
       <c r="N312" s="2"/>
       <c r="O312" t="s" s="2">
@@ -39887,13 +39902,13 @@
         <v>80</v>
       </c>
       <c r="W312" t="s" s="2">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="X312" t="s" s="2">
-        <v>1217</v>
+        <v>80</v>
       </c>
       <c r="Y312" t="s" s="2">
-        <v>1218</v>
+        <v>80</v>
       </c>
       <c r="Z312" t="s" s="2">
         <v>80</v>
@@ -39911,7 +39926,7 @@
         <v>80</v>
       </c>
       <c r="AE312" t="s" s="2">
-        <v>1213</v>
+        <v>339</v>
       </c>
       <c r="AF312" t="s" s="2">
         <v>78</v>
@@ -39929,21 +39944,21 @@
         <v>80</v>
       </c>
       <c r="AK312" t="s" s="2">
-        <v>1219</v>
+        <v>80</v>
       </c>
       <c r="AL312" t="s" s="2">
-        <v>1220</v>
+        <v>340</v>
       </c>
       <c r="AM312" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN312" t="s" s="2">
-        <v>1221</v>
+        <v>341</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>1222</v>
+        <v>1213</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" t="s" s="2">
@@ -39951,7 +39966,7 @@
       </c>
       <c r="D313" s="2"/>
       <c r="E313" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F313" t="s" s="2">
         <v>88</v>
@@ -39963,21 +39978,21 @@
         <v>80</v>
       </c>
       <c r="I313" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J313" t="s" s="2">
-        <v>1223</v>
+        <v>108</v>
       </c>
       <c r="K313" t="s" s="2">
-        <v>1224</v>
+        <v>1204</v>
       </c>
       <c r="L313" t="s" s="2">
-        <v>1225</v>
-      </c>
-      <c r="M313" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N313" s="2"/>
+        <v>1205</v>
+      </c>
+      <c r="M313" s="2"/>
+      <c r="N313" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="O313" t="s" s="2">
         <v>80</v>
       </c>
@@ -40025,7 +40040,7 @@
         <v>80</v>
       </c>
       <c r="AE313" t="s" s="2">
-        <v>1222</v>
+        <v>346</v>
       </c>
       <c r="AF313" t="s" s="2">
         <v>78</v>
@@ -40040,35 +40055,35 @@
         <v>100</v>
       </c>
       <c r="AJ313" t="s" s="2">
-        <v>1226</v>
+        <v>80</v>
       </c>
       <c r="AK313" t="s" s="2">
-        <v>1219</v>
+        <v>80</v>
       </c>
       <c r="AL313" t="s" s="2">
-        <v>1227</v>
+        <v>347</v>
       </c>
       <c r="AM313" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN313" t="s" s="2">
-        <v>80</v>
+        <v>348</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>1228</v>
+        <v>1214</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" t="s" s="2">
-        <v>1229</v>
+        <v>80</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F314" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G314" t="s" s="2">
         <v>80</v>
@@ -40077,21 +40092,21 @@
         <v>80</v>
       </c>
       <c r="I314" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J314" t="s" s="2">
-        <v>1230</v>
+        <v>90</v>
       </c>
       <c r="K314" t="s" s="2">
-        <v>1231</v>
+        <v>1215</v>
       </c>
       <c r="L314" t="s" s="2">
-        <v>1232</v>
-      </c>
-      <c r="M314" t="s" s="2">
-        <v>1233</v>
-      </c>
-      <c r="N314" s="2"/>
+        <v>1216</v>
+      </c>
+      <c r="M314" s="2"/>
+      <c r="N314" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O314" t="s" s="2">
         <v>80</v>
       </c>
@@ -40139,13 +40154,13 @@
         <v>80</v>
       </c>
       <c r="AE314" t="s" s="2">
-        <v>1228</v>
+        <v>353</v>
       </c>
       <c r="AF314" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG314" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH314" t="s" s="2">
         <v>80</v>
@@ -40160,18 +40175,18 @@
         <v>80</v>
       </c>
       <c r="AL314" t="s" s="2">
-        <v>1234</v>
+        <v>354</v>
       </c>
       <c r="AM314" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN314" t="s" s="2">
-        <v>80</v>
+        <v>355</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>1235</v>
+        <v>1217</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" t="s" s="2">
@@ -40182,7 +40197,7 @@
         <v>78</v>
       </c>
       <c r="F315" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G315" t="s" s="2">
         <v>80</v>
@@ -40191,21 +40206,23 @@
         <v>80</v>
       </c>
       <c r="I315" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J315" t="s" s="2">
-        <v>1236</v>
+        <v>288</v>
       </c>
       <c r="K315" t="s" s="2">
-        <v>1237</v>
+        <v>1218</v>
       </c>
       <c r="L315" t="s" s="2">
-        <v>1238</v>
+        <v>1219</v>
       </c>
       <c r="M315" t="s" s="2">
-        <v>1239</v>
-      </c>
-      <c r="N315" s="2"/>
+        <v>1220</v>
+      </c>
+      <c r="N315" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="O315" t="s" s="2">
         <v>80</v>
       </c>
@@ -40253,13 +40270,13 @@
         <v>80</v>
       </c>
       <c r="AE315" t="s" s="2">
-        <v>1235</v>
+        <v>360</v>
       </c>
       <c r="AF315" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG315" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH315" t="s" s="2">
         <v>80</v>
@@ -40268,18 +40285,590 @@
         <v>100</v>
       </c>
       <c r="AJ315" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK315" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL315" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AM315" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN315" t="s" s="2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s" s="2">
+        <v>1221</v>
+      </c>
+      <c r="B316" s="2"/>
+      <c r="C316" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D316" s="2"/>
+      <c r="E316" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F316" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G316" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H316" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I316" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J316" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K316" t="s" s="2">
+        <v>1067</v>
+      </c>
+      <c r="L316" t="s" s="2">
+        <v>1068</v>
+      </c>
+      <c r="M316" t="s" s="2">
+        <v>1069</v>
+      </c>
+      <c r="N316" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="O316" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P316" s="2"/>
+      <c r="Q316" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R316" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S316" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T316" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U316" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V316" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W316" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X316" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y316" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z316" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA316" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB316" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC316" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD316" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE316" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AF316" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG316" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH316" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI316" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ316" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK316" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL316" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AM316" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN316" t="s" s="2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s" s="2">
+        <v>1222</v>
+      </c>
+      <c r="B317" s="2"/>
+      <c r="C317" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D317" s="2"/>
+      <c r="E317" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F317" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G317" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H317" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I317" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J317" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K317" t="s" s="2">
+        <v>1223</v>
+      </c>
+      <c r="L317" t="s" s="2">
+        <v>1224</v>
+      </c>
+      <c r="M317" t="s" s="2">
+        <v>1225</v>
+      </c>
+      <c r="N317" s="2"/>
+      <c r="O317" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P317" s="2"/>
+      <c r="Q317" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R317" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S317" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T317" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U317" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V317" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W317" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="X317" t="s" s="2">
+        <v>1226</v>
+      </c>
+      <c r="Y317" t="s" s="2">
+        <v>1227</v>
+      </c>
+      <c r="Z317" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA317" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB317" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC317" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD317" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE317" t="s" s="2">
+        <v>1222</v>
+      </c>
+      <c r="AF317" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG317" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH317" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI317" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ317" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK317" t="s" s="2">
+        <v>1228</v>
+      </c>
+      <c r="AL317" t="s" s="2">
+        <v>1229</v>
+      </c>
+      <c r="AM317" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN317" t="s" s="2">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s" s="2">
+        <v>1231</v>
+      </c>
+      <c r="B318" s="2"/>
+      <c r="C318" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D318" s="2"/>
+      <c r="E318" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F318" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G318" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H318" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I318" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J318" t="s" s="2">
+        <v>1232</v>
+      </c>
+      <c r="K318" t="s" s="2">
+        <v>1233</v>
+      </c>
+      <c r="L318" t="s" s="2">
+        <v>1234</v>
+      </c>
+      <c r="M318" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="N318" s="2"/>
+      <c r="O318" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P318" s="2"/>
+      <c r="Q318" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R318" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S318" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T318" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U318" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V318" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W318" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X318" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y318" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z318" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA318" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB318" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC318" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD318" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE318" t="s" s="2">
+        <v>1231</v>
+      </c>
+      <c r="AF318" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG318" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH318" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI318" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ318" t="s" s="2">
+        <v>1235</v>
+      </c>
+      <c r="AK318" t="s" s="2">
+        <v>1228</v>
+      </c>
+      <c r="AL318" t="s" s="2">
+        <v>1236</v>
+      </c>
+      <c r="AM318" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN318" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s" s="2">
+        <v>1237</v>
+      </c>
+      <c r="B319" s="2"/>
+      <c r="C319" t="s" s="2">
+        <v>1238</v>
+      </c>
+      <c r="D319" s="2"/>
+      <c r="E319" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F319" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G319" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H319" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I319" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J319" t="s" s="2">
+        <v>1239</v>
+      </c>
+      <c r="K319" t="s" s="2">
         <v>1240</v>
       </c>
-      <c r="AK315" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL315" t="s" s="2">
+      <c r="L319" t="s" s="2">
         <v>1241</v>
       </c>
-      <c r="AM315" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN315" t="s" s="2">
+      <c r="M319" t="s" s="2">
+        <v>1242</v>
+      </c>
+      <c r="N319" s="2"/>
+      <c r="O319" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P319" s="2"/>
+      <c r="Q319" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R319" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S319" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T319" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U319" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V319" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W319" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X319" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y319" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z319" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA319" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB319" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC319" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD319" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE319" t="s" s="2">
+        <v>1237</v>
+      </c>
+      <c r="AF319" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG319" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH319" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI319" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ319" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK319" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL319" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="AM319" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN319" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s" s="2">
+        <v>1244</v>
+      </c>
+      <c r="B320" s="2"/>
+      <c r="C320" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D320" s="2"/>
+      <c r="E320" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F320" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G320" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H320" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I320" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J320" t="s" s="2">
+        <v>1245</v>
+      </c>
+      <c r="K320" t="s" s="2">
+        <v>1246</v>
+      </c>
+      <c r="L320" t="s" s="2">
+        <v>1247</v>
+      </c>
+      <c r="M320" t="s" s="2">
+        <v>1248</v>
+      </c>
+      <c r="N320" s="2"/>
+      <c r="O320" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P320" s="2"/>
+      <c r="Q320" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R320" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S320" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T320" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U320" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V320" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W320" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X320" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y320" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z320" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA320" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB320" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC320" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD320" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE320" t="s" s="2">
+        <v>1244</v>
+      </c>
+      <c r="AF320" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG320" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH320" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI320" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ320" t="s" s="2">
+        <v>1249</v>
+      </c>
+      <c r="AK320" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL320" t="s" s="2">
+        <v>1250</v>
+      </c>
+      <c r="AM320" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN320" t="s" s="2">
         <v>80</v>
       </c>
     </row>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11634" uniqueCount="1251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11632" uniqueCount="1252">
   <si>
     <t>Property</t>
   </si>
@@ -2918,7 +2918,7 @@
     <t>医薬品単位略号を識別するOID。固定値。</t>
   </si>
   <si>
-    <t>urn:oid:1.2.392.100495.20.2.101</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUnitMERIT9_VS</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].code</t>
@@ -3611,6 +3611,9 @@
   </si>
   <si>
     <t>医薬品単位略号を識別するURL。urn:oid:1.2.392.100495.20.2.101で固定される。</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.100495.20.2.101</t>
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest.quantity.code</t>
@@ -25062,7 +25065,7 @@
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F183" t="s" s="2">
         <v>88</v>
@@ -25294,7 +25297,7 @@
       </c>
       <c r="D185" s="2"/>
       <c r="E185" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F185" t="s" s="2">
         <v>88</v>
@@ -25408,7 +25411,7 @@
       </c>
       <c r="D186" s="2"/>
       <c r="E186" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F186" t="s" s="2">
         <v>88</v>
@@ -25443,28 +25446,26 @@
         <v>80</v>
       </c>
       <c r="R186" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S186" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T186" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U186" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V186" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W186" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X186" s="2"/>
+      <c r="Y186" t="s" s="2">
         <v>933</v>
-      </c>
-      <c r="S186" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T186" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U186" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V186" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W186" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X186" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y186" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="Z186" t="s" s="2">
         <v>80</v>
@@ -25980,7 +25981,7 @@
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F191" t="s" s="2">
         <v>88</v>
@@ -26318,7 +26319,7 @@
       </c>
       <c r="D194" s="2"/>
       <c r="E194" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F194" t="s" s="2">
         <v>88</v>
@@ -26550,7 +26551,7 @@
       </c>
       <c r="D196" s="2"/>
       <c r="E196" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F196" t="s" s="2">
         <v>88</v>
@@ -26664,7 +26665,7 @@
       </c>
       <c r="D197" s="2"/>
       <c r="E197" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F197" t="s" s="2">
         <v>88</v>
@@ -26699,28 +26700,26 @@
         <v>80</v>
       </c>
       <c r="R197" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S197" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T197" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U197" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V197" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W197" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X197" s="2"/>
+      <c r="Y197" t="s" s="2">
         <v>933</v>
-      </c>
-      <c r="S197" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T197" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U197" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V197" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W197" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X197" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y197" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="Z197" t="s" s="2">
         <v>80</v>
@@ -37371,7 +37370,7 @@
         <v>80</v>
       </c>
       <c r="R290" t="s" s="2">
-        <v>933</v>
+        <v>1162</v>
       </c>
       <c r="S290" t="s" s="2">
         <v>80</v>
@@ -37442,7 +37441,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -37468,10 +37467,10 @@
         <v>108</v>
       </c>
       <c r="K291" t="s" s="2">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="M291" t="s" s="2">
         <v>1000</v>
@@ -37558,7 +37557,7 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" t="s" s="2">
@@ -37584,13 +37583,13 @@
         <v>651</v>
       </c>
       <c r="K292" t="s" s="2">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="M292" t="s" s="2">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="N292" s="2"/>
       <c r="O292" t="s" s="2">
@@ -37640,7 +37639,7 @@
         <v>80</v>
       </c>
       <c r="AE292" t="s" s="2">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="AF292" t="s" s="2">
         <v>78</v>
@@ -37658,10 +37657,10 @@
         <v>80</v>
       </c>
       <c r="AK292" t="s" s="2">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="AL292" t="s" s="2">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="AM292" t="s" s="2">
         <v>80</v>
@@ -37672,7 +37671,7 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" t="s" s="2">
@@ -37784,7 +37783,7 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" t="s" s="2">
@@ -37898,7 +37897,7 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" t="s" s="2">
@@ -37924,10 +37923,10 @@
         <v>657</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="M295" t="s" s="2">
         <v>984</v>
@@ -38014,7 +38013,7 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" t="s" s="2">
@@ -38132,7 +38131,7 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" t="s" s="2">
@@ -38158,10 +38157,10 @@
         <v>90</v>
       </c>
       <c r="K297" t="s" s="2">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="L297" t="s" s="2">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="M297" t="s" s="2">
         <v>566</v>
@@ -38248,7 +38247,7 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" t="s" s="2">
@@ -38274,10 +38273,10 @@
         <v>102</v>
       </c>
       <c r="K298" t="s" s="2">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="L298" t="s" s="2">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="M298" t="s" s="2">
         <v>490</v>
@@ -38364,7 +38363,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" t="s" s="2">
@@ -38390,10 +38389,10 @@
         <v>108</v>
       </c>
       <c r="K299" t="s" s="2">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="M299" t="s" s="2">
         <v>1000</v>
@@ -38480,7 +38479,7 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" t="s" s="2">
@@ -38506,10 +38505,10 @@
         <v>224</v>
       </c>
       <c r="K300" t="s" s="2">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="M300" t="s" s="2">
         <v>424</v>
@@ -38562,7 +38561,7 @@
         <v>80</v>
       </c>
       <c r="AE300" t="s" s="2">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="AF300" t="s" s="2">
         <v>78</v>
@@ -38583,7 +38582,7 @@
         <v>80</v>
       </c>
       <c r="AL300" t="s" s="2">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="AM300" t="s" s="2">
         <v>462</v>
@@ -38594,7 +38593,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" t="s" s="2">
@@ -38620,10 +38619,10 @@
         <v>1037</v>
       </c>
       <c r="K301" t="s" s="2">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="M301" s="2"/>
       <c r="N301" s="2"/>
@@ -38674,7 +38673,7 @@
         <v>80</v>
       </c>
       <c r="AE301" t="s" s="2">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="AF301" t="s" s="2">
         <v>78</v>
@@ -38692,10 +38691,10 @@
         <v>80</v>
       </c>
       <c r="AK301" t="s" s="2">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="AL301" t="s" s="2">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="AM301" t="s" s="2">
         <v>80</v>
@@ -38706,7 +38705,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" t="s" s="2">
@@ -38818,7 +38817,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" t="s" s="2">
@@ -38932,7 +38931,7 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" t="s" s="2">
@@ -39048,7 +39047,7 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B305" s="2"/>
       <c r="C305" t="s" s="2">
@@ -39074,13 +39073,13 @@
         <v>188</v>
       </c>
       <c r="K305" t="s" s="2">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="M305" t="s" s="2">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="N305" s="2"/>
       <c r="O305" t="s" s="2">
@@ -39110,7 +39109,7 @@
       </c>
       <c r="X305" s="2"/>
       <c r="Y305" t="s" s="2">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="Z305" t="s" s="2">
         <v>80</v>
@@ -39128,7 +39127,7 @@
         <v>80</v>
       </c>
       <c r="AE305" t="s" s="2">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="AF305" t="s" s="2">
         <v>88</v>
@@ -39146,21 +39145,21 @@
         <v>80</v>
       </c>
       <c r="AK305" t="s" s="2">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="AL305" t="s" s="2">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="AM305" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN305" t="s" s="2">
-        <v>1200</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" t="s" s="2">
@@ -39272,7 +39271,7 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" t="s" s="2">
@@ -39386,7 +39385,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" t="s" s="2">
@@ -39412,10 +39411,10 @@
         <v>317</v>
       </c>
       <c r="K308" t="s" s="2">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="L308" t="s" s="2">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="M308" t="s" s="2">
         <v>866</v>
@@ -39502,7 +39501,7 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" t="s" s="2">
@@ -39614,7 +39613,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" t="s" s="2">
@@ -39728,7 +39727,7 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s" s="2">
@@ -39754,10 +39753,10 @@
         <v>102</v>
       </c>
       <c r="K311" t="s" s="2">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="M311" t="s" s="2">
         <v>330</v>
@@ -39770,7 +39769,7 @@
       </c>
       <c r="P311" s="2"/>
       <c r="Q311" t="s" s="2">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="R311" t="s" s="2">
         <v>80</v>
@@ -39844,7 +39843,7 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" t="s" s="2">
@@ -39958,7 +39957,7 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" t="s" s="2">
@@ -39984,10 +39983,10 @@
         <v>108</v>
       </c>
       <c r="K313" t="s" s="2">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="L313" t="s" s="2">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="M313" s="2"/>
       <c r="N313" t="s" s="2">
@@ -40072,7 +40071,7 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" t="s" s="2">
@@ -40098,10 +40097,10 @@
         <v>90</v>
       </c>
       <c r="K314" t="s" s="2">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="L314" t="s" s="2">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="M314" s="2"/>
       <c r="N314" t="s" s="2">
@@ -40186,7 +40185,7 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" t="s" s="2">
@@ -40212,13 +40211,13 @@
         <v>288</v>
       </c>
       <c r="K315" t="s" s="2">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="L315" t="s" s="2">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="M315" t="s" s="2">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="N315" t="s" s="2">
         <v>359</v>
@@ -40302,7 +40301,7 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" t="s" s="2">
@@ -40418,7 +40417,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" t="s" s="2">
@@ -40444,13 +40443,13 @@
         <v>188</v>
       </c>
       <c r="K317" t="s" s="2">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="L317" t="s" s="2">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="M317" t="s" s="2">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="N317" s="2"/>
       <c r="O317" t="s" s="2">
@@ -40479,10 +40478,10 @@
         <v>255</v>
       </c>
       <c r="X317" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="Y317" t="s" s="2">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="Z317" t="s" s="2">
         <v>80</v>
@@ -40500,7 +40499,7 @@
         <v>80</v>
       </c>
       <c r="AE317" t="s" s="2">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="AF317" t="s" s="2">
         <v>78</v>
@@ -40518,21 +40517,21 @@
         <v>80</v>
       </c>
       <c r="AK317" t="s" s="2">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="AL317" t="s" s="2">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="AM317" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN317" t="s" s="2">
-        <v>1230</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" t="s" s="2">
@@ -40555,13 +40554,13 @@
         <v>80</v>
       </c>
       <c r="J318" t="s" s="2">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="K318" t="s" s="2">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="L318" t="s" s="2">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="M318" t="s" s="2">
         <v>424</v>
@@ -40614,7 +40613,7 @@
         <v>80</v>
       </c>
       <c r="AE318" t="s" s="2">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="AF318" t="s" s="2">
         <v>78</v>
@@ -40629,13 +40628,13 @@
         <v>100</v>
       </c>
       <c r="AJ318" t="s" s="2">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="AK318" t="s" s="2">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="AL318" t="s" s="2">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="AM318" t="s" s="2">
         <v>80</v>
@@ -40646,11 +40645,11 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="B319" s="2"/>
       <c r="C319" t="s" s="2">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" t="s" s="2">
@@ -40669,16 +40668,16 @@
         <v>80</v>
       </c>
       <c r="J319" t="s" s="2">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="K319" t="s" s="2">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="L319" t="s" s="2">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="M319" t="s" s="2">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="N319" s="2"/>
       <c r="O319" t="s" s="2">
@@ -40728,7 +40727,7 @@
         <v>80</v>
       </c>
       <c r="AE319" t="s" s="2">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="AF319" t="s" s="2">
         <v>78</v>
@@ -40749,7 +40748,7 @@
         <v>80</v>
       </c>
       <c r="AL319" t="s" s="2">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="AM319" t="s" s="2">
         <v>80</v>
@@ -40760,7 +40759,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" t="s" s="2">
@@ -40783,16 +40782,16 @@
         <v>80</v>
       </c>
       <c r="J320" t="s" s="2">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="K320" t="s" s="2">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="L320" t="s" s="2">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="M320" t="s" s="2">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="N320" s="2"/>
       <c r="O320" t="s" s="2">
@@ -40842,7 +40841,7 @@
         <v>80</v>
       </c>
       <c r="AE320" t="s" s="2">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="AF320" t="s" s="2">
         <v>78</v>
@@ -40857,13 +40856,13 @@
         <v>100</v>
       </c>
       <c r="AJ320" t="s" s="2">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="AK320" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL320" t="s" s="2">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="AM320" t="s" s="2">
         <v>80</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11632" uniqueCount="1252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11627" uniqueCount="1252">
   <si>
     <t>Property</t>
   </si>
@@ -3114,6 +3114,9 @@
     <t>システムによって定義される単位のコードを把握しておく必要がある。</t>
   </si>
   <si>
+    <t>urn:oid:1.2.392.100495.20.2.101</t>
+  </si>
+  <si>
     <t>MedicationRequest.dosageInstruction.maxDosePerPeriod.numerator.code</t>
   </si>
   <si>
@@ -3611,9 +3614,6 @@
   </si>
   <si>
     <t>医薬品単位略号を識別するURL。urn:oid:1.2.392.100495.20.2.101で固定される。</t>
-  </si>
-  <si>
-    <t>urn:oid:1.2.392.100495.20.2.101</t>
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest.quantity.code</t>
@@ -28089,13 +28089,11 @@
         <v>80</v>
       </c>
       <c r="W209" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X209" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X209" s="2"/>
       <c r="Y209" t="s" s="2">
-        <v>80</v>
+        <v>997</v>
       </c>
       <c r="Z209" t="s" s="2">
         <v>80</v>
@@ -28145,7 +28143,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -28171,16 +28169,16 @@
         <v>108</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>80</v>
@@ -28261,7 +28259,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -28287,10 +28285,10 @@
         <v>948</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="M211" t="s" s="2">
         <v>978</v>
@@ -28375,7 +28373,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -28487,7 +28485,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -28601,7 +28599,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -28717,7 +28715,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -28835,7 +28833,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -28951,7 +28949,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -29011,13 +29009,11 @@
         <v>80</v>
       </c>
       <c r="W217" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X217" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X217" s="2"/>
       <c r="Y217" t="s" s="2">
-        <v>80</v>
+        <v>997</v>
       </c>
       <c r="Z217" t="s" s="2">
         <v>80</v>
@@ -29067,7 +29063,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -29093,16 +29089,16 @@
         <v>108</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="O218" t="s" s="2">
         <v>80</v>
@@ -29183,7 +29179,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -29209,16 +29205,16 @@
         <v>914</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="O219" t="s" s="2">
         <v>80</v>
@@ -29267,7 +29263,7 @@
         <v>80</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>78</v>
@@ -29288,7 +29284,7 @@
         <v>80</v>
       </c>
       <c r="AL219" t="s" s="2">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="AM219" t="s" s="2">
         <v>80</v>
@@ -29299,7 +29295,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -29411,7 +29407,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -29525,7 +29521,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -29641,7 +29637,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -29759,7 +29755,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -29875,7 +29871,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -29935,13 +29931,11 @@
         <v>80</v>
       </c>
       <c r="W225" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X225" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X225" s="2"/>
       <c r="Y225" t="s" s="2">
-        <v>80</v>
+        <v>997</v>
       </c>
       <c r="Z225" t="s" s="2">
         <v>80</v>
@@ -29991,7 +29985,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -30017,16 +30011,16 @@
         <v>108</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="N226" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="O226" t="s" s="2">
         <v>80</v>
@@ -30107,7 +30101,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -30133,16 +30127,16 @@
         <v>914</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="M227" t="s" s="2">
         <v>978</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="O227" t="s" s="2">
         <v>80</v>
@@ -30191,7 +30185,7 @@
         <v>80</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>78</v>
@@ -30212,7 +30206,7 @@
         <v>80</v>
       </c>
       <c r="AL227" t="s" s="2">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="AM227" t="s" s="2">
         <v>80</v>
@@ -30223,7 +30217,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -30335,7 +30329,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -30449,7 +30443,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -30565,7 +30559,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -30683,7 +30677,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -30799,7 +30793,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -30859,13 +30853,11 @@
         <v>80</v>
       </c>
       <c r="W233" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X233" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X233" s="2"/>
       <c r="Y233" t="s" s="2">
-        <v>80</v>
+        <v>997</v>
       </c>
       <c r="Z233" t="s" s="2">
         <v>80</v>
@@ -30915,7 +30907,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -30941,16 +30933,16 @@
         <v>108</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="N234" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="O234" t="s" s="2">
         <v>80</v>
@@ -31031,7 +31023,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -31054,13 +31046,13 @@
         <v>80</v>
       </c>
       <c r="J235" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="M235" s="2"/>
       <c r="N235" s="2"/>
@@ -31111,7 +31103,7 @@
         <v>80</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>78</v>
@@ -31129,10 +31121,10 @@
         <v>80</v>
       </c>
       <c r="AK235" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="AL235" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="AM235" t="s" s="2">
         <v>80</v>
@@ -31143,7 +31135,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -31255,7 +31247,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -31365,10 +31357,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="C238" t="s" s="2">
         <v>80</v>
@@ -31390,13 +31382,13 @@
         <v>80</v>
       </c>
       <c r="J238" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="M238" s="2"/>
       <c r="N238" s="2"/>
@@ -31479,7 +31471,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -31591,7 +31583,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -31703,7 +31695,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -31729,13 +31721,13 @@
         <v>102</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="N241" s="2"/>
       <c r="O241" t="s" s="2">
@@ -31743,7 +31735,7 @@
       </c>
       <c r="P241" s="2"/>
       <c r="Q241" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="R241" t="s" s="2">
         <v>80</v>
@@ -31785,7 +31777,7 @@
         <v>80</v>
       </c>
       <c r="AE241" t="s" s="2">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="AF241" t="s" s="2">
         <v>88</v>
@@ -31817,7 +31809,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -31843,10 +31835,10 @@
         <v>188</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="M242" s="2"/>
       <c r="N242" s="2"/>
@@ -31895,7 +31887,7 @@
         <v>306</v>
       </c>
       <c r="AE242" t="s" s="2">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="AF242" t="s" s="2">
         <v>78</v>
@@ -31927,10 +31919,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C243" t="s" s="2">
         <v>80</v>
@@ -31955,10 +31947,10 @@
         <v>188</v>
       </c>
       <c r="K243" t="s" s="2">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="M243" s="2"/>
       <c r="N243" s="2"/>
@@ -32009,7 +32001,7 @@
         <v>80</v>
       </c>
       <c r="AE243" t="s" s="2">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="AF243" t="s" s="2">
         <v>78</v>
@@ -32041,7 +32033,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -32153,7 +32145,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -32267,7 +32259,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -32331,7 +32323,7 @@
       </c>
       <c r="X246" s="2"/>
       <c r="Y246" t="s" s="2">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="Z246" t="s" s="2">
         <v>80</v>
@@ -32381,7 +32373,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -32407,13 +32399,13 @@
         <v>90</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="N247" t="s" s="2">
         <v>367</v>
@@ -32497,10 +32489,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C248" t="s" s="2">
         <v>80</v>
@@ -32522,13 +32514,13 @@
         <v>80</v>
       </c>
       <c r="J248" t="s" s="2">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="K248" t="s" s="2">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="M248" s="2"/>
       <c r="N248" s="2"/>
@@ -32611,7 +32603,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -32727,7 +32719,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -32750,16 +32742,16 @@
         <v>80</v>
       </c>
       <c r="J250" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="K250" t="s" s="2">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="N250" s="2"/>
       <c r="O250" t="s" s="2">
@@ -32809,7 +32801,7 @@
         <v>80</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>78</v>
@@ -32830,7 +32822,7 @@
         <v>80</v>
       </c>
       <c r="AL250" t="s" s="2">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="AM250" t="s" s="2">
         <v>80</v>
@@ -32841,7 +32833,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -32953,7 +32945,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -33067,7 +33059,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -33183,7 +33175,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -33209,10 +33201,10 @@
         <v>914</v>
       </c>
       <c r="K254" t="s" s="2">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="M254" t="s" s="2">
         <v>978</v>
@@ -33265,7 +33257,7 @@
         <v>80</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>78</v>
@@ -33286,7 +33278,7 @@
         <v>80</v>
       </c>
       <c r="AL254" t="s" s="2">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="AM254" t="s" s="2">
         <v>80</v>
@@ -33297,7 +33289,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -33409,7 +33401,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -33523,7 +33515,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -33639,7 +33631,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -33757,7 +33749,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -33873,7 +33865,7 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -33933,13 +33925,11 @@
         <v>80</v>
       </c>
       <c r="W260" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X260" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X260" s="2"/>
       <c r="Y260" t="s" s="2">
-        <v>80</v>
+        <v>997</v>
       </c>
       <c r="Z260" t="s" s="2">
         <v>80</v>
@@ -33989,7 +33979,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -34015,16 +34005,16 @@
         <v>108</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="N261" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="O261" t="s" s="2">
         <v>80</v>
@@ -34105,7 +34095,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -34131,10 +34121,10 @@
         <v>651</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="M262" t="s" s="2">
         <v>978</v>
@@ -34187,7 +34177,7 @@
         <v>80</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>78</v>
@@ -34208,7 +34198,7 @@
         <v>80</v>
       </c>
       <c r="AL262" t="s" s="2">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="AM262" t="s" s="2">
         <v>80</v>
@@ -34219,7 +34209,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -34331,7 +34321,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -34445,7 +34435,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -34561,7 +34551,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -34679,7 +34669,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -34795,7 +34785,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -34911,7 +34901,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -34937,16 +34927,16 @@
         <v>108</v>
       </c>
       <c r="K269" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="M269" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="N269" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="O269" t="s" s="2">
         <v>80</v>
@@ -35027,7 +35017,7 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -35053,10 +35043,10 @@
         <v>651</v>
       </c>
       <c r="K270" t="s" s="2">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="M270" t="s" s="2">
         <v>978</v>
@@ -35109,7 +35099,7 @@
         <v>80</v>
       </c>
       <c r="AE270" t="s" s="2">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="AF270" t="s" s="2">
         <v>78</v>
@@ -35130,7 +35120,7 @@
         <v>80</v>
       </c>
       <c r="AL270" t="s" s="2">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="AM270" t="s" s="2">
         <v>80</v>
@@ -35141,7 +35131,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -35253,7 +35243,7 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -35367,7 +35357,7 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -35483,7 +35473,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -35601,7 +35591,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -35717,7 +35707,7 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -35833,7 +35823,7 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -35859,16 +35849,16 @@
         <v>108</v>
       </c>
       <c r="K277" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="L277" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="M277" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="N277" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="O277" t="s" s="2">
         <v>80</v>
@@ -35949,7 +35939,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -35975,16 +35965,16 @@
         <v>217</v>
       </c>
       <c r="K278" t="s" s="2">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="M278" t="s" s="2">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N278" t="s" s="2">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="O278" t="s" s="2">
         <v>80</v>
@@ -36033,7 +36023,7 @@
         <v>80</v>
       </c>
       <c r="AE278" t="s" s="2">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="AF278" t="s" s="2">
         <v>78</v>
@@ -36051,10 +36041,10 @@
         <v>80</v>
       </c>
       <c r="AK278" t="s" s="2">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="AL278" t="s" s="2">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="AM278" t="s" s="2">
         <v>80</v>
@@ -36065,7 +36055,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -36177,7 +36167,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -36291,7 +36281,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -36317,13 +36307,13 @@
         <v>428</v>
       </c>
       <c r="K281" t="s" s="2">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="M281" t="s" s="2">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="N281" s="2"/>
       <c r="O281" t="s" s="2">
@@ -36373,7 +36363,7 @@
         <v>80</v>
       </c>
       <c r="AE281" t="s" s="2">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="AF281" t="s" s="2">
         <v>78</v>
@@ -36382,7 +36372,7 @@
         <v>88</v>
       </c>
       <c r="AH281" t="s" s="2">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="AI281" t="s" s="2">
         <v>100</v>
@@ -36394,18 +36384,18 @@
         <v>80</v>
       </c>
       <c r="AL281" t="s" s="2">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="AM281" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN281" t="s" s="2">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -36431,20 +36421,20 @@
         <v>428</v>
       </c>
       <c r="K282" t="s" s="2">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="M282" t="s" s="2">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="N282" s="2"/>
       <c r="O282" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P282" t="s" s="2">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="Q282" t="s" s="2">
         <v>80</v>
@@ -36489,7 +36479,7 @@
         <v>80</v>
       </c>
       <c r="AE282" t="s" s="2">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="AF282" t="s" s="2">
         <v>78</v>
@@ -36498,7 +36488,7 @@
         <v>88</v>
       </c>
       <c r="AH282" t="s" s="2">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="AI282" t="s" s="2">
         <v>100</v>
@@ -36510,18 +36500,18 @@
         <v>80</v>
       </c>
       <c r="AL282" t="s" s="2">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="AM282" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN282" t="s" s="2">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -36547,13 +36537,13 @@
         <v>774</v>
       </c>
       <c r="K283" t="s" s="2">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="M283" t="s" s="2">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="N283" s="2"/>
       <c r="O283" t="s" s="2">
@@ -36603,7 +36593,7 @@
         <v>80</v>
       </c>
       <c r="AE283" t="s" s="2">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="AF283" t="s" s="2">
         <v>78</v>
@@ -36621,21 +36611,21 @@
         <v>80</v>
       </c>
       <c r="AK283" t="s" s="2">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="AL283" t="s" s="2">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="AM283" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN283" t="s" s="2">
-        <v>1145</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -36661,10 +36651,10 @@
         <v>914</v>
       </c>
       <c r="K284" t="s" s="2">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="M284" t="s" s="2">
         <v>978</v>
@@ -36717,7 +36707,7 @@
         <v>80</v>
       </c>
       <c r="AE284" t="s" s="2">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="AF284" t="s" s="2">
         <v>78</v>
@@ -36735,21 +36725,21 @@
         <v>80</v>
       </c>
       <c r="AK284" t="s" s="2">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="AL284" t="s" s="2">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="AM284" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN284" t="s" s="2">
-        <v>1151</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" t="s" s="2">
@@ -36861,7 +36851,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -36975,7 +36965,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
@@ -37001,10 +36991,10 @@
         <v>657</v>
       </c>
       <c r="K287" t="s" s="2">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="M287" t="s" s="2">
         <v>984</v>
@@ -37091,7 +37081,7 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -37209,7 +37199,7 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -37235,10 +37225,10 @@
         <v>90</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="M289" t="s" s="2">
         <v>566</v>
@@ -37325,7 +37315,7 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" t="s" s="2">
@@ -37351,10 +37341,10 @@
         <v>102</v>
       </c>
       <c r="K290" t="s" s="2">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="M290" t="s" s="2">
         <v>490</v>
@@ -37370,7 +37360,7 @@
         <v>80</v>
       </c>
       <c r="R290" t="s" s="2">
-        <v>1162</v>
+        <v>997</v>
       </c>
       <c r="S290" t="s" s="2">
         <v>80</v>
@@ -37473,10 +37463,10 @@
         <v>1164</v>
       </c>
       <c r="M291" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="N291" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="O291" t="s" s="2">
         <v>80</v>
@@ -38395,10 +38385,10 @@
         <v>1183</v>
       </c>
       <c r="M299" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="N299" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="O299" t="s" s="2">
         <v>80</v>
@@ -38616,7 +38606,7 @@
         <v>80</v>
       </c>
       <c r="J301" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="K301" t="s" s="2">
         <v>1189</v>
@@ -40327,13 +40317,13 @@
         <v>90</v>
       </c>
       <c r="K316" t="s" s="2">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="L316" t="s" s="2">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="M316" t="s" s="2">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="N316" t="s" s="2">
         <v>367</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -3114,9 +3114,6 @@
     <t>システムによって定義される単位のコードを把握しておく必要がある。</t>
   </si>
   <si>
-    <t>urn:oid:1.2.392.100495.20.2.101</t>
-  </si>
-  <si>
     <t>MedicationRequest.dosageInstruction.maxDosePerPeriod.numerator.code</t>
   </si>
   <si>
@@ -3614,6 +3611,9 @@
   </si>
   <si>
     <t>医薬品単位略号を識別するURL。urn:oid:1.2.392.100495.20.2.101で固定される。</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.100495.20.2.101</t>
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest.quantity.code</t>
@@ -28093,7 +28093,7 @@
       </c>
       <c r="X209" s="2"/>
       <c r="Y209" t="s" s="2">
-        <v>997</v>
+        <v>933</v>
       </c>
       <c r="Z209" t="s" s="2">
         <v>80</v>
@@ -28143,7 +28143,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -28169,16 +28169,16 @@
         <v>108</v>
       </c>
       <c r="K210" t="s" s="2">
+        <v>998</v>
+      </c>
+      <c r="L210" t="s" s="2">
         <v>999</v>
       </c>
-      <c r="L210" t="s" s="2">
+      <c r="M210" t="s" s="2">
         <v>1000</v>
       </c>
-      <c r="M210" t="s" s="2">
+      <c r="N210" t="s" s="2">
         <v>1001</v>
-      </c>
-      <c r="N210" t="s" s="2">
-        <v>1002</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>80</v>
@@ -28259,7 +28259,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -28285,10 +28285,10 @@
         <v>948</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="M211" t="s" s="2">
         <v>978</v>
@@ -28373,7 +28373,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -28485,7 +28485,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -28599,7 +28599,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -28715,7 +28715,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -28833,7 +28833,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -28949,7 +28949,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -29013,7 +29013,7 @@
       </c>
       <c r="X217" s="2"/>
       <c r="Y217" t="s" s="2">
-        <v>997</v>
+        <v>933</v>
       </c>
       <c r="Z217" t="s" s="2">
         <v>80</v>
@@ -29063,7 +29063,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -29089,16 +29089,16 @@
         <v>108</v>
       </c>
       <c r="K218" t="s" s="2">
+        <v>998</v>
+      </c>
+      <c r="L218" t="s" s="2">
         <v>999</v>
       </c>
-      <c r="L218" t="s" s="2">
+      <c r="M218" t="s" s="2">
         <v>1000</v>
       </c>
-      <c r="M218" t="s" s="2">
+      <c r="N218" t="s" s="2">
         <v>1001</v>
-      </c>
-      <c r="N218" t="s" s="2">
-        <v>1002</v>
       </c>
       <c r="O218" t="s" s="2">
         <v>80</v>
@@ -29179,7 +29179,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -29205,16 +29205,16 @@
         <v>914</v>
       </c>
       <c r="K219" t="s" s="2">
+        <v>1012</v>
+      </c>
+      <c r="L219" t="s" s="2">
+        <v>1012</v>
+      </c>
+      <c r="M219" t="s" s="2">
         <v>1013</v>
       </c>
-      <c r="L219" t="s" s="2">
-        <v>1013</v>
-      </c>
-      <c r="M219" t="s" s="2">
+      <c r="N219" t="s" s="2">
         <v>1014</v>
-      </c>
-      <c r="N219" t="s" s="2">
-        <v>1015</v>
       </c>
       <c r="O219" t="s" s="2">
         <v>80</v>
@@ -29263,7 +29263,7 @@
         <v>80</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>78</v>
@@ -29284,7 +29284,7 @@
         <v>80</v>
       </c>
       <c r="AL219" t="s" s="2">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AM219" t="s" s="2">
         <v>80</v>
@@ -29295,7 +29295,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -29407,7 +29407,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -29521,7 +29521,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -29637,7 +29637,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -29755,7 +29755,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -29871,7 +29871,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -29935,7 +29935,7 @@
       </c>
       <c r="X225" s="2"/>
       <c r="Y225" t="s" s="2">
-        <v>997</v>
+        <v>933</v>
       </c>
       <c r="Z225" t="s" s="2">
         <v>80</v>
@@ -29985,7 +29985,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -30011,16 +30011,16 @@
         <v>108</v>
       </c>
       <c r="K226" t="s" s="2">
+        <v>998</v>
+      </c>
+      <c r="L226" t="s" s="2">
         <v>999</v>
       </c>
-      <c r="L226" t="s" s="2">
+      <c r="M226" t="s" s="2">
         <v>1000</v>
       </c>
-      <c r="M226" t="s" s="2">
+      <c r="N226" t="s" s="2">
         <v>1001</v>
-      </c>
-      <c r="N226" t="s" s="2">
-        <v>1002</v>
       </c>
       <c r="O226" t="s" s="2">
         <v>80</v>
@@ -30101,7 +30101,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -30127,16 +30127,16 @@
         <v>914</v>
       </c>
       <c r="K227" t="s" s="2">
+        <v>1025</v>
+      </c>
+      <c r="L227" t="s" s="2">
         <v>1026</v>
-      </c>
-      <c r="L227" t="s" s="2">
-        <v>1027</v>
       </c>
       <c r="M227" t="s" s="2">
         <v>978</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="O227" t="s" s="2">
         <v>80</v>
@@ -30185,7 +30185,7 @@
         <v>80</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>78</v>
@@ -30206,7 +30206,7 @@
         <v>80</v>
       </c>
       <c r="AL227" t="s" s="2">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AM227" t="s" s="2">
         <v>80</v>
@@ -30217,7 +30217,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -30329,7 +30329,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -30443,7 +30443,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -30559,7 +30559,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -30677,7 +30677,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -30793,7 +30793,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -30857,7 +30857,7 @@
       </c>
       <c r="X233" s="2"/>
       <c r="Y233" t="s" s="2">
-        <v>997</v>
+        <v>933</v>
       </c>
       <c r="Z233" t="s" s="2">
         <v>80</v>
@@ -30907,7 +30907,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -30933,16 +30933,16 @@
         <v>108</v>
       </c>
       <c r="K234" t="s" s="2">
+        <v>998</v>
+      </c>
+      <c r="L234" t="s" s="2">
         <v>999</v>
       </c>
-      <c r="L234" t="s" s="2">
+      <c r="M234" t="s" s="2">
         <v>1000</v>
       </c>
-      <c r="M234" t="s" s="2">
+      <c r="N234" t="s" s="2">
         <v>1001</v>
-      </c>
-      <c r="N234" t="s" s="2">
-        <v>1002</v>
       </c>
       <c r="O234" t="s" s="2">
         <v>80</v>
@@ -31023,7 +31023,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -31046,13 +31046,13 @@
         <v>80</v>
       </c>
       <c r="J235" t="s" s="2">
+        <v>1037</v>
+      </c>
+      <c r="K235" t="s" s="2">
         <v>1038</v>
       </c>
-      <c r="K235" t="s" s="2">
+      <c r="L235" t="s" s="2">
         <v>1039</v>
-      </c>
-      <c r="L235" t="s" s="2">
-        <v>1040</v>
       </c>
       <c r="M235" s="2"/>
       <c r="N235" s="2"/>
@@ -31103,7 +31103,7 @@
         <v>80</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>78</v>
@@ -31121,10 +31121,10 @@
         <v>80</v>
       </c>
       <c r="AK235" t="s" s="2">
+        <v>1040</v>
+      </c>
+      <c r="AL235" t="s" s="2">
         <v>1041</v>
-      </c>
-      <c r="AL235" t="s" s="2">
-        <v>1042</v>
       </c>
       <c r="AM235" t="s" s="2">
         <v>80</v>
@@ -31135,7 +31135,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -31247,7 +31247,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -31357,10 +31357,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
+        <v>1043</v>
+      </c>
+      <c r="B238" t="s" s="2">
         <v>1044</v>
-      </c>
-      <c r="B238" t="s" s="2">
-        <v>1045</v>
       </c>
       <c r="C238" t="s" s="2">
         <v>80</v>
@@ -31382,13 +31382,13 @@
         <v>80</v>
       </c>
       <c r="J238" t="s" s="2">
+        <v>1045</v>
+      </c>
+      <c r="K238" t="s" s="2">
         <v>1046</v>
       </c>
-      <c r="K238" t="s" s="2">
+      <c r="L238" t="s" s="2">
         <v>1047</v>
-      </c>
-      <c r="L238" t="s" s="2">
-        <v>1048</v>
       </c>
       <c r="M238" s="2"/>
       <c r="N238" s="2"/>
@@ -31471,7 +31471,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -31583,7 +31583,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -31695,7 +31695,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -31721,13 +31721,13 @@
         <v>102</v>
       </c>
       <c r="K241" t="s" s="2">
+        <v>1051</v>
+      </c>
+      <c r="L241" t="s" s="2">
         <v>1052</v>
       </c>
-      <c r="L241" t="s" s="2">
+      <c r="M241" t="s" s="2">
         <v>1053</v>
-      </c>
-      <c r="M241" t="s" s="2">
-        <v>1054</v>
       </c>
       <c r="N241" s="2"/>
       <c r="O241" t="s" s="2">
@@ -31735,49 +31735,49 @@
       </c>
       <c r="P241" s="2"/>
       <c r="Q241" t="s" s="2">
+        <v>1054</v>
+      </c>
+      <c r="R241" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S241" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T241" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U241" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V241" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W241" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X241" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y241" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z241" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA241" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB241" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC241" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD241" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE241" t="s" s="2">
         <v>1055</v>
-      </c>
-      <c r="R241" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S241" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T241" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U241" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V241" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W241" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X241" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y241" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z241" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA241" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB241" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC241" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD241" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE241" t="s" s="2">
-        <v>1056</v>
       </c>
       <c r="AF241" t="s" s="2">
         <v>88</v>
@@ -31809,7 +31809,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -31835,10 +31835,10 @@
         <v>188</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="M242" s="2"/>
       <c r="N242" s="2"/>
@@ -31887,7 +31887,7 @@
         <v>306</v>
       </c>
       <c r="AE242" t="s" s="2">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="AF242" t="s" s="2">
         <v>78</v>
@@ -31919,10 +31919,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C243" t="s" s="2">
         <v>80</v>
@@ -31947,10 +31947,10 @@
         <v>188</v>
       </c>
       <c r="K243" t="s" s="2">
+        <v>1060</v>
+      </c>
+      <c r="L243" t="s" s="2">
         <v>1061</v>
-      </c>
-      <c r="L243" t="s" s="2">
-        <v>1062</v>
       </c>
       <c r="M243" s="2"/>
       <c r="N243" s="2"/>
@@ -32001,7 +32001,7 @@
         <v>80</v>
       </c>
       <c r="AE243" t="s" s="2">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="AF243" t="s" s="2">
         <v>78</v>
@@ -32033,7 +32033,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -32145,7 +32145,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -32259,7 +32259,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -32323,7 +32323,7 @@
       </c>
       <c r="X246" s="2"/>
       <c r="Y246" t="s" s="2">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="Z246" t="s" s="2">
         <v>80</v>
@@ -32373,7 +32373,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -32399,13 +32399,13 @@
         <v>90</v>
       </c>
       <c r="K247" t="s" s="2">
+        <v>1067</v>
+      </c>
+      <c r="L247" t="s" s="2">
         <v>1068</v>
       </c>
-      <c r="L247" t="s" s="2">
+      <c r="M247" t="s" s="2">
         <v>1069</v>
-      </c>
-      <c r="M247" t="s" s="2">
-        <v>1070</v>
       </c>
       <c r="N247" t="s" s="2">
         <v>367</v>
@@ -32489,10 +32489,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C248" t="s" s="2">
         <v>80</v>
@@ -32514,13 +32514,13 @@
         <v>80</v>
       </c>
       <c r="J248" t="s" s="2">
+        <v>1071</v>
+      </c>
+      <c r="K248" t="s" s="2">
         <v>1072</v>
       </c>
-      <c r="K248" t="s" s="2">
-        <v>1073</v>
-      </c>
       <c r="L248" t="s" s="2">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="M248" s="2"/>
       <c r="N248" s="2"/>
@@ -32603,7 +32603,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -32719,7 +32719,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -32742,16 +32742,16 @@
         <v>80</v>
       </c>
       <c r="J250" t="s" s="2">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="K250" t="s" s="2">
+        <v>1075</v>
+      </c>
+      <c r="L250" t="s" s="2">
         <v>1076</v>
       </c>
-      <c r="L250" t="s" s="2">
+      <c r="M250" t="s" s="2">
         <v>1077</v>
-      </c>
-      <c r="M250" t="s" s="2">
-        <v>1078</v>
       </c>
       <c r="N250" s="2"/>
       <c r="O250" t="s" s="2">
@@ -32801,7 +32801,7 @@
         <v>80</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>78</v>
@@ -32822,7 +32822,7 @@
         <v>80</v>
       </c>
       <c r="AL250" t="s" s="2">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="AM250" t="s" s="2">
         <v>80</v>
@@ -32833,7 +32833,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -32945,7 +32945,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -33059,7 +33059,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -33175,7 +33175,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -33201,10 +33201,10 @@
         <v>914</v>
       </c>
       <c r="K254" t="s" s="2">
+        <v>1083</v>
+      </c>
+      <c r="L254" t="s" s="2">
         <v>1084</v>
-      </c>
-      <c r="L254" t="s" s="2">
-        <v>1085</v>
       </c>
       <c r="M254" t="s" s="2">
         <v>978</v>
@@ -33257,7 +33257,7 @@
         <v>80</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>78</v>
@@ -33278,7 +33278,7 @@
         <v>80</v>
       </c>
       <c r="AL254" t="s" s="2">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="AM254" t="s" s="2">
         <v>80</v>
@@ -33289,7 +33289,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -33401,7 +33401,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -33515,7 +33515,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -33631,7 +33631,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -33749,7 +33749,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -33865,7 +33865,7 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -33929,7 +33929,7 @@
       </c>
       <c r="X260" s="2"/>
       <c r="Y260" t="s" s="2">
-        <v>997</v>
+        <v>933</v>
       </c>
       <c r="Z260" t="s" s="2">
         <v>80</v>
@@ -33979,7 +33979,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -34005,16 +34005,16 @@
         <v>108</v>
       </c>
       <c r="K261" t="s" s="2">
+        <v>998</v>
+      </c>
+      <c r="L261" t="s" s="2">
         <v>999</v>
       </c>
-      <c r="L261" t="s" s="2">
+      <c r="M261" t="s" s="2">
         <v>1000</v>
       </c>
-      <c r="M261" t="s" s="2">
+      <c r="N261" t="s" s="2">
         <v>1001</v>
-      </c>
-      <c r="N261" t="s" s="2">
-        <v>1002</v>
       </c>
       <c r="O261" t="s" s="2">
         <v>80</v>
@@ -34095,7 +34095,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -34121,10 +34121,10 @@
         <v>651</v>
       </c>
       <c r="K262" t="s" s="2">
+        <v>1094</v>
+      </c>
+      <c r="L262" t="s" s="2">
         <v>1095</v>
-      </c>
-      <c r="L262" t="s" s="2">
-        <v>1096</v>
       </c>
       <c r="M262" t="s" s="2">
         <v>978</v>
@@ -34177,7 +34177,7 @@
         <v>80</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>78</v>
@@ -34198,7 +34198,7 @@
         <v>80</v>
       </c>
       <c r="AL262" t="s" s="2">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="AM262" t="s" s="2">
         <v>80</v>
@@ -34209,7 +34209,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -34321,7 +34321,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -34435,7 +34435,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -34551,7 +34551,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -34669,7 +34669,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -34785,7 +34785,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -34901,7 +34901,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -34927,16 +34927,16 @@
         <v>108</v>
       </c>
       <c r="K269" t="s" s="2">
+        <v>998</v>
+      </c>
+      <c r="L269" t="s" s="2">
         <v>999</v>
       </c>
-      <c r="L269" t="s" s="2">
+      <c r="M269" t="s" s="2">
         <v>1000</v>
       </c>
-      <c r="M269" t="s" s="2">
+      <c r="N269" t="s" s="2">
         <v>1001</v>
-      </c>
-      <c r="N269" t="s" s="2">
-        <v>1002</v>
       </c>
       <c r="O269" t="s" s="2">
         <v>80</v>
@@ -35017,7 +35017,7 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -35043,10 +35043,10 @@
         <v>651</v>
       </c>
       <c r="K270" t="s" s="2">
+        <v>1105</v>
+      </c>
+      <c r="L270" t="s" s="2">
         <v>1106</v>
-      </c>
-      <c r="L270" t="s" s="2">
-        <v>1107</v>
       </c>
       <c r="M270" t="s" s="2">
         <v>978</v>
@@ -35099,7 +35099,7 @@
         <v>80</v>
       </c>
       <c r="AE270" t="s" s="2">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="AF270" t="s" s="2">
         <v>78</v>
@@ -35120,7 +35120,7 @@
         <v>80</v>
       </c>
       <c r="AL270" t="s" s="2">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="AM270" t="s" s="2">
         <v>80</v>
@@ -35131,7 +35131,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -35243,7 +35243,7 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -35357,7 +35357,7 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -35473,7 +35473,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -35591,7 +35591,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -35707,7 +35707,7 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -35823,7 +35823,7 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -35849,16 +35849,16 @@
         <v>108</v>
       </c>
       <c r="K277" t="s" s="2">
+        <v>998</v>
+      </c>
+      <c r="L277" t="s" s="2">
         <v>999</v>
       </c>
-      <c r="L277" t="s" s="2">
+      <c r="M277" t="s" s="2">
         <v>1000</v>
       </c>
-      <c r="M277" t="s" s="2">
+      <c r="N277" t="s" s="2">
         <v>1001</v>
-      </c>
-      <c r="N277" t="s" s="2">
-        <v>1002</v>
       </c>
       <c r="O277" t="s" s="2">
         <v>80</v>
@@ -35939,7 +35939,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -35965,16 +35965,16 @@
         <v>217</v>
       </c>
       <c r="K278" t="s" s="2">
+        <v>1115</v>
+      </c>
+      <c r="L278" t="s" s="2">
         <v>1116</v>
       </c>
-      <c r="L278" t="s" s="2">
+      <c r="M278" t="s" s="2">
         <v>1117</v>
       </c>
-      <c r="M278" t="s" s="2">
+      <c r="N278" t="s" s="2">
         <v>1118</v>
-      </c>
-      <c r="N278" t="s" s="2">
-        <v>1119</v>
       </c>
       <c r="O278" t="s" s="2">
         <v>80</v>
@@ -36023,7 +36023,7 @@
         <v>80</v>
       </c>
       <c r="AE278" t="s" s="2">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AF278" t="s" s="2">
         <v>78</v>
@@ -36041,10 +36041,10 @@
         <v>80</v>
       </c>
       <c r="AK278" t="s" s="2">
+        <v>1119</v>
+      </c>
+      <c r="AL278" t="s" s="2">
         <v>1120</v>
-      </c>
-      <c r="AL278" t="s" s="2">
-        <v>1121</v>
       </c>
       <c r="AM278" t="s" s="2">
         <v>80</v>
@@ -36055,7 +36055,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -36167,7 +36167,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -36281,7 +36281,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -36307,13 +36307,13 @@
         <v>428</v>
       </c>
       <c r="K281" t="s" s="2">
+        <v>1124</v>
+      </c>
+      <c r="L281" t="s" s="2">
         <v>1125</v>
       </c>
-      <c r="L281" t="s" s="2">
+      <c r="M281" t="s" s="2">
         <v>1126</v>
-      </c>
-      <c r="M281" t="s" s="2">
-        <v>1127</v>
       </c>
       <c r="N281" s="2"/>
       <c r="O281" t="s" s="2">
@@ -36363,16 +36363,16 @@
         <v>80</v>
       </c>
       <c r="AE281" t="s" s="2">
+        <v>1127</v>
+      </c>
+      <c r="AF281" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG281" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH281" t="s" s="2">
         <v>1128</v>
-      </c>
-      <c r="AF281" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG281" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH281" t="s" s="2">
-        <v>1129</v>
       </c>
       <c r="AI281" t="s" s="2">
         <v>100</v>
@@ -36384,18 +36384,18 @@
         <v>80</v>
       </c>
       <c r="AL281" t="s" s="2">
+        <v>1129</v>
+      </c>
+      <c r="AM281" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN281" t="s" s="2">
         <v>1130</v>
-      </c>
-      <c r="AM281" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN281" t="s" s="2">
-        <v>1131</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -36421,66 +36421,66 @@
         <v>428</v>
       </c>
       <c r="K282" t="s" s="2">
+        <v>1132</v>
+      </c>
+      <c r="L282" t="s" s="2">
         <v>1133</v>
       </c>
-      <c r="L282" t="s" s="2">
+      <c r="M282" t="s" s="2">
         <v>1134</v>
-      </c>
-      <c r="M282" t="s" s="2">
-        <v>1135</v>
       </c>
       <c r="N282" s="2"/>
       <c r="O282" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P282" t="s" s="2">
+        <v>1135</v>
+      </c>
+      <c r="Q282" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R282" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S282" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T282" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U282" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V282" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W282" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X282" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y282" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z282" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA282" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB282" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC282" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD282" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE282" t="s" s="2">
         <v>1136</v>
       </c>
-      <c r="Q282" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R282" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S282" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T282" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U282" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V282" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W282" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X282" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y282" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z282" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA282" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB282" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC282" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD282" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE282" t="s" s="2">
-        <v>1137</v>
-      </c>
       <c r="AF282" t="s" s="2">
         <v>78</v>
       </c>
@@ -36488,7 +36488,7 @@
         <v>88</v>
       </c>
       <c r="AH282" t="s" s="2">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="AI282" t="s" s="2">
         <v>100</v>
@@ -36500,18 +36500,18 @@
         <v>80</v>
       </c>
       <c r="AL282" t="s" s="2">
+        <v>1137</v>
+      </c>
+      <c r="AM282" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN282" t="s" s="2">
         <v>1138</v>
-      </c>
-      <c r="AM282" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN282" t="s" s="2">
-        <v>1139</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -36537,13 +36537,13 @@
         <v>774</v>
       </c>
       <c r="K283" t="s" s="2">
+        <v>1140</v>
+      </c>
+      <c r="L283" t="s" s="2">
         <v>1141</v>
       </c>
-      <c r="L283" t="s" s="2">
+      <c r="M283" t="s" s="2">
         <v>1142</v>
-      </c>
-      <c r="M283" t="s" s="2">
-        <v>1143</v>
       </c>
       <c r="N283" s="2"/>
       <c r="O283" t="s" s="2">
@@ -36593,7 +36593,7 @@
         <v>80</v>
       </c>
       <c r="AE283" t="s" s="2">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AF283" t="s" s="2">
         <v>78</v>
@@ -36611,21 +36611,21 @@
         <v>80</v>
       </c>
       <c r="AK283" t="s" s="2">
+        <v>1143</v>
+      </c>
+      <c r="AL283" t="s" s="2">
         <v>1144</v>
       </c>
-      <c r="AL283" t="s" s="2">
+      <c r="AM283" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN283" t="s" s="2">
         <v>1145</v>
-      </c>
-      <c r="AM283" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN283" t="s" s="2">
-        <v>1146</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -36651,10 +36651,10 @@
         <v>914</v>
       </c>
       <c r="K284" t="s" s="2">
+        <v>1147</v>
+      </c>
+      <c r="L284" t="s" s="2">
         <v>1148</v>
-      </c>
-      <c r="L284" t="s" s="2">
-        <v>1149</v>
       </c>
       <c r="M284" t="s" s="2">
         <v>978</v>
@@ -36707,7 +36707,7 @@
         <v>80</v>
       </c>
       <c r="AE284" t="s" s="2">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AF284" t="s" s="2">
         <v>78</v>
@@ -36725,21 +36725,21 @@
         <v>80</v>
       </c>
       <c r="AK284" t="s" s="2">
+        <v>1149</v>
+      </c>
+      <c r="AL284" t="s" s="2">
         <v>1150</v>
       </c>
-      <c r="AL284" t="s" s="2">
+      <c r="AM284" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN284" t="s" s="2">
         <v>1151</v>
-      </c>
-      <c r="AM284" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN284" t="s" s="2">
-        <v>1152</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" t="s" s="2">
@@ -36851,7 +36851,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -36965,7 +36965,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
@@ -36991,10 +36991,10 @@
         <v>657</v>
       </c>
       <c r="K287" t="s" s="2">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="M287" t="s" s="2">
         <v>984</v>
@@ -37081,7 +37081,7 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -37199,7 +37199,7 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -37225,10 +37225,10 @@
         <v>90</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="M289" t="s" s="2">
         <v>566</v>
@@ -37315,7 +37315,7 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" t="s" s="2">
@@ -37341,10 +37341,10 @@
         <v>102</v>
       </c>
       <c r="K290" t="s" s="2">
+        <v>1160</v>
+      </c>
+      <c r="L290" t="s" s="2">
         <v>1161</v>
-      </c>
-      <c r="L290" t="s" s="2">
-        <v>1162</v>
       </c>
       <c r="M290" t="s" s="2">
         <v>490</v>
@@ -37360,7 +37360,7 @@
         <v>80</v>
       </c>
       <c r="R290" t="s" s="2">
-        <v>997</v>
+        <v>1162</v>
       </c>
       <c r="S290" t="s" s="2">
         <v>80</v>
@@ -37463,10 +37463,10 @@
         <v>1164</v>
       </c>
       <c r="M291" t="s" s="2">
+        <v>1000</v>
+      </c>
+      <c r="N291" t="s" s="2">
         <v>1001</v>
-      </c>
-      <c r="N291" t="s" s="2">
-        <v>1002</v>
       </c>
       <c r="O291" t="s" s="2">
         <v>80</v>
@@ -38385,10 +38385,10 @@
         <v>1183</v>
       </c>
       <c r="M299" t="s" s="2">
+        <v>1000</v>
+      </c>
+      <c r="N299" t="s" s="2">
         <v>1001</v>
-      </c>
-      <c r="N299" t="s" s="2">
-        <v>1002</v>
       </c>
       <c r="O299" t="s" s="2">
         <v>80</v>
@@ -38606,7 +38606,7 @@
         <v>80</v>
       </c>
       <c r="J301" t="s" s="2">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="K301" t="s" s="2">
         <v>1189</v>
@@ -40317,13 +40317,13 @@
         <v>90</v>
       </c>
       <c r="K316" t="s" s="2">
+        <v>1067</v>
+      </c>
+      <c r="L316" t="s" s="2">
         <v>1068</v>
       </c>
-      <c r="L316" t="s" s="2">
+      <c r="M316" t="s" s="2">
         <v>1069</v>
-      </c>
-      <c r="M316" t="s" s="2">
-        <v>1070</v>
       </c>
       <c r="N316" t="s" s="2">
         <v>367</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -1267,7 +1267,7 @@
   </si>
   <si>
     <t>参照されるPatientが型として示される。
-一般的には参照の対象として予定される型。もし、Reference.typeとReference.referenceがともに指定されていて、Reference.referenceがFHIRのURLであればどちらも一致させるべきである(SHALL)。
+一般的には参照の対象として予定される型。もし、Reference.typeとReference.referenceがともに指定されていて、Reference.referenceがFHIRのURLであればどちらも一致させなければならない(SHALL)。
 型はResource Definitionに対するCanonical URLであってその型も参照の対象となる。Referenceはhttp://hl7.org/fhir/StructureDefinition/に対する相対URLである。たとえば、"Patient"はhttp://hl7.org/fhir/StructureDefinition/Patientへの参照である。絶対URLは論理モデルにおいて、論理モデル内部での参照として飲み使用可能であり、Resourceに対しては指定できない。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11626" uniqueCount="1252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11626" uniqueCount="1247">
   <si>
     <t>Property</t>
   </si>
@@ -1879,21 +1879,12 @@
     <t>MedicationRequest.dosageInstruction.additionalInstruction.coding.system</t>
   </si>
   <si>
-    <t>JAMI 補足用法８桁コードを識別するURI。</t>
-  </si>
-  <si>
-    <t>JAMI 補足用法８桁コードを識別するURI</t>
-  </si>
-  <si>
     <t>URIはOID(urn:oid:....)やUUID(urn:uuid:....)であることもある。OIDやUUIDはHL7のOIDレジストリを参照していなければならない（SHALL)。そうでなければ、URIはHL7のFHIRのリストに挙げられている特別なURIであるか、用語集が明確な定義が参照されるべきである。</t>
   </si>
   <si>
     <t>記号の定義の根拠が明確である必要がある。</t>
   </si>
   <si>
-    <t>urn:oid:1.2.392.200250.2.2.20.22</t>
-  </si>
-  <si>
     <t>MedicationRequest.dosageInstruction.additionalInstruction.coding.version</t>
   </si>
   <si>
@@ -1907,12 +1898,6 @@
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.additionalInstruction.coding.code</t>
-  </si>
-  <si>
-    <t>JAMI 補足用法コード</t>
-  </si>
-  <si>
-    <t>JAMI 補足用法コードを指定する。</t>
   </si>
   <si>
     <t>システム内の特定のコードを参照する必要がある。</t>
@@ -14523,7 +14508,7 @@
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F91" t="s" s="2">
         <v>88</v>
@@ -14541,23 +14526,23 @@
         <v>102</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>594</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
-        <v>595</v>
+        <v>80</v>
       </c>
       <c r="R91" t="s" s="2">
         <v>80</v>
@@ -14631,7 +14616,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -14657,13 +14642,13 @@
         <v>90</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -14745,7 +14730,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -14753,7 +14738,7 @@
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F93" t="s" s="2">
         <v>88</v>
@@ -14771,16 +14756,16 @@
         <v>108</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>601</v>
+        <v>344</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>602</v>
+        <v>345</v>
       </c>
       <c r="M93" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>80</v>
@@ -14861,7 +14846,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -14887,16 +14872,16 @@
         <v>90</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="M94" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>80</v>
@@ -14977,7 +14962,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -15009,10 +14994,10 @@
         <v>359</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>80</v>
@@ -15093,7 +15078,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -15128,7 +15113,7 @@
         <v>367</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>80</v>
@@ -15209,7 +15194,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -15235,10 +15220,10 @@
         <v>90</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="M97" t="s" s="2">
         <v>566</v>
@@ -15291,7 +15276,7 @@
         <v>80</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>78</v>
@@ -15323,7 +15308,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -15346,19 +15331,19 @@
         <v>89</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>80</v>
@@ -15407,7 +15392,7 @@
         <v>80</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>78</v>
@@ -15428,7 +15413,7 @@
         <v>80</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>80</v>
@@ -15439,7 +15424,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -15551,7 +15536,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -15665,7 +15650,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -15781,7 +15766,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -15807,14 +15792,14 @@
         <v>429</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" t="s" s="2">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>80</v>
@@ -15863,7 +15848,7 @@
         <v>80</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>78</v>
@@ -15884,7 +15869,7 @@
         <v>80</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>80</v>
@@ -15895,7 +15880,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -15918,17 +15903,17 @@
         <v>89</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" t="s" s="2">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>80</v>
@@ -15977,7 +15962,7 @@
         <v>80</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>78</v>
@@ -15989,7 +15974,7 @@
         <v>80</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>80</v>
@@ -15998,7 +15983,7 @@
         <v>80</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>80</v>
@@ -16009,7 +15994,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -16121,7 +16106,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -16235,7 +16220,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -16258,13 +16243,13 @@
         <v>89</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -16313,7 +16298,7 @@
         <v>137</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>78</v>
@@ -16334,7 +16319,7 @@
         <v>80</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>80</v>
@@ -16345,10 +16330,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="C107" t="s" s="2">
         <v>80</v>
@@ -16370,13 +16355,13 @@
         <v>89</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -16427,7 +16412,7 @@
         <v>80</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>78</v>
@@ -16448,7 +16433,7 @@
         <v>80</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>80</v>
@@ -16459,7 +16444,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -16571,7 +16556,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -16685,7 +16670,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -16708,19 +16693,19 @@
         <v>89</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>80</v>
@@ -16769,7 +16754,7 @@
         <v>80</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>78</v>
@@ -16790,18 +16775,18 @@
         <v>80</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -16827,20 +16812,20 @@
         <v>108</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" t="s" s="2">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P111" t="s" s="2">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="Q111" t="s" s="2">
         <v>80</v>
@@ -16864,10 +16849,10 @@
         <v>182</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>80</v>
@@ -16885,7 +16870,7 @@
         <v>80</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>78</v>
@@ -16906,18 +16891,18 @@
         <v>80</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -16943,21 +16928,21 @@
         <v>90</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" t="s" s="2">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" t="s" s="2">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="R112" t="s" s="2">
         <v>80</v>
@@ -16999,7 +16984,7 @@
         <v>80</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>78</v>
@@ -17020,18 +17005,18 @@
         <v>80</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -17057,21 +17042,21 @@
         <v>102</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" t="s" s="2">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P113" s="2"/>
       <c r="Q113" t="s" s="2">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="R113" t="s" s="2">
         <v>80</v>
@@ -17113,7 +17098,7 @@
         <v>80</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>78</v>
@@ -17122,7 +17107,7 @@
         <v>88</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>100</v>
@@ -17134,18 +17119,18 @@
         <v>80</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -17171,23 +17156,23 @@
         <v>108</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P114" s="2"/>
       <c r="Q114" t="s" s="2">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="R114" t="s" s="2">
         <v>80</v>
@@ -17229,7 +17214,7 @@
         <v>80</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>78</v>
@@ -17250,18 +17235,18 @@
         <v>80</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -17284,19 +17269,19 @@
         <v>89</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>80</v>
@@ -17345,7 +17330,7 @@
         <v>80</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>78</v>
@@ -17366,7 +17351,7 @@
         <v>80</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>80</v>
@@ -17377,7 +17362,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -17400,16 +17385,16 @@
         <v>89</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
@@ -17459,7 +17444,7 @@
         <v>80</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>78</v>
@@ -17480,7 +17465,7 @@
         <v>80</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>80</v>
@@ -17491,7 +17476,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -17514,19 +17499,19 @@
         <v>89</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>80</v>
@@ -17575,7 +17560,7 @@
         <v>80</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>78</v>
@@ -17596,7 +17581,7 @@
         <v>80</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>80</v>
@@ -17607,7 +17592,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -17630,19 +17615,19 @@
         <v>89</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>80</v>
@@ -17691,7 +17676,7 @@
         <v>80</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>78</v>
@@ -17712,7 +17697,7 @@
         <v>80</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>80</v>
@@ -17723,7 +17708,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -17749,10 +17734,10 @@
         <v>108</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="M119" t="s" s="2">
         <v>566</v>
@@ -17784,10 +17769,10 @@
         <v>182</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="Y119" t="s" s="2">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="Z119" t="s" s="2">
         <v>80</v>
@@ -17805,7 +17790,7 @@
         <v>80</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>78</v>
@@ -17826,7 +17811,7 @@
         <v>80</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>80</v>
@@ -17837,7 +17822,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -17860,23 +17845,23 @@
         <v>89</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P120" t="s" s="2">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="Q120" t="s" s="2">
         <v>80</v>
@@ -17921,7 +17906,7 @@
         <v>80</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>78</v>
@@ -17942,7 +17927,7 @@
         <v>80</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>80</v>
@@ -17953,7 +17938,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -17976,16 +17961,16 @@
         <v>89</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
@@ -18035,7 +18020,7 @@
         <v>80</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>78</v>
@@ -18056,7 +18041,7 @@
         <v>80</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>80</v>
@@ -18067,7 +18052,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -18090,16 +18075,16 @@
         <v>89</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
@@ -18149,7 +18134,7 @@
         <v>80</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>78</v>
@@ -18170,7 +18155,7 @@
         <v>80</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>80</v>
@@ -18181,7 +18166,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -18204,16 +18189,16 @@
         <v>89</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
@@ -18263,7 +18248,7 @@
         <v>80</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>78</v>
@@ -18284,7 +18269,7 @@
         <v>80</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>80</v>
@@ -18295,7 +18280,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -18321,10 +18306,10 @@
         <v>108</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="M124" t="s" s="2">
         <v>566</v>
@@ -18356,10 +18341,10 @@
         <v>182</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>80</v>
@@ -18377,7 +18362,7 @@
         <v>80</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>78</v>
@@ -18398,7 +18383,7 @@
         <v>80</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>80</v>
@@ -18409,7 +18394,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -18435,13 +18420,13 @@
         <v>108</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -18471,7 +18456,7 @@
       </c>
       <c r="X125" s="2"/>
       <c r="Y125" t="s" s="2">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>80</v>
@@ -18489,7 +18474,7 @@
         <v>80</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>78</v>
@@ -18521,7 +18506,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -18544,16 +18529,16 @@
         <v>89</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
@@ -18603,7 +18588,7 @@
         <v>80</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>78</v>
@@ -18635,7 +18620,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -18661,16 +18646,16 @@
         <v>108</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="O127" t="s" s="2">
         <v>80</v>
@@ -18698,10 +18683,10 @@
         <v>182</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>80</v>
@@ -18719,7 +18704,7 @@
         <v>80</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>78</v>
@@ -18740,7 +18725,7 @@
         <v>80</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>80</v>
@@ -18751,7 +18736,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -18774,16 +18759,16 @@
         <v>89</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
@@ -18833,7 +18818,7 @@
         <v>80</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>78</v>
@@ -18854,7 +18839,7 @@
         <v>80</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>80</v>
@@ -18865,7 +18850,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -18891,13 +18876,13 @@
         <v>188</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
@@ -18926,10 +18911,10 @@
         <v>112</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="Z129" t="s" s="2">
         <v>80</v>
@@ -18947,7 +18932,7 @@
         <v>80</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>78</v>
@@ -18968,7 +18953,7 @@
         <v>80</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="AM129" t="s" s="2">
         <v>80</v>
@@ -18979,7 +18964,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -19005,13 +18990,13 @@
         <v>288</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
@@ -19061,7 +19046,7 @@
         <v>80</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>78</v>
@@ -19082,18 +19067,18 @@
         <v>80</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -19119,16 +19104,16 @@
         <v>188</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>80</v>
@@ -19156,10 +19141,10 @@
         <v>255</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="Z131" t="s" s="2">
         <v>80</v>
@@ -19177,7 +19162,7 @@
         <v>80</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>78</v>
@@ -19198,18 +19183,18 @@
         <v>80</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>803</v>
+        <v>798</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -19321,7 +19306,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -19435,7 +19420,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -19461,10 +19446,10 @@
         <v>318</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="M134" t="s" s="2">
         <v>586</v>
@@ -19551,7 +19536,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -19663,7 +19648,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -19777,7 +19762,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -19803,23 +19788,23 @@
         <v>102</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P137" s="2"/>
       <c r="Q137" t="s" s="2">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="R137" t="s" s="2">
         <v>80</v>
@@ -19893,7 +19878,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -19919,13 +19904,13 @@
         <v>90</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
@@ -20007,7 +19992,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -20033,16 +20018,16 @@
         <v>108</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="M139" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>80</v>
@@ -20123,7 +20108,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -20149,16 +20134,16 @@
         <v>90</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="M140" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>80</v>
@@ -20239,7 +20224,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -20271,10 +20256,10 @@
         <v>359</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>80</v>
@@ -20355,7 +20340,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -20390,7 +20375,7 @@
         <v>367</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>80</v>
@@ -20471,7 +20456,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -20497,16 +20482,16 @@
         <v>188</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>80</v>
@@ -20534,10 +20519,10 @@
         <v>255</v>
       </c>
       <c r="X143" t="s" s="2">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="Z143" t="s" s="2">
         <v>80</v>
@@ -20555,7 +20540,7 @@
         <v>80</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>78</v>
@@ -20576,18 +20561,18 @@
         <v>80</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN143" t="s" s="2">
-        <v>831</v>
+        <v>826</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -20699,7 +20684,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -20813,7 +20798,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -20839,10 +20824,10 @@
         <v>318</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="M146" t="s" s="2">
         <v>586</v>
@@ -20929,7 +20914,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -21041,7 +21026,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -21155,7 +21140,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -21181,23 +21166,23 @@
         <v>102</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P149" s="2"/>
       <c r="Q149" t="s" s="2">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="R149" t="s" s="2">
         <v>80</v>
@@ -21271,7 +21256,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -21297,13 +21282,13 @@
         <v>90</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" t="s" s="2">
@@ -21385,7 +21370,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -21411,16 +21396,16 @@
         <v>108</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="M151" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>80</v>
@@ -21501,7 +21486,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -21527,16 +21512,16 @@
         <v>90</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="M152" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="O152" t="s" s="2">
         <v>80</v>
@@ -21617,7 +21602,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -21649,10 +21634,10 @@
         <v>359</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>80</v>
@@ -21733,7 +21718,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -21759,16 +21744,16 @@
         <v>90</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="M154" t="s" s="2">
         <v>367</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>80</v>
@@ -21849,7 +21834,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -21875,16 +21860,16 @@
         <v>188</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>80</v>
@@ -21912,10 +21897,10 @@
         <v>255</v>
       </c>
       <c r="X155" t="s" s="2">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="Z155" t="s" s="2">
         <v>80</v>
@@ -21933,7 +21918,7 @@
         <v>80</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>78</v>
@@ -21954,18 +21939,18 @@
         <v>80</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="AM155" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN155" t="s" s="2">
-        <v>860</v>
+        <v>855</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -22077,7 +22062,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -22191,7 +22176,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -22217,13 +22202,13 @@
         <v>318</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="N158" t="s" s="2">
         <v>322</v>
@@ -22305,10 +22290,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="C159" t="s" s="2">
         <v>80</v>
@@ -22333,10 +22318,10 @@
         <v>318</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="M159" t="s" s="2">
         <v>586</v>
@@ -22371,7 +22356,7 @@
       </c>
       <c r="X159" s="2"/>
       <c r="Y159" t="s" s="2">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="Z159" t="s" s="2">
         <v>80</v>
@@ -22421,7 +22406,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -22533,7 +22518,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -22647,7 +22632,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -22673,23 +22658,23 @@
         <v>102</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P162" s="2"/>
       <c r="Q162" t="s" s="2">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="R162" t="s" s="2">
         <v>80</v>
@@ -22763,7 +22748,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -22789,13 +22774,13 @@
         <v>90</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
@@ -22877,7 +22862,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -22903,16 +22888,16 @@
         <v>108</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="M164" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>80</v>
@@ -22993,7 +22978,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -23019,16 +23004,16 @@
         <v>90</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="M165" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>80</v>
@@ -23109,7 +23094,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -23141,10 +23126,10 @@
         <v>359</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>80</v>
@@ -23225,10 +23210,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="C167" t="s" s="2">
         <v>80</v>
@@ -23253,10 +23238,10 @@
         <v>318</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="M167" t="s" s="2">
         <v>586</v>
@@ -23291,7 +23276,7 @@
       </c>
       <c r="X167" s="2"/>
       <c r="Y167" t="s" s="2">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="Z167" t="s" s="2">
         <v>80</v>
@@ -23341,7 +23326,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -23453,7 +23438,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -23567,7 +23552,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -23593,23 +23578,23 @@
         <v>102</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P170" s="2"/>
       <c r="Q170" t="s" s="2">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="R170" t="s" s="2">
         <v>80</v>
@@ -23683,7 +23668,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -23709,13 +23694,13 @@
         <v>90</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" t="s" s="2">
@@ -23797,7 +23782,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -23823,16 +23808,16 @@
         <v>108</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="M172" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>80</v>
@@ -23913,7 +23898,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -23939,16 +23924,16 @@
         <v>90</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="M173" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>80</v>
@@ -24029,7 +24014,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -24061,10 +24046,10 @@
         <v>359</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>80</v>
@@ -24145,7 +24130,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -24171,16 +24156,16 @@
         <v>90</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="M175" t="s" s="2">
         <v>367</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>80</v>
@@ -24261,7 +24246,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -24284,13 +24269,13 @@
         <v>89</v>
       </c>
       <c r="J176" t="s" s="2">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="M176" s="2"/>
       <c r="N176" s="2"/>
@@ -24341,7 +24326,7 @@
         <v>80</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>78</v>
@@ -24368,12 +24353,12 @@
         <v>80</v>
       </c>
       <c r="AN176" t="s" s="2">
-        <v>902</v>
+        <v>897</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -24485,7 +24470,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -24599,7 +24584,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -24625,14 +24610,14 @@
         <v>188</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" t="s" s="2">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>80</v>
@@ -24660,10 +24645,10 @@
         <v>255</v>
       </c>
       <c r="X179" t="s" s="2">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="Y179" t="s" s="2">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="Z179" t="s" s="2">
         <v>80</v>
@@ -24681,7 +24666,7 @@
         <v>80</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>78</v>
@@ -24708,12 +24693,12 @@
         <v>80</v>
       </c>
       <c r="AN179" t="s" s="2">
-        <v>912</v>
+        <v>907</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -24736,19 +24721,19 @@
         <v>80</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>80</v>
@@ -24797,7 +24782,7 @@
         <v>80</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>78</v>
@@ -24809,7 +24794,7 @@
         <v>144</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="AJ180" t="s" s="2">
         <v>80</v>
@@ -24818,18 +24803,18 @@
         <v>80</v>
       </c>
       <c r="AL180" t="s" s="2">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="AM180" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN180" t="s" s="2">
-        <v>921</v>
+        <v>916</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -24941,7 +24926,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -25055,7 +25040,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -25078,19 +25063,19 @@
         <v>89</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="O183" t="s" s="2">
         <v>80</v>
@@ -25139,7 +25124,7 @@
         <v>80</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>78</v>
@@ -25160,18 +25145,18 @@
         <v>80</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AM183" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN183" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -25197,20 +25182,20 @@
         <v>108</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="M184" s="2"/>
       <c r="N184" t="s" s="2">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P184" t="s" s="2">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="Q184" t="s" s="2">
         <v>80</v>
@@ -25234,10 +25219,10 @@
         <v>182</v>
       </c>
       <c r="X184" t="s" s="2">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="Y184" t="s" s="2">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="Z184" t="s" s="2">
         <v>80</v>
@@ -25255,7 +25240,7 @@
         <v>80</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>78</v>
@@ -25276,18 +25261,18 @@
         <v>80</v>
       </c>
       <c r="AL184" t="s" s="2">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AM184" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN184" t="s" s="2">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -25313,14 +25298,14 @@
         <v>90</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="M185" s="2"/>
       <c r="N185" t="s" s="2">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>80</v>
@@ -25369,7 +25354,7 @@
         <v>80</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>78</v>
@@ -25390,18 +25375,18 @@
         <v>80</v>
       </c>
       <c r="AL185" t="s" s="2">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="AM185" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN185" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -25427,14 +25412,14 @@
         <v>102</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="M186" s="2"/>
       <c r="N186" t="s" s="2">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="O186" t="s" s="2">
         <v>80</v>
@@ -25463,7 +25448,7 @@
       </c>
       <c r="X186" s="2"/>
       <c r="Y186" t="s" s="2">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="Z186" t="s" s="2">
         <v>80</v>
@@ -25481,7 +25466,7 @@
         <v>80</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>78</v>
@@ -25490,7 +25475,7 @@
         <v>88</v>
       </c>
       <c r="AH186" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="AI186" t="s" s="2">
         <v>100</v>
@@ -25502,18 +25487,18 @@
         <v>80</v>
       </c>
       <c r="AL186" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AM186" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN186" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -25539,16 +25524,16 @@
         <v>108</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>80</v>
@@ -25597,7 +25582,7 @@
         <v>80</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>78</v>
@@ -25618,18 +25603,18 @@
         <v>80</v>
       </c>
       <c r="AL187" t="s" s="2">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="AM187" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN187" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -25652,19 +25637,19 @@
         <v>89</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>80</v>
@@ -25713,7 +25698,7 @@
         <v>80</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>78</v>
@@ -25734,18 +25719,18 @@
         <v>80</v>
       </c>
       <c r="AL188" t="s" s="2">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="AM188" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN188" t="s" s="2">
-        <v>944</v>
+        <v>939</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -25857,7 +25842,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -25971,7 +25956,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -25994,13 +25979,13 @@
         <v>89</v>
       </c>
       <c r="J191" t="s" s="2">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="M191" s="2"/>
       <c r="N191" s="2"/>
@@ -26051,7 +26036,7 @@
         <v>80</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>78</v>
@@ -26072,7 +26057,7 @@
         <v>80</v>
       </c>
       <c r="AL191" t="s" s="2">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="AM191" t="s" s="2">
         <v>80</v>
@@ -26083,7 +26068,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -26195,7 +26180,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -26309,7 +26294,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -26332,19 +26317,19 @@
         <v>89</v>
       </c>
       <c r="J194" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="O194" t="s" s="2">
         <v>80</v>
@@ -26393,7 +26378,7 @@
         <v>80</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>78</v>
@@ -26414,18 +26399,18 @@
         <v>80</v>
       </c>
       <c r="AL194" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AM194" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN194" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -26451,20 +26436,20 @@
         <v>108</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="M195" s="2"/>
       <c r="N195" t="s" s="2">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="O195" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P195" t="s" s="2">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="Q195" t="s" s="2">
         <v>80</v>
@@ -26488,10 +26473,10 @@
         <v>182</v>
       </c>
       <c r="X195" t="s" s="2">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="Y195" t="s" s="2">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="Z195" t="s" s="2">
         <v>80</v>
@@ -26509,7 +26494,7 @@
         <v>80</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>78</v>
@@ -26530,18 +26515,18 @@
         <v>80</v>
       </c>
       <c r="AL195" t="s" s="2">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AM195" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN195" t="s" s="2">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -26567,14 +26552,14 @@
         <v>90</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="M196" s="2"/>
       <c r="N196" t="s" s="2">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="O196" t="s" s="2">
         <v>80</v>
@@ -26623,7 +26608,7 @@
         <v>80</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>78</v>
@@ -26644,18 +26629,18 @@
         <v>80</v>
       </c>
       <c r="AL196" t="s" s="2">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="AM196" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN196" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -26681,14 +26666,14 @@
         <v>102</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="M197" s="2"/>
       <c r="N197" t="s" s="2">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="O197" t="s" s="2">
         <v>80</v>
@@ -26717,7 +26702,7 @@
       </c>
       <c r="X197" s="2"/>
       <c r="Y197" t="s" s="2">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="Z197" t="s" s="2">
         <v>80</v>
@@ -26735,7 +26720,7 @@
         <v>80</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AF197" t="s" s="2">
         <v>78</v>
@@ -26744,7 +26729,7 @@
         <v>88</v>
       </c>
       <c r="AH197" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="AI197" t="s" s="2">
         <v>100</v>
@@ -26756,18 +26741,18 @@
         <v>80</v>
       </c>
       <c r="AL197" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AM197" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN197" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -26793,16 +26778,16 @@
         <v>108</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="O198" t="s" s="2">
         <v>80</v>
@@ -26851,7 +26836,7 @@
         <v>80</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="AF198" t="s" s="2">
         <v>78</v>
@@ -26872,18 +26857,18 @@
         <v>80</v>
       </c>
       <c r="AL198" t="s" s="2">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="AM198" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN198" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -26906,13 +26891,13 @@
         <v>89</v>
       </c>
       <c r="J199" t="s" s="2">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="M199" s="2"/>
       <c r="N199" s="2"/>
@@ -26963,7 +26948,7 @@
         <v>80</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>78</v>
@@ -26984,7 +26969,7 @@
         <v>80</v>
       </c>
       <c r="AL199" t="s" s="2">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="AM199" t="s" s="2">
         <v>80</v>
@@ -26995,7 +26980,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -27018,19 +27003,19 @@
         <v>89</v>
       </c>
       <c r="J200" t="s" s="2">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="O200" t="s" s="2">
         <v>80</v>
@@ -27079,7 +27064,7 @@
         <v>80</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>78</v>
@@ -27100,18 +27085,18 @@
         <v>80</v>
       </c>
       <c r="AL200" t="s" s="2">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="AM200" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN200" t="s" s="2">
-        <v>973</v>
+        <v>968</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -27223,7 +27208,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -27337,7 +27322,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -27360,16 +27345,16 @@
         <v>89</v>
       </c>
       <c r="J203" t="s" s="2">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="N203" s="2"/>
       <c r="O203" t="s" s="2">
@@ -27419,7 +27404,7 @@
         <v>80</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>78</v>
@@ -27440,7 +27425,7 @@
         <v>80</v>
       </c>
       <c r="AL203" t="s" s="2">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="AM203" t="s" s="2">
         <v>80</v>
@@ -27451,7 +27436,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -27563,7 +27548,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -27677,7 +27662,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -27700,19 +27685,19 @@
         <v>89</v>
       </c>
       <c r="J206" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="O206" t="s" s="2">
         <v>80</v>
@@ -27761,7 +27746,7 @@
         <v>80</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>78</v>
@@ -27782,18 +27767,18 @@
         <v>80</v>
       </c>
       <c r="AL206" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AM206" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN206" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -27819,22 +27804,22 @@
         <v>108</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="M207" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="O207" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P207" t="s" s="2">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="Q207" t="s" s="2">
         <v>80</v>
@@ -27858,10 +27843,10 @@
         <v>182</v>
       </c>
       <c r="X207" t="s" s="2">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="Y207" t="s" s="2">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="Z207" t="s" s="2">
         <v>80</v>
@@ -27879,7 +27864,7 @@
         <v>80</v>
       </c>
       <c r="AE207" t="s" s="2">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="AF207" t="s" s="2">
         <v>78</v>
@@ -27900,18 +27885,18 @@
         <v>80</v>
       </c>
       <c r="AL207" t="s" s="2">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AM207" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN207" t="s" s="2">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -27937,16 +27922,16 @@
         <v>90</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="M208" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="O208" t="s" s="2">
         <v>80</v>
@@ -27995,7 +27980,7 @@
         <v>80</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>78</v>
@@ -28016,18 +28001,18 @@
         <v>80</v>
       </c>
       <c r="AL208" t="s" s="2">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="AM208" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN208" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -28053,16 +28038,16 @@
         <v>102</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="M209" t="s" s="2">
         <v>490</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="O209" t="s" s="2">
         <v>80</v>
@@ -28091,7 +28076,7 @@
       </c>
       <c r="X209" s="2"/>
       <c r="Y209" t="s" s="2">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="Z209" t="s" s="2">
         <v>80</v>
@@ -28109,7 +28094,7 @@
         <v>80</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AF209" t="s" s="2">
         <v>78</v>
@@ -28118,7 +28103,7 @@
         <v>88</v>
       </c>
       <c r="AH209" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="AI209" t="s" s="2">
         <v>100</v>
@@ -28130,18 +28115,18 @@
         <v>80</v>
       </c>
       <c r="AL209" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AM209" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN209" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -28167,16 +28152,16 @@
         <v>108</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>80</v>
@@ -28225,7 +28210,7 @@
         <v>80</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>78</v>
@@ -28246,18 +28231,18 @@
         <v>80</v>
       </c>
       <c r="AL210" t="s" s="2">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="AM210" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN210" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -28280,16 +28265,16 @@
         <v>89</v>
       </c>
       <c r="J211" t="s" s="2">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="N211" s="2"/>
       <c r="O211" t="s" s="2">
@@ -28339,7 +28324,7 @@
         <v>80</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>78</v>
@@ -28360,7 +28345,7 @@
         <v>80</v>
       </c>
       <c r="AL211" t="s" s="2">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="AM211" t="s" s="2">
         <v>80</v>
@@ -28371,7 +28356,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -28483,7 +28468,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -28597,7 +28582,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -28620,19 +28605,19 @@
         <v>89</v>
       </c>
       <c r="J214" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="N214" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="O214" t="s" s="2">
         <v>80</v>
@@ -28681,7 +28666,7 @@
         <v>80</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AF214" t="s" s="2">
         <v>78</v>
@@ -28702,18 +28687,18 @@
         <v>80</v>
       </c>
       <c r="AL214" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AM214" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN214" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -28739,22 +28724,22 @@
         <v>108</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="M215" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="O215" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P215" t="s" s="2">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="Q215" t="s" s="2">
         <v>80</v>
@@ -28778,10 +28763,10 @@
         <v>182</v>
       </c>
       <c r="X215" t="s" s="2">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="Y215" t="s" s="2">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="Z215" t="s" s="2">
         <v>80</v>
@@ -28799,7 +28784,7 @@
         <v>80</v>
       </c>
       <c r="AE215" t="s" s="2">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="AF215" t="s" s="2">
         <v>78</v>
@@ -28820,18 +28805,18 @@
         <v>80</v>
       </c>
       <c r="AL215" t="s" s="2">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AM215" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN215" t="s" s="2">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -28857,16 +28842,16 @@
         <v>90</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="M216" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="O216" t="s" s="2">
         <v>80</v>
@@ -28915,7 +28900,7 @@
         <v>80</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="AF216" t="s" s="2">
         <v>78</v>
@@ -28936,18 +28921,18 @@
         <v>80</v>
       </c>
       <c r="AL216" t="s" s="2">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="AM216" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN216" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -28973,16 +28958,16 @@
         <v>102</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="M217" t="s" s="2">
         <v>490</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="O217" t="s" s="2">
         <v>80</v>
@@ -29011,7 +28996,7 @@
       </c>
       <c r="X217" s="2"/>
       <c r="Y217" t="s" s="2">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="Z217" t="s" s="2">
         <v>80</v>
@@ -29029,7 +29014,7 @@
         <v>80</v>
       </c>
       <c r="AE217" t="s" s="2">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AF217" t="s" s="2">
         <v>78</v>
@@ -29038,7 +29023,7 @@
         <v>88</v>
       </c>
       <c r="AH217" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="AI217" t="s" s="2">
         <v>100</v>
@@ -29050,18 +29035,18 @@
         <v>80</v>
       </c>
       <c r="AL217" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AM217" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN217" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -29087,16 +29072,16 @@
         <v>108</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="O218" t="s" s="2">
         <v>80</v>
@@ -29145,7 +29130,7 @@
         <v>80</v>
       </c>
       <c r="AE218" t="s" s="2">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="AF218" t="s" s="2">
         <v>78</v>
@@ -29166,18 +29151,18 @@
         <v>80</v>
       </c>
       <c r="AL218" t="s" s="2">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="AM218" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN218" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -29200,19 +29185,19 @@
         <v>89</v>
       </c>
       <c r="J219" t="s" s="2">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="O219" t="s" s="2">
         <v>80</v>
@@ -29261,7 +29246,7 @@
         <v>80</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>78</v>
@@ -29282,7 +29267,7 @@
         <v>80</v>
       </c>
       <c r="AL219" t="s" s="2">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="AM219" t="s" s="2">
         <v>80</v>
@@ -29293,7 +29278,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -29405,7 +29390,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -29519,7 +29504,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -29542,19 +29527,19 @@
         <v>89</v>
       </c>
       <c r="J222" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="N222" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="O222" t="s" s="2">
         <v>80</v>
@@ -29603,7 +29588,7 @@
         <v>80</v>
       </c>
       <c r="AE222" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AF222" t="s" s="2">
         <v>78</v>
@@ -29624,18 +29609,18 @@
         <v>80</v>
       </c>
       <c r="AL222" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AM222" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN222" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -29661,22 +29646,22 @@
         <v>108</v>
       </c>
       <c r="K223" t="s" s="2">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="M223" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N223" t="s" s="2">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="O223" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P223" t="s" s="2">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="Q223" t="s" s="2">
         <v>80</v>
@@ -29700,10 +29685,10 @@
         <v>182</v>
       </c>
       <c r="X223" t="s" s="2">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="Y223" t="s" s="2">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="Z223" t="s" s="2">
         <v>80</v>
@@ -29721,7 +29706,7 @@
         <v>80</v>
       </c>
       <c r="AE223" t="s" s="2">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="AF223" t="s" s="2">
         <v>78</v>
@@ -29742,18 +29727,18 @@
         <v>80</v>
       </c>
       <c r="AL223" t="s" s="2">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AM223" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN223" t="s" s="2">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -29779,16 +29764,16 @@
         <v>90</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="M224" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="O224" t="s" s="2">
         <v>80</v>
@@ -29837,7 +29822,7 @@
         <v>80</v>
       </c>
       <c r="AE224" t="s" s="2">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="AF224" t="s" s="2">
         <v>78</v>
@@ -29858,18 +29843,18 @@
         <v>80</v>
       </c>
       <c r="AL224" t="s" s="2">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="AM224" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN224" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -29895,16 +29880,16 @@
         <v>102</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="M225" t="s" s="2">
         <v>490</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="O225" t="s" s="2">
         <v>80</v>
@@ -29933,7 +29918,7 @@
       </c>
       <c r="X225" s="2"/>
       <c r="Y225" t="s" s="2">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="Z225" t="s" s="2">
         <v>80</v>
@@ -29951,7 +29936,7 @@
         <v>80</v>
       </c>
       <c r="AE225" t="s" s="2">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AF225" t="s" s="2">
         <v>78</v>
@@ -29960,7 +29945,7 @@
         <v>88</v>
       </c>
       <c r="AH225" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="AI225" t="s" s="2">
         <v>100</v>
@@ -29972,18 +29957,18 @@
         <v>80</v>
       </c>
       <c r="AL225" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AM225" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN225" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -30009,16 +29994,16 @@
         <v>108</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="N226" t="s" s="2">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="O226" t="s" s="2">
         <v>80</v>
@@ -30067,7 +30052,7 @@
         <v>80</v>
       </c>
       <c r="AE226" t="s" s="2">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="AF226" t="s" s="2">
         <v>78</v>
@@ -30088,18 +30073,18 @@
         <v>80</v>
       </c>
       <c r="AL226" t="s" s="2">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="AM226" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN226" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -30122,19 +30107,19 @@
         <v>89</v>
       </c>
       <c r="J227" t="s" s="2">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="O227" t="s" s="2">
         <v>80</v>
@@ -30183,7 +30168,7 @@
         <v>80</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>78</v>
@@ -30204,7 +30189,7 @@
         <v>80</v>
       </c>
       <c r="AL227" t="s" s="2">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="AM227" t="s" s="2">
         <v>80</v>
@@ -30215,7 +30200,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -30327,7 +30312,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -30441,7 +30426,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -30464,19 +30449,19 @@
         <v>89</v>
       </c>
       <c r="J230" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="N230" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="O230" t="s" s="2">
         <v>80</v>
@@ -30525,7 +30510,7 @@
         <v>80</v>
       </c>
       <c r="AE230" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AF230" t="s" s="2">
         <v>78</v>
@@ -30546,18 +30531,18 @@
         <v>80</v>
       </c>
       <c r="AL230" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AM230" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN230" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -30583,22 +30568,22 @@
         <v>108</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="M231" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="O231" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P231" t="s" s="2">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="Q231" t="s" s="2">
         <v>80</v>
@@ -30622,10 +30607,10 @@
         <v>182</v>
       </c>
       <c r="X231" t="s" s="2">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="Y231" t="s" s="2">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="Z231" t="s" s="2">
         <v>80</v>
@@ -30643,7 +30628,7 @@
         <v>80</v>
       </c>
       <c r="AE231" t="s" s="2">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="AF231" t="s" s="2">
         <v>78</v>
@@ -30664,18 +30649,18 @@
         <v>80</v>
       </c>
       <c r="AL231" t="s" s="2">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AM231" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN231" t="s" s="2">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -30701,16 +30686,16 @@
         <v>90</v>
       </c>
       <c r="K232" t="s" s="2">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="M232" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N232" t="s" s="2">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="O232" t="s" s="2">
         <v>80</v>
@@ -30759,7 +30744,7 @@
         <v>80</v>
       </c>
       <c r="AE232" t="s" s="2">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="AF232" t="s" s="2">
         <v>78</v>
@@ -30780,18 +30765,18 @@
         <v>80</v>
       </c>
       <c r="AL232" t="s" s="2">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="AM232" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN232" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -30817,16 +30802,16 @@
         <v>102</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="M233" t="s" s="2">
         <v>490</v>
       </c>
       <c r="N233" t="s" s="2">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="O233" t="s" s="2">
         <v>80</v>
@@ -30855,7 +30840,7 @@
       </c>
       <c r="X233" s="2"/>
       <c r="Y233" t="s" s="2">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="Z233" t="s" s="2">
         <v>80</v>
@@ -30873,7 +30858,7 @@
         <v>80</v>
       </c>
       <c r="AE233" t="s" s="2">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AF233" t="s" s="2">
         <v>78</v>
@@ -30882,7 +30867,7 @@
         <v>88</v>
       </c>
       <c r="AH233" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="AI233" t="s" s="2">
         <v>100</v>
@@ -30894,18 +30879,18 @@
         <v>80</v>
       </c>
       <c r="AL233" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AM233" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN233" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -30931,16 +30916,16 @@
         <v>108</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="N234" t="s" s="2">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="O234" t="s" s="2">
         <v>80</v>
@@ -30989,7 +30974,7 @@
         <v>80</v>
       </c>
       <c r="AE234" t="s" s="2">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="AF234" t="s" s="2">
         <v>78</v>
@@ -31010,18 +30995,18 @@
         <v>80</v>
       </c>
       <c r="AL234" t="s" s="2">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="AM234" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN234" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -31044,13 +31029,13 @@
         <v>80</v>
       </c>
       <c r="J235" t="s" s="2">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="M235" s="2"/>
       <c r="N235" s="2"/>
@@ -31101,7 +31086,7 @@
         <v>80</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>78</v>
@@ -31119,10 +31104,10 @@
         <v>80</v>
       </c>
       <c r="AK235" t="s" s="2">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="AL235" t="s" s="2">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="AM235" t="s" s="2">
         <v>80</v>
@@ -31133,7 +31118,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -31245,7 +31230,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -31355,10 +31340,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="C238" t="s" s="2">
         <v>80</v>
@@ -31380,13 +31365,13 @@
         <v>80</v>
       </c>
       <c r="J238" t="s" s="2">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="M238" s="2"/>
       <c r="N238" s="2"/>
@@ -31469,7 +31454,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -31581,7 +31566,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -31693,7 +31678,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -31719,13 +31704,13 @@
         <v>102</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="N241" s="2"/>
       <c r="O241" t="s" s="2">
@@ -31733,7 +31718,7 @@
       </c>
       <c r="P241" s="2"/>
       <c r="Q241" t="s" s="2">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="R241" t="s" s="2">
         <v>80</v>
@@ -31775,7 +31760,7 @@
         <v>80</v>
       </c>
       <c r="AE241" t="s" s="2">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="AF241" t="s" s="2">
         <v>88</v>
@@ -31807,7 +31792,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -31833,10 +31818,10 @@
         <v>188</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="M242" s="2"/>
       <c r="N242" s="2"/>
@@ -31885,7 +31870,7 @@
         <v>306</v>
       </c>
       <c r="AE242" t="s" s="2">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="AF242" t="s" s="2">
         <v>78</v>
@@ -31917,10 +31902,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="C243" t="s" s="2">
         <v>80</v>
@@ -31945,10 +31930,10 @@
         <v>188</v>
       </c>
       <c r="K243" t="s" s="2">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="M243" s="2"/>
       <c r="N243" s="2"/>
@@ -31999,7 +31984,7 @@
         <v>80</v>
       </c>
       <c r="AE243" t="s" s="2">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="AF243" t="s" s="2">
         <v>78</v>
@@ -32031,7 +32016,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -32143,7 +32128,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -32257,7 +32242,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -32283,13 +32268,13 @@
         <v>318</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="N246" t="s" s="2">
         <v>322</v>
@@ -32321,7 +32306,7 @@
       </c>
       <c r="X246" s="2"/>
       <c r="Y246" t="s" s="2">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="Z246" t="s" s="2">
         <v>80</v>
@@ -32371,7 +32356,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -32397,13 +32382,13 @@
         <v>90</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="N247" t="s" s="2">
         <v>368</v>
@@ -32487,10 +32472,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="C248" t="s" s="2">
         <v>80</v>
@@ -32512,13 +32497,13 @@
         <v>80</v>
       </c>
       <c r="J248" t="s" s="2">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="K248" t="s" s="2">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="M248" s="2"/>
       <c r="N248" s="2"/>
@@ -32601,7 +32586,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -32717,7 +32702,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -32740,16 +32725,16 @@
         <v>80</v>
       </c>
       <c r="J250" t="s" s="2">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K250" t="s" s="2">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="N250" s="2"/>
       <c r="O250" t="s" s="2">
@@ -32799,7 +32784,7 @@
         <v>80</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>78</v>
@@ -32820,7 +32805,7 @@
         <v>80</v>
       </c>
       <c r="AL250" t="s" s="2">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="AM250" t="s" s="2">
         <v>80</v>
@@ -32831,7 +32816,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -32943,7 +32928,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -33057,7 +33042,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -33173,7 +33158,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -33196,16 +33181,16 @@
         <v>80</v>
       </c>
       <c r="J254" t="s" s="2">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="K254" t="s" s="2">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="M254" t="s" s="2">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="N254" s="2"/>
       <c r="O254" t="s" s="2">
@@ -33255,7 +33240,7 @@
         <v>80</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>78</v>
@@ -33276,7 +33261,7 @@
         <v>80</v>
       </c>
       <c r="AL254" t="s" s="2">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="AM254" t="s" s="2">
         <v>80</v>
@@ -33287,7 +33272,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -33399,7 +33384,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -33513,7 +33498,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -33536,19 +33521,19 @@
         <v>89</v>
       </c>
       <c r="J257" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K257" t="s" s="2">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="N257" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="O257" t="s" s="2">
         <v>80</v>
@@ -33597,7 +33582,7 @@
         <v>80</v>
       </c>
       <c r="AE257" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AF257" t="s" s="2">
         <v>78</v>
@@ -33618,18 +33603,18 @@
         <v>80</v>
       </c>
       <c r="AL257" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AM257" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN257" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -33655,22 +33640,22 @@
         <v>108</v>
       </c>
       <c r="K258" t="s" s="2">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="M258" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N258" t="s" s="2">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="O258" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P258" t="s" s="2">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="Q258" t="s" s="2">
         <v>80</v>
@@ -33694,10 +33679,10 @@
         <v>182</v>
       </c>
       <c r="X258" t="s" s="2">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="Y258" t="s" s="2">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="Z258" t="s" s="2">
         <v>80</v>
@@ -33715,7 +33700,7 @@
         <v>80</v>
       </c>
       <c r="AE258" t="s" s="2">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="AF258" t="s" s="2">
         <v>78</v>
@@ -33736,18 +33721,18 @@
         <v>80</v>
       </c>
       <c r="AL258" t="s" s="2">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AM258" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN258" t="s" s="2">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -33773,16 +33758,16 @@
         <v>90</v>
       </c>
       <c r="K259" t="s" s="2">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="M259" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N259" t="s" s="2">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="O259" t="s" s="2">
         <v>80</v>
@@ -33831,7 +33816,7 @@
         <v>80</v>
       </c>
       <c r="AE259" t="s" s="2">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="AF259" t="s" s="2">
         <v>78</v>
@@ -33852,18 +33837,18 @@
         <v>80</v>
       </c>
       <c r="AL259" t="s" s="2">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="AM259" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN259" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -33889,16 +33874,16 @@
         <v>102</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="M260" t="s" s="2">
         <v>490</v>
       </c>
       <c r="N260" t="s" s="2">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="O260" t="s" s="2">
         <v>80</v>
@@ -33927,7 +33912,7 @@
       </c>
       <c r="X260" s="2"/>
       <c r="Y260" t="s" s="2">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="Z260" t="s" s="2">
         <v>80</v>
@@ -33945,7 +33930,7 @@
         <v>80</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AF260" t="s" s="2">
         <v>78</v>
@@ -33954,7 +33939,7 @@
         <v>88</v>
       </c>
       <c r="AH260" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="AI260" t="s" s="2">
         <v>100</v>
@@ -33966,18 +33951,18 @@
         <v>80</v>
       </c>
       <c r="AL260" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AM260" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN260" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -34003,16 +33988,16 @@
         <v>108</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="N261" t="s" s="2">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="O261" t="s" s="2">
         <v>80</v>
@@ -34061,7 +34046,7 @@
         <v>80</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="AF261" t="s" s="2">
         <v>78</v>
@@ -34082,18 +34067,18 @@
         <v>80</v>
       </c>
       <c r="AL261" t="s" s="2">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="AM261" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN261" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -34116,16 +34101,16 @@
         <v>80</v>
       </c>
       <c r="J262" t="s" s="2">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="M262" t="s" s="2">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="N262" s="2"/>
       <c r="O262" t="s" s="2">
@@ -34175,7 +34160,7 @@
         <v>80</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>78</v>
@@ -34196,7 +34181,7 @@
         <v>80</v>
       </c>
       <c r="AL262" t="s" s="2">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="AM262" t="s" s="2">
         <v>80</v>
@@ -34207,7 +34192,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -34319,7 +34304,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -34433,7 +34418,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -34456,19 +34441,19 @@
         <v>89</v>
       </c>
       <c r="J265" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K265" t="s" s="2">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="L265" t="s" s="2">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="M265" t="s" s="2">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="N265" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="O265" t="s" s="2">
         <v>80</v>
@@ -34517,7 +34502,7 @@
         <v>80</v>
       </c>
       <c r="AE265" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AF265" t="s" s="2">
         <v>78</v>
@@ -34538,18 +34523,18 @@
         <v>80</v>
       </c>
       <c r="AL265" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AM265" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN265" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -34575,22 +34560,22 @@
         <v>108</v>
       </c>
       <c r="K266" t="s" s="2">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="M266" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N266" t="s" s="2">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="O266" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P266" t="s" s="2">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="Q266" t="s" s="2">
         <v>80</v>
@@ -34614,10 +34599,10 @@
         <v>182</v>
       </c>
       <c r="X266" t="s" s="2">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="Y266" t="s" s="2">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="Z266" t="s" s="2">
         <v>80</v>
@@ -34635,7 +34620,7 @@
         <v>80</v>
       </c>
       <c r="AE266" t="s" s="2">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="AF266" t="s" s="2">
         <v>78</v>
@@ -34656,18 +34641,18 @@
         <v>80</v>
       </c>
       <c r="AL266" t="s" s="2">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AM266" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN266" t="s" s="2">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -34693,16 +34678,16 @@
         <v>90</v>
       </c>
       <c r="K267" t="s" s="2">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="M267" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N267" t="s" s="2">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="O267" t="s" s="2">
         <v>80</v>
@@ -34751,7 +34736,7 @@
         <v>80</v>
       </c>
       <c r="AE267" t="s" s="2">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="AF267" t="s" s="2">
         <v>78</v>
@@ -34772,18 +34757,18 @@
         <v>80</v>
       </c>
       <c r="AL267" t="s" s="2">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="AM267" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN267" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -34809,16 +34794,16 @@
         <v>102</v>
       </c>
       <c r="K268" t="s" s="2">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="M268" t="s" s="2">
         <v>490</v>
       </c>
       <c r="N268" t="s" s="2">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="O268" t="s" s="2">
         <v>80</v>
@@ -34867,7 +34852,7 @@
         <v>80</v>
       </c>
       <c r="AE268" t="s" s="2">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AF268" t="s" s="2">
         <v>78</v>
@@ -34876,7 +34861,7 @@
         <v>88</v>
       </c>
       <c r="AH268" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="AI268" t="s" s="2">
         <v>100</v>
@@ -34888,18 +34873,18 @@
         <v>80</v>
       </c>
       <c r="AL268" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AM268" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN268" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -34925,16 +34910,16 @@
         <v>108</v>
       </c>
       <c r="K269" t="s" s="2">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="M269" t="s" s="2">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="N269" t="s" s="2">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="O269" t="s" s="2">
         <v>80</v>
@@ -34983,7 +34968,7 @@
         <v>80</v>
       </c>
       <c r="AE269" t="s" s="2">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="AF269" t="s" s="2">
         <v>78</v>
@@ -35004,18 +34989,18 @@
         <v>80</v>
       </c>
       <c r="AL269" t="s" s="2">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="AM269" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN269" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -35038,16 +35023,16 @@
         <v>80</v>
       </c>
       <c r="J270" t="s" s="2">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="K270" t="s" s="2">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="M270" t="s" s="2">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="N270" s="2"/>
       <c r="O270" t="s" s="2">
@@ -35097,7 +35082,7 @@
         <v>80</v>
       </c>
       <c r="AE270" t="s" s="2">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="AF270" t="s" s="2">
         <v>78</v>
@@ -35118,7 +35103,7 @@
         <v>80</v>
       </c>
       <c r="AL270" t="s" s="2">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="AM270" t="s" s="2">
         <v>80</v>
@@ -35129,7 +35114,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -35241,7 +35226,7 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -35355,7 +35340,7 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -35378,19 +35363,19 @@
         <v>89</v>
       </c>
       <c r="J273" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K273" t="s" s="2">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="M273" t="s" s="2">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="N273" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="O273" t="s" s="2">
         <v>80</v>
@@ -35439,7 +35424,7 @@
         <v>80</v>
       </c>
       <c r="AE273" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AF273" t="s" s="2">
         <v>78</v>
@@ -35460,18 +35445,18 @@
         <v>80</v>
       </c>
       <c r="AL273" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AM273" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN273" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -35497,22 +35482,22 @@
         <v>108</v>
       </c>
       <c r="K274" t="s" s="2">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="M274" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N274" t="s" s="2">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="O274" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P274" t="s" s="2">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="Q274" t="s" s="2">
         <v>80</v>
@@ -35536,10 +35521,10 @@
         <v>182</v>
       </c>
       <c r="X274" t="s" s="2">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="Y274" t="s" s="2">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="Z274" t="s" s="2">
         <v>80</v>
@@ -35557,7 +35542,7 @@
         <v>80</v>
       </c>
       <c r="AE274" t="s" s="2">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="AF274" t="s" s="2">
         <v>78</v>
@@ -35578,18 +35563,18 @@
         <v>80</v>
       </c>
       <c r="AL274" t="s" s="2">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AM274" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN274" t="s" s="2">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -35615,16 +35600,16 @@
         <v>90</v>
       </c>
       <c r="K275" t="s" s="2">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="M275" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N275" t="s" s="2">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="O275" t="s" s="2">
         <v>80</v>
@@ -35673,7 +35658,7 @@
         <v>80</v>
       </c>
       <c r="AE275" t="s" s="2">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="AF275" t="s" s="2">
         <v>78</v>
@@ -35694,18 +35679,18 @@
         <v>80</v>
       </c>
       <c r="AL275" t="s" s="2">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="AM275" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN275" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -35731,16 +35716,16 @@
         <v>102</v>
       </c>
       <c r="K276" t="s" s="2">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="L276" t="s" s="2">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="M276" t="s" s="2">
         <v>490</v>
       </c>
       <c r="N276" t="s" s="2">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="O276" t="s" s="2">
         <v>80</v>
@@ -35789,7 +35774,7 @@
         <v>80</v>
       </c>
       <c r="AE276" t="s" s="2">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AF276" t="s" s="2">
         <v>78</v>
@@ -35798,7 +35783,7 @@
         <v>88</v>
       </c>
       <c r="AH276" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="AI276" t="s" s="2">
         <v>100</v>
@@ -35810,18 +35795,18 @@
         <v>80</v>
       </c>
       <c r="AL276" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AM276" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN276" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -35847,16 +35832,16 @@
         <v>108</v>
       </c>
       <c r="K277" t="s" s="2">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="L277" t="s" s="2">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="M277" t="s" s="2">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="N277" t="s" s="2">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="O277" t="s" s="2">
         <v>80</v>
@@ -35905,7 +35890,7 @@
         <v>80</v>
       </c>
       <c r="AE277" t="s" s="2">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="AF277" t="s" s="2">
         <v>78</v>
@@ -35926,18 +35911,18 @@
         <v>80</v>
       </c>
       <c r="AL277" t="s" s="2">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="AM277" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN277" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -35963,16 +35948,16 @@
         <v>217</v>
       </c>
       <c r="K278" t="s" s="2">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="M278" t="s" s="2">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="N278" t="s" s="2">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="O278" t="s" s="2">
         <v>80</v>
@@ -36021,7 +36006,7 @@
         <v>80</v>
       </c>
       <c r="AE278" t="s" s="2">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="AF278" t="s" s="2">
         <v>78</v>
@@ -36039,10 +36024,10 @@
         <v>80</v>
       </c>
       <c r="AK278" t="s" s="2">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="AL278" t="s" s="2">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="AM278" t="s" s="2">
         <v>80</v>
@@ -36053,7 +36038,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -36165,7 +36150,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -36279,7 +36264,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -36305,13 +36290,13 @@
         <v>429</v>
       </c>
       <c r="K281" t="s" s="2">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="M281" t="s" s="2">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="N281" s="2"/>
       <c r="O281" t="s" s="2">
@@ -36361,7 +36346,7 @@
         <v>80</v>
       </c>
       <c r="AE281" t="s" s="2">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="AF281" t="s" s="2">
         <v>78</v>
@@ -36370,7 +36355,7 @@
         <v>88</v>
       </c>
       <c r="AH281" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="AI281" t="s" s="2">
         <v>100</v>
@@ -36382,18 +36367,18 @@
         <v>80</v>
       </c>
       <c r="AL281" t="s" s="2">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="AM281" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN281" t="s" s="2">
-        <v>1130</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -36419,20 +36404,20 @@
         <v>429</v>
       </c>
       <c r="K282" t="s" s="2">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="M282" t="s" s="2">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="N282" s="2"/>
       <c r="O282" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P282" t="s" s="2">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="Q282" t="s" s="2">
         <v>80</v>
@@ -36477,7 +36462,7 @@
         <v>80</v>
       </c>
       <c r="AE282" t="s" s="2">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="AF282" t="s" s="2">
         <v>78</v>
@@ -36486,7 +36471,7 @@
         <v>88</v>
       </c>
       <c r="AH282" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="AI282" t="s" s="2">
         <v>100</v>
@@ -36498,18 +36483,18 @@
         <v>80</v>
       </c>
       <c r="AL282" t="s" s="2">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="AM282" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN282" t="s" s="2">
-        <v>1138</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -36532,16 +36517,16 @@
         <v>80</v>
       </c>
       <c r="J283" t="s" s="2">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="K283" t="s" s="2">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="M283" t="s" s="2">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="N283" s="2"/>
       <c r="O283" t="s" s="2">
@@ -36591,7 +36576,7 @@
         <v>80</v>
       </c>
       <c r="AE283" t="s" s="2">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="AF283" t="s" s="2">
         <v>78</v>
@@ -36609,21 +36594,21 @@
         <v>80</v>
       </c>
       <c r="AK283" t="s" s="2">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="AL283" t="s" s="2">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="AM283" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN283" t="s" s="2">
-        <v>1145</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -36646,16 +36631,16 @@
         <v>80</v>
       </c>
       <c r="J284" t="s" s="2">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="K284" t="s" s="2">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="M284" t="s" s="2">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="N284" s="2"/>
       <c r="O284" t="s" s="2">
@@ -36705,7 +36690,7 @@
         <v>80</v>
       </c>
       <c r="AE284" t="s" s="2">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="AF284" t="s" s="2">
         <v>78</v>
@@ -36723,21 +36708,21 @@
         <v>80</v>
       </c>
       <c r="AK284" t="s" s="2">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="AL284" t="s" s="2">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="AM284" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN284" t="s" s="2">
-        <v>1151</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" t="s" s="2">
@@ -36849,7 +36834,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -36963,7 +36948,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
@@ -36986,19 +36971,19 @@
         <v>89</v>
       </c>
       <c r="J287" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K287" t="s" s="2">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="M287" t="s" s="2">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="N287" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="O287" t="s" s="2">
         <v>80</v>
@@ -37047,7 +37032,7 @@
         <v>80</v>
       </c>
       <c r="AE287" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AF287" t="s" s="2">
         <v>78</v>
@@ -37068,18 +37053,18 @@
         <v>80</v>
       </c>
       <c r="AL287" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AM287" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN287" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -37105,22 +37090,22 @@
         <v>108</v>
       </c>
       <c r="K288" t="s" s="2">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="M288" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N288" t="s" s="2">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="O288" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P288" t="s" s="2">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="Q288" t="s" s="2">
         <v>80</v>
@@ -37144,10 +37129,10 @@
         <v>182</v>
       </c>
       <c r="X288" t="s" s="2">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="Y288" t="s" s="2">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="Z288" t="s" s="2">
         <v>80</v>
@@ -37165,7 +37150,7 @@
         <v>80</v>
       </c>
       <c r="AE288" t="s" s="2">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="AF288" t="s" s="2">
         <v>78</v>
@@ -37186,18 +37171,18 @@
         <v>80</v>
       </c>
       <c r="AL288" t="s" s="2">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AM288" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN288" t="s" s="2">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -37223,16 +37208,16 @@
         <v>90</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="M289" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N289" t="s" s="2">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="O289" t="s" s="2">
         <v>80</v>
@@ -37281,7 +37266,7 @@
         <v>80</v>
       </c>
       <c r="AE289" t="s" s="2">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="AF289" t="s" s="2">
         <v>78</v>
@@ -37302,18 +37287,18 @@
         <v>80</v>
       </c>
       <c r="AL289" t="s" s="2">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="AM289" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN289" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" t="s" s="2">
@@ -37339,16 +37324,16 @@
         <v>102</v>
       </c>
       <c r="K290" t="s" s="2">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="M290" t="s" s="2">
         <v>490</v>
       </c>
       <c r="N290" t="s" s="2">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="O290" t="s" s="2">
         <v>80</v>
@@ -37358,7 +37343,7 @@
         <v>80</v>
       </c>
       <c r="R290" t="s" s="2">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="S290" t="s" s="2">
         <v>80</v>
@@ -37397,7 +37382,7 @@
         <v>80</v>
       </c>
       <c r="AE290" t="s" s="2">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AF290" t="s" s="2">
         <v>78</v>
@@ -37406,7 +37391,7 @@
         <v>88</v>
       </c>
       <c r="AH290" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="AI290" t="s" s="2">
         <v>100</v>
@@ -37418,18 +37403,18 @@
         <v>80</v>
       </c>
       <c r="AL290" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AM290" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN290" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -37455,16 +37440,16 @@
         <v>108</v>
       </c>
       <c r="K291" t="s" s="2">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="M291" t="s" s="2">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="N291" t="s" s="2">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="O291" t="s" s="2">
         <v>80</v>
@@ -37513,7 +37498,7 @@
         <v>80</v>
       </c>
       <c r="AE291" t="s" s="2">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="AF291" t="s" s="2">
         <v>78</v>
@@ -37534,18 +37519,18 @@
         <v>80</v>
       </c>
       <c r="AL291" t="s" s="2">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="AM291" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN291" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" t="s" s="2">
@@ -37568,16 +37553,16 @@
         <v>80</v>
       </c>
       <c r="J292" t="s" s="2">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="K292" t="s" s="2">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="M292" t="s" s="2">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="N292" s="2"/>
       <c r="O292" t="s" s="2">
@@ -37627,7 +37612,7 @@
         <v>80</v>
       </c>
       <c r="AE292" t="s" s="2">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="AF292" t="s" s="2">
         <v>78</v>
@@ -37645,10 +37630,10 @@
         <v>80</v>
       </c>
       <c r="AK292" t="s" s="2">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="AL292" t="s" s="2">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="AM292" t="s" s="2">
         <v>80</v>
@@ -37659,7 +37644,7 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" t="s" s="2">
@@ -37771,7 +37756,7 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" t="s" s="2">
@@ -37885,7 +37870,7 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" t="s" s="2">
@@ -37908,19 +37893,19 @@
         <v>89</v>
       </c>
       <c r="J295" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="M295" t="s" s="2">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="N295" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="O295" t="s" s="2">
         <v>80</v>
@@ -37969,7 +37954,7 @@
         <v>80</v>
       </c>
       <c r="AE295" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AF295" t="s" s="2">
         <v>78</v>
@@ -37990,18 +37975,18 @@
         <v>80</v>
       </c>
       <c r="AL295" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AM295" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN295" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" t="s" s="2">
@@ -38027,22 +38012,22 @@
         <v>108</v>
       </c>
       <c r="K296" t="s" s="2">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="L296" t="s" s="2">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="M296" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N296" t="s" s="2">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="O296" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P296" t="s" s="2">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="Q296" t="s" s="2">
         <v>80</v>
@@ -38066,10 +38051,10 @@
         <v>182</v>
       </c>
       <c r="X296" t="s" s="2">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="Y296" t="s" s="2">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="Z296" t="s" s="2">
         <v>80</v>
@@ -38087,7 +38072,7 @@
         <v>80</v>
       </c>
       <c r="AE296" t="s" s="2">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="AF296" t="s" s="2">
         <v>78</v>
@@ -38108,18 +38093,18 @@
         <v>80</v>
       </c>
       <c r="AL296" t="s" s="2">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AM296" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN296" t="s" s="2">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" t="s" s="2">
@@ -38145,23 +38130,23 @@
         <v>90</v>
       </c>
       <c r="K297" t="s" s="2">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="L297" t="s" s="2">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="M297" t="s" s="2">
         <v>566</v>
       </c>
       <c r="N297" t="s" s="2">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="O297" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P297" s="2"/>
       <c r="Q297" t="s" s="2">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="R297" t="s" s="2">
         <v>80</v>
@@ -38203,7 +38188,7 @@
         <v>80</v>
       </c>
       <c r="AE297" t="s" s="2">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="AF297" t="s" s="2">
         <v>78</v>
@@ -38224,18 +38209,18 @@
         <v>80</v>
       </c>
       <c r="AL297" t="s" s="2">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="AM297" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN297" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" t="s" s="2">
@@ -38261,23 +38246,23 @@
         <v>102</v>
       </c>
       <c r="K298" t="s" s="2">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="L298" t="s" s="2">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="M298" t="s" s="2">
         <v>490</v>
       </c>
       <c r="N298" t="s" s="2">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="O298" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P298" s="2"/>
       <c r="Q298" t="s" s="2">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="R298" t="s" s="2">
         <v>80</v>
@@ -38319,7 +38304,7 @@
         <v>80</v>
       </c>
       <c r="AE298" t="s" s="2">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AF298" t="s" s="2">
         <v>78</v>
@@ -38328,7 +38313,7 @@
         <v>88</v>
       </c>
       <c r="AH298" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="AI298" t="s" s="2">
         <v>100</v>
@@ -38340,18 +38325,18 @@
         <v>80</v>
       </c>
       <c r="AL298" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AM298" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN298" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>1181</v>
+        <v>1176</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" t="s" s="2">
@@ -38377,23 +38362,23 @@
         <v>108</v>
       </c>
       <c r="K299" t="s" s="2">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="M299" t="s" s="2">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="N299" t="s" s="2">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="O299" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P299" s="2"/>
       <c r="Q299" t="s" s="2">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="R299" t="s" s="2">
         <v>80</v>
@@ -38435,7 +38420,7 @@
         <v>80</v>
       </c>
       <c r="AE299" t="s" s="2">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="AF299" t="s" s="2">
         <v>78</v>
@@ -38456,18 +38441,18 @@
         <v>80</v>
       </c>
       <c r="AL299" t="s" s="2">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="AM299" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN299" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" t="s" s="2">
@@ -38493,10 +38478,10 @@
         <v>224</v>
       </c>
       <c r="K300" t="s" s="2">
-        <v>1185</v>
+        <v>1180</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="M300" t="s" s="2">
         <v>425</v>
@@ -38549,7 +38534,7 @@
         <v>80</v>
       </c>
       <c r="AE300" t="s" s="2">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="AF300" t="s" s="2">
         <v>78</v>
@@ -38570,7 +38555,7 @@
         <v>80</v>
       </c>
       <c r="AL300" t="s" s="2">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="AM300" t="s" s="2">
         <v>462</v>
@@ -38581,7 +38566,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" t="s" s="2">
@@ -38604,13 +38589,13 @@
         <v>80</v>
       </c>
       <c r="J301" t="s" s="2">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K301" t="s" s="2">
-        <v>1189</v>
+        <v>1184</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>1190</v>
+        <v>1185</v>
       </c>
       <c r="M301" s="2"/>
       <c r="N301" s="2"/>
@@ -38661,7 +38646,7 @@
         <v>80</v>
       </c>
       <c r="AE301" t="s" s="2">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="AF301" t="s" s="2">
         <v>78</v>
@@ -38679,10 +38664,10 @@
         <v>80</v>
       </c>
       <c r="AK301" t="s" s="2">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="AL301" t="s" s="2">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="AM301" t="s" s="2">
         <v>80</v>
@@ -38693,7 +38678,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" t="s" s="2">
@@ -38805,7 +38790,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" t="s" s="2">
@@ -38919,7 +38904,7 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>1195</v>
+        <v>1190</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" t="s" s="2">
@@ -39035,7 +39020,7 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="B305" s="2"/>
       <c r="C305" t="s" s="2">
@@ -39061,13 +39046,13 @@
         <v>188</v>
       </c>
       <c r="K305" t="s" s="2">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="M305" t="s" s="2">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="N305" s="2"/>
       <c r="O305" t="s" s="2">
@@ -39097,7 +39082,7 @@
       </c>
       <c r="X305" s="2"/>
       <c r="Y305" t="s" s="2">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="Z305" t="s" s="2">
         <v>80</v>
@@ -39115,7 +39100,7 @@
         <v>80</v>
       </c>
       <c r="AE305" t="s" s="2">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="AF305" t="s" s="2">
         <v>88</v>
@@ -39133,21 +39118,21 @@
         <v>80</v>
       </c>
       <c r="AK305" t="s" s="2">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="AL305" t="s" s="2">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="AM305" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN305" t="s" s="2">
-        <v>1201</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>1202</v>
+        <v>1197</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" t="s" s="2">
@@ -39259,7 +39244,7 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" t="s" s="2">
@@ -39373,7 +39358,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>1204</v>
+        <v>1199</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" t="s" s="2">
@@ -39399,13 +39384,13 @@
         <v>318</v>
       </c>
       <c r="K308" t="s" s="2">
-        <v>1205</v>
+        <v>1200</v>
       </c>
       <c r="L308" t="s" s="2">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="M308" t="s" s="2">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="N308" t="s" s="2">
         <v>322</v>
@@ -39489,7 +39474,7 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" t="s" s="2">
@@ -39601,7 +39586,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" t="s" s="2">
@@ -39715,7 +39700,7 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s" s="2">
@@ -39741,10 +39726,10 @@
         <v>102</v>
       </c>
       <c r="K311" t="s" s="2">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="M311" t="s" s="2">
         <v>331</v>
@@ -39757,7 +39742,7 @@
       </c>
       <c r="P311" s="2"/>
       <c r="Q311" t="s" s="2">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="R311" t="s" s="2">
         <v>80</v>
@@ -39831,7 +39816,7 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" t="s" s="2">
@@ -39945,7 +39930,7 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" t="s" s="2">
@@ -39971,10 +39956,10 @@
         <v>108</v>
       </c>
       <c r="K313" t="s" s="2">
-        <v>1205</v>
+        <v>1200</v>
       </c>
       <c r="L313" t="s" s="2">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="M313" s="2"/>
       <c r="N313" t="s" s="2">
@@ -40059,7 +40044,7 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" t="s" s="2">
@@ -40085,10 +40070,10 @@
         <v>90</v>
       </c>
       <c r="K314" t="s" s="2">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="L314" t="s" s="2">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="M314" s="2"/>
       <c r="N314" t="s" s="2">
@@ -40173,7 +40158,7 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>1218</v>
+        <v>1213</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" t="s" s="2">
@@ -40199,13 +40184,13 @@
         <v>288</v>
       </c>
       <c r="K315" t="s" s="2">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="L315" t="s" s="2">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="M315" t="s" s="2">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="N315" t="s" s="2">
         <v>360</v>
@@ -40289,7 +40274,7 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" t="s" s="2">
@@ -40315,13 +40300,13 @@
         <v>90</v>
       </c>
       <c r="K316" t="s" s="2">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="L316" t="s" s="2">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="M316" t="s" s="2">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="N316" t="s" s="2">
         <v>368</v>
@@ -40405,7 +40390,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" t="s" s="2">
@@ -40431,13 +40416,13 @@
         <v>188</v>
       </c>
       <c r="K317" t="s" s="2">
-        <v>1224</v>
+        <v>1219</v>
       </c>
       <c r="L317" t="s" s="2">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="M317" t="s" s="2">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="N317" s="2"/>
       <c r="O317" t="s" s="2">
@@ -40466,10 +40451,10 @@
         <v>255</v>
       </c>
       <c r="X317" t="s" s="2">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="Y317" t="s" s="2">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="Z317" t="s" s="2">
         <v>80</v>
@@ -40487,7 +40472,7 @@
         <v>80</v>
       </c>
       <c r="AE317" t="s" s="2">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="AF317" t="s" s="2">
         <v>78</v>
@@ -40505,21 +40490,21 @@
         <v>80</v>
       </c>
       <c r="AK317" t="s" s="2">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="AL317" t="s" s="2">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="AM317" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN317" t="s" s="2">
-        <v>1231</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" t="s" s="2">
@@ -40542,13 +40527,13 @@
         <v>80</v>
       </c>
       <c r="J318" t="s" s="2">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="K318" t="s" s="2">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="L318" t="s" s="2">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="M318" t="s" s="2">
         <v>425</v>
@@ -40601,7 +40586,7 @@
         <v>80</v>
       </c>
       <c r="AE318" t="s" s="2">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="AF318" t="s" s="2">
         <v>78</v>
@@ -40616,13 +40601,13 @@
         <v>100</v>
       </c>
       <c r="AJ318" t="s" s="2">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="AK318" t="s" s="2">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="AL318" t="s" s="2">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="AM318" t="s" s="2">
         <v>80</v>
@@ -40633,11 +40618,11 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="B319" s="2"/>
       <c r="C319" t="s" s="2">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" t="s" s="2">
@@ -40656,16 +40641,16 @@
         <v>80</v>
       </c>
       <c r="J319" t="s" s="2">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="K319" t="s" s="2">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="L319" t="s" s="2">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="M319" t="s" s="2">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="N319" s="2"/>
       <c r="O319" t="s" s="2">
@@ -40715,7 +40700,7 @@
         <v>80</v>
       </c>
       <c r="AE319" t="s" s="2">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="AF319" t="s" s="2">
         <v>78</v>
@@ -40736,7 +40721,7 @@
         <v>80</v>
       </c>
       <c r="AL319" t="s" s="2">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="AM319" t="s" s="2">
         <v>80</v>
@@ -40747,7 +40732,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" t="s" s="2">
@@ -40770,16 +40755,16 @@
         <v>80</v>
       </c>
       <c r="J320" t="s" s="2">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="K320" t="s" s="2">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="L320" t="s" s="2">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="M320" t="s" s="2">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="N320" s="2"/>
       <c r="O320" t="s" s="2">
@@ -40829,7 +40814,7 @@
         <v>80</v>
       </c>
       <c r="AE320" t="s" s="2">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="AF320" t="s" s="2">
         <v>78</v>
@@ -40844,13 +40829,13 @@
         <v>100</v>
       </c>
       <c r="AJ320" t="s" s="2">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="AK320" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL320" t="s" s="2">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="AM320" t="s" s="2">
         <v>80</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -1949,10 +1949,10 @@
 </t>
   </si>
   <si>
-    <t>服⽤タイミング</t>
-  </si>
-  <si>
-    <t>服⽤タイミングを記録する。</t>
+    <t>服用タイミング</t>
+  </si>
+  <si>
+    <t>服用タイミングを記録する。</t>
   </si>
   <si>
     <t>Dosage.textが設定されていることが想定されているのとは異なり、この属性は常に設定されていなくてもよい。もし、療法が設定されている場合はDosage.textはDosage.timingを反映させているべきである。</t>
@@ -1982,7 +1982,7 @@
     <t>服用タイミングを示す時刻</t>
   </si>
   <si>
-    <t>服⽤タイミングを具体的な日時で指定する場合に使⽤する</t>
+    <t>服用タイミングを具体的な日時で指定する場合に使⽤する</t>
   </si>
   <si>
     <t>In a Medication Administration Record, for instance, you need to take a general specification, and turn it into a precise specification.</t>
@@ -2033,10 +2033,10 @@
 RangePeriod</t>
   </si>
   <si>
-    <t>服⽤開始日から服⽤終了日までの全日数</t>
-  </si>
-  <si>
-    <t>服⽤開始日から服⽤終了日までの全日数。実投与日数ではないことに注意する。</t>
+    <t>服用開始日から服用終了日までの全日数</t>
+  </si>
+  <si>
+    <t>服用開始日から服用終了日までの全日数。実投与日数ではないことに注意する。</t>
   </si>
   <si>
     <t>Timing.repeat.bounds[x]</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -1982,7 +1982,7 @@
     <t>服用タイミングを示す時刻</t>
   </si>
   <si>
-    <t>服用タイミングを具体的な日時で指定する場合に使⽤する</t>
+    <t>服用タイミングを具体的な日時で指定する場合に使用する</t>
   </si>
   <si>
     <t>In a Medication Administration Record, for instance, you need to take a general specification, and turn it into a precise specification.</t>
@@ -2468,7 +2468,7 @@
     <t>「頓用」指示</t>
   </si>
   <si>
-    <t>JP Coreでは頓⽤型の用法を指定する場合に”true”を指定し、そのコードを指定する場合は用法コードとして指定する。
+    <t>JP Coreでは頓用型の用法を指定する場合に”true”を指定し、そのコードを指定する場合は用法コードとして指定する。
 Medication(薬剤)が必要なときに指定された量とスケジュールのみで内服するか（Booleanで選択される）、内服する前提条件(CodeableConcept)を示している。</t>
   </si>
   <si>
@@ -2490,7 +2490,7 @@
     <t>投与される身体部位</t>
   </si>
   <si>
-    <t>投与される身体部位。外⽤薬で部位を指定する場合に使⽤する。</t>
+    <t>投与される身体部位。外用薬で部位を指定する場合に使用する。</t>
   </si>
   <si>
     <t>もし、BodySite resourceの属性が必要な場合(たとえば、部位の指定や別々に投与経路を設定する場合)は、[bodySite](extension-bodysite.html)の標準拡張を使うこと。要約コードや非常に正確な位置の定義へのreferenceを使用することもできる。</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -1762,7 +1762,7 @@
     <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
   </si>
   <si>
-    <t>day</t>
+    <t>日</t>
   </si>
   <si>
     <t>Quantity.unit</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3421" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3421" uniqueCount="619">
   <si>
     <t>Property</t>
   </si>
@@ -501,7 +501,7 @@
   <si>
     <t>このインスタンスが外部から参照されるために使われるIDである。処方箋全体としてのIDとしては使用しない。
 処方箋内で同一の用法をまとめて表記されるRp番号はこのIdentifier elementの別スライスで表現する。それ以外に任意のIDを付与してもよい。
-このIDは業務手順によって定められた処方オーダーに対して、直接的なURL参照が適切でない場合も含めて関連付けるために使われる。この業務手順のIDは実施者によって割り当てられたものであり、リソースが更新されたりサーバからサーバに転送されたとしても固定のものとして存続する。</t>
+このIDは業務手順によって定められた処方オーダに対して、直接的なURL参照が適切でない場合も含めて関連付けるために使われる。この業務手順のIDは実施者によって割り当てられたものであり、リソースが更新されたりサーバからサーバに転送されたとしても固定のものとして存続する。</t>
   </si>
   <si>
     <t>これは業務IDであって、リソースに対するIDではない。</t>
@@ -740,10 +740,10 @@
     <t>requestIdentifier</t>
   </si>
   <si>
-    <t>処方オーダーに対するID</t>
-  </si>
-  <si>
-    <t>薬剤をオーダーする単位としての処方箋に対するID。MedicationRequestは単一の薬剤でインスタンスが作成されるが、それの集合としての処方箋のID。</t>
+    <t>処方オーダに対するID</t>
+  </si>
+  <si>
+    <t>薬剤をオーダする単位としての処方箋に対するID。MedicationRequestは単一の薬剤でインスタンスが作成されるが、それの集合としての処方箋のID。</t>
   </si>
   <si>
     <t>This is a business identifier, not a resource identifier.</t>
@@ -770,11 +770,11 @@
     <t>MedicationRequest.status</t>
   </si>
   <si>
-    <t>active | on-hold | cancelled | completed | entered-in-error | stopped | draft | unknown</t>
-  </si>
-  <si>
-    <t>JP Coreでは"active"に固定される。
-オーダーの現在の状態を示すコード。一般的には active か completed の状態であるだろう。</t>
+    <t>オーダの現在の状態を示すコード。【JP Core仕様】"active"に固定される。</t>
+  </si>
+  <si>
+    <t>【JP Core仕様】"active"に固定される。
+オーダの現在の状態を示すコード。一般的には active か completed の状態であるだろう。</t>
   </si>
   <si>
     <t>このエレメントはmodifierとされている。StatusとはこのResourceが現在妥当な状態ではないことも示すからである。</t>
@@ -801,13 +801,10 @@
     <t>MedicationRequest.statusReason</t>
   </si>
   <si>
-    <t>現状の理由</t>
-  </si>
-  <si>
     <t>現在のステータスの理由</t>
   </si>
   <si>
-    <t>一般的には「保留(suspended)」や「中止(cancelled)」といった例外的状態を示すために持ちいられる。MedicationRequestオーダーが発生した理由についてはreasonCodeに記載され、この項目は用いられない。</t>
+    <t>一般的には「保留(suspended)」や「中止(cancelled)」といった例外的状態を示すために持ちいられる。MedicationRequestオーダが発生した理由についてはreasonCodeに記載され、この項目は用いられない。</t>
   </si>
   <si>
     <t>example</t>
@@ -828,15 +825,15 @@
     <t>MedicationRequest.intent</t>
   </si>
   <si>
-    <t>proposal | plan | order | original-order | reflex-order | filler-order | instance-order | option</t>
-  </si>
-  <si>
-    <t>JP Coreでは "order" に固定される。
+    <t>投薬リクエストの意図。【JP Core仕様】#orderで固定とする。</t>
+  </si>
+  <si>
+    <t>【JP Core仕様】 "order" に固定される。
 投薬リクエストの意図 が提案(proposal)、計画(plan)、あるいは他の要求によるものかを示す。</t>
   </si>
   <si>
-    <t>処方をオーダーする場合、MedicationRequestのどの段階でオーダーしたのかについて、この項目を指定することが期待される。たとえば、proposalであれば患者、関係者、医師あるいは機器からの提案として作成される。"plan"であれば、医師、患者、関係者そして機器からの提案として生成される。"original-order"は医師にしか作成できない。
-instance-orderはリクエストあるいはオーダーをインスタンス化する段階であり、MedicationAdministrationレコードにも使われる。+    <t>処方をオーダする場合、MedicationRequestのどの段階でオーダしたのかについて、この項目を指定することが期待される。たとえば、proposalであれば患者、関係者、医師あるいは機器からの提案として作成される。"plan"であれば、医師、患者、関係者そして機器からの提案として生成される。"original-order"は医師にしか作成できない。
+instance-orderはリクエストあるいはオーダをインスタンス化する段階であり、MedicationAdministrationレコードにも使われる。 
 intentはこのresourceが実際に適応される時に変化するため、このエレメントはmodifierとしてラベルされる。</t>
   </si>
@@ -893,10 +890,10 @@
     <t>MedicationRequest.priority</t>
   </si>
   <si>
-    <t>routine | urgent | asap | stat</t>
-  </si>
-  <si>
-    <t>このMedicationRequestオーダーの優先度。他のオーダーと比較して表現される。</t>
+    <t>オーダの優先度</t>
+  </si>
+  <si>
+    <t>このMedicationRequestオーダの優先度。他のオーダと比較して表現される。</t>
   </si>
   <si>
     <t>FHIRでは文字列の大きさが1MBを超えてはならない(SHALL NOT)。</t>
@@ -927,10 +924,10 @@
     <t>要求が禁止された行為であればTrue</t>
   </si>
   <si>
-    <t>このオーダーが実施していけないものであればTrueを表示される</t>
-  </si>
-  <si>
-    <t>もし、doNotPerformに指定がなければ、オーダーは実施してもよいものである。(たとえば、「実施せよ」)</t>
+    <t>このオーダが実施していけないものであればTrueを表示される</t>
+  </si>
+  <si>
+    <t>もし、doNotPerformに指定がなければ、オーダは実施してもよいものである。(たとえば、「実施せよ」)</t>
   </si>
   <si>
     <t>SubstanceAdministration.actionNegationInd</t>
@@ -1018,7 +1015,7 @@
 一般には薬剤が投与される対象となる人（あるいはグループ)を表現するResourceに対するリンク。</t>
   </si>
   <si>
-    <t>処方オーダーの対象は必須項目である。
+    <t>処方オーダの対象は必須項目である。
 二次利用のためにどこに実際の対象がいるのかについての情報は提供されない。特定の対象に対して匿名化することも必要である。</t>
   </si>
   <si>
@@ -1078,7 +1075,7 @@
     <t>薬剤オーダについて補助的情報</t>
   </si>
   <si>
-    <t>薬剤をオーダーするときに補助的となる追加情報（たとえば、患者の身長や体重））を含む。</t>
+    <t>薬剤をオーダするときに補助的となる追加情報（たとえば、患者の身長や体重））を含む。</t>
   </si>
   <si>
     <t>参照先は実存するFHIR Resourceでなければならず(SHALL)、解決可能(アクセスコントロールや、一時的に利用不可であることなどは許容される)でなければならない(SHALL)。解決の方法はURLから取得可能であるか、Resource型が適応できるかどうか、正規のURLとして絶対的参照を扱うことができるか、ローカルのレジストリ／リポジトリから参照することができるかである。</t>
@@ -1097,7 +1094,7 @@
 </t>
   </si>
   <si>
-    <t>この処方オーダーが最初に記述された日</t>
+    <t>この処方オーダが最初に記述された日</t>
   </si>
   <si>
     <t>JP Core profileでは必須。処方指示が最初に作成された日時。秒の精度まで記録する。タイムゾーンも付与しなければならない。</t>
@@ -1125,11 +1122,11 @@
 </t>
   </si>
   <si>
-    <t>このオーダーを発行した人・物</t>
+    <t>このオーダを発行した人・物</t>
   </si>
   <si>
     <t>JP Core profileではこのエレメントに対する規定はない。
-このオーダーを発行した責任のある人、組織、機器。</t>
+このオーダを発行した責任のある人、組織、機器。</t>
   </si>
   <si>
     <t>Request.requester</t>
@@ -1188,11 +1185,11 @@
 </t>
   </si>
   <si>
-    <t>投薬オーダーの入力者</t>
+    <t>投薬オーダの入力者</t>
   </si>
   <si>
     <t>JP Core profileではこのエレメントに対する規定はない。
-たとえば口答指示や電話でのオーダーにより、他の人の代理で処方を入力した人。</t>
+たとえば口答指示や電話でのオーダにより、他の人の代理で処方を入力した人。</t>
   </si>
   <si>
     <t>.participation[typeCode=TRANS].role[classCode=ASSIGNED].code (HealthcareProviderType)</t>
@@ -1208,7 +1205,7 @@
   </si>
   <si>
     <t>このエレメントに対するJP Coreの規定はない。
-薬剤をオーダーするあるいはしないことを示した理由。</t>
+薬剤をオーダするあるいはしないことを示した理由。</t>
   </si>
   <si>
     <t>このエレメントは病名コードであってもよい。もし、すべての条件を示す記録があって他の詳細な記録が必要であれば、reasonReferenceを使用すること。</t>
@@ -1245,10 +1242,10 @@
     <t>処方箋が書かれた理由について補足するCondition ResourceまたはObservation Resource</t>
   </si>
   <si>
-    <t>薬剤がなぜオーダーされたのかを説明する条件や観察。</t>
-  </si>
-  <si>
-    <t>薬剤オーダーの理由を示すこれは条件や観察についての参照である。もし、コードだけであればreasonCodeを使用すること。</t>
+    <t>薬剤がなぜオーダされたのかを説明する条件や観察。</t>
+  </si>
+  <si>
+    <t>薬剤オーダの理由を示すこれは条件や観察についての参照である。もし、コードだけであればreasonCodeを使用すること。</t>
   </si>
   <si>
     <t>Request.reasonReference</t>
@@ -1295,10 +1292,10 @@
 </t>
   </si>
   <si>
-    <t>オーダーが実施される根拠</t>
-  </si>
-  <si>
-    <t>このMedicationRequestの全部あるいは一部を満たす計画やオーダー。</t>
+    <t>オーダが実施される根拠</t>
+  </si>
+  <si>
+    <t>このMedicationRequestの全部あるいは一部を満たす計画やオーダ。</t>
   </si>
   <si>
     <t>Request.basedOn</t>
@@ -1310,7 +1307,7 @@
     <t>MedicationRequest.groupIdentifier</t>
   </si>
   <si>
-    <t>このRequestを一部とする複数のオーダーを構成するID</t>
+    <t>このRequestを一部とする複数のオーダを構成するID</t>
   </si>
   <si>
     <t>一人の処方者が同時期に前後して作成した全てのリクエストに共通するIDで、処方や薬品請求のIDを示す。</t>
@@ -1397,10 +1394,7 @@
 </t>
   </si>
   <si>
-    <t>How the medication is/was taken or should be taken</t>
-  </si>
-  <si>
-    <t>Indicates how the medication is/was taken or should be taken by the patient.</t>
+    <t>薬の服用方法・服用した方法、または服用すべき方法</t>
   </si>
   <si>
     <t>There are examples where a medication request may include the option of an oral dose or an Intravenous or Intramuscular dose.  For example, "Ondansetron 8mg orally or IV twice a day as needed for nausea" or "Compazine® (prochlorperazine) 5-10mg PO or 25mg PR bid prn nausea or vomiting".  In these cases, two medication requests would be created that could be grouped together.  The decision on which dose and route of administration to use is based on the patient's condition at the time the dose is needed.</t>
@@ -1419,7 +1413,7 @@
     <t>調剤・払い出しについての承認事項</t>
   </si>
   <si>
-    <t>薬剤オーダー(MedicationRequest, Medication Prescription, Medication Orderなどとしても表現される）や薬剤オーダーとの一部としての薬剤の払い出しあるいは提供。この情報はオーダーとしてかならず伝えられるというわけではないことに注意。薬剤部門で調剤・払い出しを完了するための施設（たとえば病院）やシステムでのサポートに関する設定をしてもよい。</t>
+    <t>薬剤オーダ(MedicationRequest, Medication Prescription, Medication Orderなどとしても表現される）や薬剤オーダとの一部としての薬剤の払い出しあるいは提供。この情報はオーダとしてかならず伝えられるというわけではないことに注意。薬剤部門で調剤・払い出しを完了するための施設（たとえば病院）やシステムでのサポートに関する設定をしてもよい。</t>
   </si>
   <si>
     <t>Message/Body/NewRx/MedicationPrescribed/ExpirationDate</t>
@@ -1644,7 +1638,7 @@
     <t>許可されたリフィル回数</t>
   </si>
   <si>
-    <t>リフィル回数を示す整数である。患者が処方された薬を最初の払い出しから追加で受け取ることができる回数である。使用上の注意：この整数には最初の払い出しが含まれない。オーダーが「30錠に加えて3回リフィル可」であれば、このオーダーで合計で最大4回、120錠が患者に受け渡される。この数字を0とすることで，処方者がリフィルを許可しないということを明示することができる。</t>
+    <t>リフィル回数を示す整数である。患者が処方された薬を最初の払い出しから追加で受け取ることができる回数である。使用上の注意：この整数には最初の払い出しが含まれない。オーダが「30錠に加えて3回リフィル可」であれば、このオーダで合計で最大4回、120錠が患者に受け渡される。この数字を0とすることで，処方者がリフィルを許可しないということを明示することができる。</t>
   </si>
   <si>
     <t>許可された払い出し回数は，最大でこの数字に1を足したものである。</t>
@@ -1677,7 +1671,7 @@
     <t>供給される製品が使用されるか、あるいは払い出しが想定されている時間を指定する期間。</t>
   </si>
   <si>
-    <t>状況によっては、この属性は物理的に供給される量というよりも、想定されている期間に供給される薬剤の量を指定する数量の代わりに使われることもある。たとえば、薬剤が90日間供給される（オーダーされた量に基づいて）など。可能であれば、量も示した方がより正確になる。expectedSupplyDurationは外部要因に影響をうけることのある予測値である。</t>
+    <t>状況によっては、この属性は物理的に供給される量というよりも、想定されている期間に供給される薬剤の量を指定する数量の代わりに使われることもある。たとえば、薬剤が90日間供給される（オーダされた量に基づいて）など。可能であれば、量も示した方がより正確になる。expectedSupplyDurationは外部要因に影響をうけることのある予測値である。</t>
   </si>
   <si>
     <t>Message/Body/NewRx/MedicationPrescribed/Substitutions</t>
@@ -1916,10 +1910,10 @@
 </t>
   </si>
   <si>
-    <t>前回のオーダー/処方</t>
-  </si>
-  <si>
-    <t>関連する先行オーダーや処方を表現するMedicationRequest Resourceへのリンク。</t>
+    <t>前回のオーダ/処方</t>
+  </si>
+  <si>
+    <t>関連する先行オーダや処方を表現するMedicationRequest Resourceへのリンク。</t>
   </si>
   <si>
     <t>Request.replaces</t>
@@ -2296,7 +2290,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="82.3671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="62.28515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -5901,10 +5895,10 @@
         <v>253</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5930,13 +5924,13 @@
         <v>80</v>
       </c>
       <c r="W32" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="X32" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="X32" t="s" s="2">
+      <c r="Y32" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>80</v>
@@ -5969,13 +5963,13 @@
         <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
@@ -5986,7 +5980,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6012,13 +6006,13 @@
         <v>108</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -6026,7 +6020,7 @@
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>80</v>
@@ -6047,11 +6041,11 @@
         <v>183</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="Y33" t="s" s="2">
-        <v>267</v>
-      </c>
       <c r="Z33" t="s" s="2">
         <v>80</v>
       </c>
@@ -6068,7 +6062,7 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>88</v>
@@ -6083,16 +6077,16 @@
         <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AK33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -6100,7 +6094,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6126,13 +6120,13 @@
         <v>189</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6158,14 +6152,14 @@
         <v>80</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>276</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>80</v>
       </c>
@@ -6182,7 +6176,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -6200,13 +6194,13 @@
         <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AL34" t="s" s="2">
-        <v>278</v>
-      </c>
       <c r="AM34" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -6214,7 +6208,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6240,13 +6234,13 @@
         <v>108</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6275,11 +6269,11 @@
         <v>183</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="Y35" t="s" s="2">
-        <v>284</v>
-      </c>
       <c r="Z35" t="s" s="2">
         <v>80</v>
       </c>
@@ -6296,7 +6290,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6311,16 +6305,16 @@
         <v>100</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AK35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6328,7 +6322,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6351,16 +6345,16 @@
         <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6410,7 +6404,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6431,7 +6425,7 @@
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6442,7 +6436,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6465,13 +6459,13 @@
         <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6522,7 +6516,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6543,7 +6537,7 @@
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6554,7 +6548,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6577,16 +6571,16 @@
         <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6612,14 +6606,14 @@
         <v>80</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="Y38" t="s" s="2">
-        <v>305</v>
-      </c>
       <c r="Z38" t="s" s="2">
         <v>80</v>
       </c>
@@ -6636,7 +6630,7 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>88</v>
@@ -6651,24 +6645,24 @@
         <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AL38" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>310</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6691,16 +6685,16 @@
         <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6750,7 +6744,7 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>88</v>
@@ -6765,24 +6759,24 @@
         <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AL39" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>320</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6805,16 +6799,16 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6864,7 +6858,7 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6879,24 +6873,24 @@
         <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>249</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>329</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6919,16 +6913,16 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6978,7 +6972,7 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6993,16 +6987,16 @@
         <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="AK41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>336</v>
-      </c>
       <c r="AM41" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
@@ -7010,7 +7004,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7033,13 +7027,13 @@
         <v>89</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -7090,7 +7084,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -7105,24 +7099,24 @@
         <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AK42" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AK42" t="s" s="2">
+      <c r="AL42" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>345</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7145,16 +7139,16 @@
         <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>349</v>
-      </c>
       <c r="M43" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7204,7 +7198,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7219,16 +7213,16 @@
         <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -7236,7 +7230,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7259,16 +7253,16 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L44" t="s" s="2">
-        <v>355</v>
-      </c>
       <c r="M44" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7318,7 +7312,7 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7333,16 +7327,16 @@
         <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AK44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7350,7 +7344,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7376,13 +7370,13 @@
         <v>189</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7408,11 +7402,11 @@
         <v>80</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>80</v>
@@ -7430,7 +7424,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7445,13 +7439,13 @@
         <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
@@ -7462,7 +7456,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7485,16 +7479,16 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L46" t="s" s="2">
-        <v>369</v>
-      </c>
       <c r="M46" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7544,7 +7538,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7565,10 +7559,10 @@
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
@@ -7576,7 +7570,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7602,13 +7596,13 @@
         <v>189</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7634,14 +7628,14 @@
         <v>80</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="Y47" t="s" s="2">
-        <v>377</v>
-      </c>
       <c r="Z47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7658,7 +7652,7 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7673,24 +7667,24 @@
         <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AK47" t="s" s="2">
+      <c r="AL47" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>382</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7713,16 +7707,16 @@
         <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7772,7 +7766,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7787,16 +7781,16 @@
         <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>249</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
@@ -7804,7 +7798,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7827,16 +7821,16 @@
         <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7886,7 +7880,7 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7901,13 +7895,13 @@
         <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
@@ -7918,7 +7912,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7944,13 +7938,13 @@
         <v>102</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -8000,7 +7994,7 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -8021,7 +8015,7 @@
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
@@ -8032,7 +8026,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8055,16 +8049,16 @@
         <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L51" t="s" s="2">
-        <v>403</v>
-      </c>
       <c r="M51" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -8114,7 +8108,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -8129,13 +8123,13 @@
         <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>80</v>
@@ -8146,7 +8140,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8172,14 +8166,14 @@
         <v>153</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>80</v>
@@ -8228,7 +8222,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8243,13 +8237,13 @@
         <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
@@ -8260,7 +8254,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8286,13 +8280,13 @@
         <v>189</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8318,14 +8312,14 @@
         <v>80</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X53" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="Y53" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="Y53" t="s" s="2">
-        <v>417</v>
-      </c>
       <c r="Z53" t="s" s="2">
         <v>80</v>
       </c>
@@ -8342,7 +8336,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8363,7 +8357,7 @@
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
@@ -8374,7 +8368,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8397,16 +8391,16 @@
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="L54" t="s" s="2">
-        <v>422</v>
-      </c>
       <c r="M54" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8456,7 +8450,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8471,13 +8465,13 @@
         <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
@@ -8488,7 +8482,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8511,16 +8505,16 @@
         <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8570,7 +8564,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8585,13 +8579,13 @@
         <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="AK55" t="s" s="2">
+      <c r="AL55" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
@@ -8602,7 +8596,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8625,16 +8619,16 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8684,7 +8678,7 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8705,7 +8699,7 @@
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
@@ -8716,7 +8710,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8739,13 +8733,13 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8796,7 +8790,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8814,10 +8808,10 @@
         <v>80</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
@@ -8828,7 +8822,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8854,10 +8848,10 @@
         <v>168</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8940,7 +8934,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9050,10 +9044,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>80</v>
@@ -9075,13 +9069,13 @@
         <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9164,10 +9158,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>80</v>
@@ -9189,13 +9183,13 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9278,11 +9272,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9304,10 +9298,10 @@
         <v>133</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>149</v>
@@ -9362,7 +9356,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9394,7 +9388,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9417,16 +9411,16 @@
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9476,7 +9470,7 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9497,7 +9491,7 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
@@ -9508,7 +9502,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9620,7 +9614,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9734,11 +9728,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9760,10 +9754,10 @@
         <v>133</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>149</v>
@@ -9818,7 +9812,7 @@
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9850,7 +9844,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9873,16 +9867,16 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9932,7 +9926,7 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9944,27 +9938,27 @@
         <v>144</v>
       </c>
       <c r="AI67" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>477</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9987,16 +9981,16 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="K68" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>481</v>
-      </c>
       <c r="M68" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -10046,7 +10040,7 @@
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -10067,7 +10061,7 @@
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>80</v>
@@ -10078,7 +10072,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10101,16 +10095,16 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10160,7 +10154,7 @@
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10181,7 +10175,7 @@
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>80</v>
@@ -10192,7 +10186,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10218,16 +10212,16 @@
         <v>218</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>80</v>
@@ -10276,7 +10270,7 @@
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10294,10 +10288,10 @@
         <v>80</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>80</v>
@@ -10308,7 +10302,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10420,7 +10414,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10534,7 +10528,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10557,16 +10551,16 @@
         <v>89</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10616,7 +10610,7 @@
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10625,7 +10619,7 @@
         <v>88</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>100</v>
@@ -10637,18 +10631,18 @@
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10671,23 +10665,23 @@
         <v>89</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P74" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="Q74" t="s" s="2">
         <v>80</v>
@@ -10732,7 +10726,7 @@
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -10741,7 +10735,7 @@
         <v>88</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>100</v>
@@ -10753,18 +10747,18 @@
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10787,16 +10781,16 @@
         <v>80</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10846,7 +10840,7 @@
         <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -10864,21 +10858,21 @@
         <v>80</v>
       </c>
       <c r="AK75" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>518</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10901,16 +10895,16 @@
         <v>80</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10960,7 +10954,7 @@
         <v>80</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -10972,27 +10966,27 @@
         <v>144</v>
       </c>
       <c r="AI76" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN76" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>477</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11015,16 +11009,16 @@
         <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11074,7 +11068,7 @@
         <v>80</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -11092,10 +11086,10 @@
         <v>80</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>80</v>
@@ -11106,7 +11100,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11218,7 +11212,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11332,7 +11326,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11355,19 +11349,19 @@
         <v>89</v>
       </c>
       <c r="J80" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="K80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>535</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>80</v>
@@ -11416,7 +11410,7 @@
         <v>80</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11437,18 +11431,18 @@
         <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11474,20 +11468,20 @@
         <v>108</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P81" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="Q81" t="s" s="2">
         <v>80</v>
@@ -11511,28 +11505,28 @@
         <v>183</v>
       </c>
       <c r="X81" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE81" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -11553,18 +11547,18 @@
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11590,21 +11584,21 @@
         <v>168</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="R82" t="s" s="2">
         <v>80</v>
@@ -11646,7 +11640,7 @@
         <v>80</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -11667,18 +11661,18 @@
         <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11704,72 +11698,72 @@
         <v>102</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH83" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>563</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>100</v>
@@ -11781,18 +11775,18 @@
         <v>80</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11818,23 +11812,23 @@
         <v>108</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>567</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="R84" t="s" s="2">
         <v>80</v>
@@ -11876,7 +11870,7 @@
         <v>80</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -11897,18 +11891,18 @@
         <v>80</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11931,16 +11925,16 @@
         <v>80</v>
       </c>
       <c r="J85" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="K85" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>576</v>
-      </c>
       <c r="M85" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11990,7 +11984,7 @@
         <v>80</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -12011,10 +12005,10 @@
         <v>80</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>80</v>
@@ -12022,7 +12016,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12045,13 +12039,13 @@
         <v>80</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12102,7 +12096,7 @@
         <v>80</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -12120,10 +12114,10 @@
         <v>80</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>80</v>
@@ -12134,7 +12128,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12246,7 +12240,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12360,11 +12354,11 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -12386,10 +12380,10 @@
         <v>133</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="M89" t="s" s="2">
         <v>149</v>
@@ -12444,7 +12438,7 @@
         <v>80</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12476,7 +12470,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12502,13 +12496,13 @@
         <v>189</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12538,7 +12532,7 @@
       </c>
       <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>80</v>
@@ -12556,7 +12550,7 @@
         <v>80</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>88</v>
@@ -12574,21 +12568,21 @@
         <v>80</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12614,13 +12608,13 @@
         <v>189</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>595</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12646,13 +12640,13 @@
         <v>80</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>80</v>
@@ -12670,7 +12664,7 @@
         <v>80</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -12688,21 +12682,21 @@
         <v>80</v>
       </c>
       <c r="AK91" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN91" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>600</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12725,16 +12719,16 @@
         <v>80</v>
       </c>
       <c r="J92" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="K92" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>604</v>
-      </c>
       <c r="M92" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12784,7 +12778,7 @@
         <v>80</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -12799,13 +12793,13 @@
         <v>100</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>80</v>
@@ -12816,11 +12810,11 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12839,16 +12833,16 @@
         <v>80</v>
       </c>
       <c r="J93" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="K93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>612</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -12898,7 +12892,7 @@
         <v>80</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
@@ -12919,7 +12913,7 @@
         <v>80</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>80</v>
@@ -12930,7 +12924,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12953,16 +12947,16 @@
         <v>80</v>
       </c>
       <c r="J94" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="K94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>618</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -13012,7 +13006,7 @@
         <v>80</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
@@ -13027,13 +13021,13 @@
         <v>100</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>80</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -1375,7 +1375,7 @@
     <t>他の属性では伝えることができなかったMedicationRequestについての付加的情報。</t>
   </si>
   <si>
-    <t>構造化されたアノテーションが内システムでは、作成者や記録時間のない一つのアノテーションで情報を伝達している。このエレメントに情報の修正を要する可能性があるためにナラティブな情報も必要としている。Annotationsには機械処理が可能で修正される（"modifying")情報を伝達することに使うべきではない(SHOULD NOT)。これがSHOULDである理由はユーザーの行動を強制することはほぼ不可能であるからである。</t>
+    <t>構造化されたアノテーションが内システムでは、作成者や記録時間のない一つのアノテーションで情報を伝達している。このエレメントに情報の修正を要する可能性があるためにナラティブな情報も必要としている。Annotationsには機械処理が可能で修正される（"modifying")情報を伝達することに使うべきではない(SHOULD NOT)。これがSHOULDである理由はユーザの行動を強制することはほぼ不可能であるからである。</t>
   </si>
   <si>
     <t>Request.note</t>
@@ -1885,7 +1885,7 @@
     <t>代替品にしなければならなかった、あるいは代替品が認められなかった理由を示す。</t>
   </si>
   <si>
-    <t>代替品の理由を表す一般的パターンに全てのターミノロジーが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。</t>
+    <t>代替品の理由を表す一般的パターンに全てのターミノロジが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。</t>
   </si>
   <si>
     <t>A coded concept describing the reason that a different medication should (or should not) be substituted from what was prescribed.</t>
@@ -1955,7 +1955,7 @@
     <t>ライフサイクルで関心のあるイベントのリスト</t>
   </si>
   <si>
-    <t>このリソースの現在のバージョンをユーザーから見て関係していそうなキーとなる更新や状態遷移と識別される過去のバージョンのこのリソースあるいは調剤請求あるいはEvent ResourceについてのProvenance resourceへの参照。</t>
+    <t>このリソースの現在のバージョンをユーザから見て関係していそうなキーとなる更新や状態遷移と識別される過去のバージョンのこのリソースあるいは調剤請求あるいはEvent ResourceについてのProvenance resourceへの参照。</t>
   </si>
   <si>
     <t>このエレメントには全てのバージョンのMedicationRequestについてのProvenanceが取り込まれているわけではない。「関連する」あるいは重要と思われたものだけである。現在のバージョンのResourceに関連したProvenance resourceを含めてはならない(SHALL NOT)。（もし、Provenanceとして「関連した」変化と思われれば、後の更新の一部として取り込まれる必要があるだろう。それまでは、このバージョンを_revincludeを使ってprovenanceとして指定して直接クエリーを発行することができる。全てのProvenanceがこのRequestについての履歴を対象として持つべきである。）</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -1046,7 +1046,7 @@
     <t>encounter/admission/stay のいずれかとして記録された診察</t>
   </si>
   <si>
-    <t>JP Core profileでの使用は規定されていない。
+    <t>JP Coreでの使用は規定されていない。
 この対象となるリソース[x]が作成される間やこの記録が作成される対象のencounterは密接に関連している。</t>
   </si>
   <si>
@@ -1097,7 +1097,7 @@
     <t>この処方オーダが最初に記述された日</t>
   </si>
   <si>
-    <t>JP Core profileでは必須。処方指示が最初に作成された日時。秒の精度まで記録する。タイムゾーンも付与しなければならない。</t>
+    <t>JP Coreでは必須。処方指示が最初に作成された日時。秒の精度まで記録する。タイムゾーンも付与しなければならない。</t>
   </si>
   <si>
     <t>Request.authoredOn</t>
@@ -1125,7 +1125,7 @@
     <t>このオーダを発行した人・物</t>
   </si>
   <si>
-    <t>JP Core profileではこのエレメントに対する規定はない。
+    <t>JP Coreではこのエレメントに対する規定はない。
 このオーダを発行した責任のある人、組織、機器。</t>
   </si>
   <si>
@@ -1188,7 +1188,7 @@
     <t>投薬オーダの入力者</t>
   </si>
   <si>
-    <t>JP Core profileではこのエレメントに対する規定はない。
+    <t>JP Coreではこのエレメントに対する規定はない。
 たとえば口答指示や電話でのオーダにより、他の人の代理で処方を入力した人。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -770,7 +770,7 @@
     <t>MedicationRequest.status</t>
   </si>
   <si>
-    <t>オーダの現在の状態を示すコード。【JP Core仕様】"active"に固定される。</t>
+    <t>オーダの現在の状態を示すコード。【JP Core仕様】"active"に固定される</t>
   </si>
   <si>
     <t>【JP Core仕様】"active"に固定される。
@@ -825,7 +825,7 @@
     <t>MedicationRequest.intent</t>
   </si>
   <si>
-    <t>投薬リクエストの意図。【JP Core仕様】#orderで固定とする。</t>
+    <t>投薬リクエストの意図。【JP Core仕様】#orderで固定とする</t>
   </si>
   <si>
     <t>【JP Core仕様】 "order" に固定される。
@@ -12496,7 +12496,7 @@
         <v>189</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="L90" t="s" s="2">
         <v>585</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3421" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3421" uniqueCount="618">
   <si>
     <t>Property</t>
   </si>
@@ -770,11 +770,10 @@
     <t>MedicationRequest.status</t>
   </si>
   <si>
-    <t>オーダの現在の状態を示すコード。【JP Core仕様】"active"に固定される</t>
-  </si>
-  <si>
-    <t>【JP Core仕様】"active"に固定される。
-オーダの現在の状態を示すコード。一般的には active か completed の状態であるだろう。</t>
+    <t>オーダの現在の状態を示すコード。</t>
+  </si>
+  <si>
+    <t>オーダの現在の状態を示すコード。一般的には active か completed の状態であるだろう。</t>
   </si>
   <si>
     <t>このエレメントはmodifierとされている。StatusとはこのResourceが現在妥当な状態ではないことも示すからである。</t>
@@ -825,20 +824,16 @@
     <t>MedicationRequest.intent</t>
   </si>
   <si>
-    <t>投薬リクエストの意図。【JP Core仕様】#orderで固定とする</t>
-  </si>
-  <si>
-    <t>【JP Core仕様】 "order" に固定される。
-投薬リクエストの意図 が提案(proposal)、計画(plan)、あるいは他の要求によるものかを示す。</t>
+    <t>投薬指示の意図</t>
+  </si>
+  <si>
+    <t>投薬指示の意図 が提案(proposal)、計画(plan)、あるいは他の要求によるものかを示す。</t>
   </si>
   <si>
     <t>処方をオーダする場合、MedicationRequestのどの段階でオーダしたのかについて、この項目を指定することが期待される。たとえば、proposalであれば患者、関係者、医師あるいは機器からの提案として作成される。"plan"であれば、医師、患者、関係者そして機器からの提案として生成される。"original-order"は医師にしか作成できない。
 instance-orderはリクエストあるいはオーダをインスタンス化する段階であり、MedicationAdministrationレコードにも使われる。 
 intentはこのresourceが実際に適応される時に変化するため、このエレメントはmodifierとしてラベルされる。</t>
-  </si>
-  <si>
-    <t>order</t>
   </si>
   <si>
     <t>The kind of medication order.</t>
@@ -6020,7 +6015,7 @@
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>264</v>
+        <v>80</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>80</v>
@@ -6041,10 +6036,10 @@
         <v>183</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>80</v>
@@ -6077,16 +6072,16 @@
         <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AK33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -6094,7 +6089,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6120,13 +6115,13 @@
         <v>189</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6155,11 +6150,11 @@
         <v>255</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>80</v>
       </c>
@@ -6176,7 +6171,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -6194,13 +6189,13 @@
         <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AL34" t="s" s="2">
-        <v>277</v>
-      </c>
       <c r="AM34" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -6208,7 +6203,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6234,13 +6229,13 @@
         <v>108</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6269,11 +6264,11 @@
         <v>183</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="Y35" t="s" s="2">
-        <v>283</v>
-      </c>
       <c r="Z35" t="s" s="2">
         <v>80</v>
       </c>
@@ -6290,7 +6285,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6305,16 +6300,16 @@
         <v>100</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AK35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6322,7 +6317,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6345,16 +6340,16 @@
         <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6404,7 +6399,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6425,7 +6420,7 @@
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6436,7 +6431,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6459,13 +6454,13 @@
         <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6516,7 +6511,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6537,7 +6532,7 @@
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6548,7 +6543,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6571,16 +6566,16 @@
         <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6609,11 +6604,11 @@
         <v>255</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="Y38" t="s" s="2">
-        <v>304</v>
-      </c>
       <c r="Z38" t="s" s="2">
         <v>80</v>
       </c>
@@ -6630,7 +6625,7 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>88</v>
@@ -6645,24 +6640,24 @@
         <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AL38" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>309</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6685,16 +6680,16 @@
         <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6744,7 +6739,7 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>88</v>
@@ -6759,24 +6754,24 @@
         <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AL39" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>319</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6799,16 +6794,16 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6858,7 +6853,7 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6873,24 +6868,24 @@
         <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>249</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>328</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6913,16 +6908,16 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6972,7 +6967,7 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6987,16 +6982,16 @@
         <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AK41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>335</v>
-      </c>
       <c r="AM41" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
@@ -7004,7 +6999,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7027,13 +7022,13 @@
         <v>89</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -7084,7 +7079,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -7099,24 +7094,24 @@
         <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AK42" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AK42" t="s" s="2">
+      <c r="AL42" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>344</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7139,16 +7134,16 @@
         <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>348</v>
-      </c>
       <c r="M43" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7198,7 +7193,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7213,16 +7208,16 @@
         <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -7230,7 +7225,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7253,16 +7248,16 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L44" t="s" s="2">
-        <v>354</v>
-      </c>
       <c r="M44" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7312,7 +7307,7 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7327,16 +7322,16 @@
         <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AK44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7344,7 +7339,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7370,13 +7365,13 @@
         <v>189</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7406,7 +7401,7 @@
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>80</v>
@@ -7424,7 +7419,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7439,13 +7434,13 @@
         <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
@@ -7456,7 +7451,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7479,16 +7474,16 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L46" t="s" s="2">
-        <v>368</v>
-      </c>
       <c r="M46" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7538,7 +7533,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7559,10 +7554,10 @@
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
@@ -7570,7 +7565,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7596,13 +7591,13 @@
         <v>189</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7631,11 +7626,11 @@
         <v>255</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="Y47" t="s" s="2">
-        <v>376</v>
-      </c>
       <c r="Z47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7652,7 +7647,7 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7667,24 +7662,24 @@
         <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AK47" t="s" s="2">
+      <c r="AL47" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>381</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7707,16 +7702,16 @@
         <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7766,7 +7761,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7781,16 +7776,16 @@
         <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>249</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
@@ -7798,7 +7793,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7821,16 +7816,16 @@
         <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7880,7 +7875,7 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7895,13 +7890,13 @@
         <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
@@ -7912,7 +7907,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7938,13 +7933,13 @@
         <v>102</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7994,7 +7989,7 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -8015,7 +8010,7 @@
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
@@ -8026,7 +8021,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8049,16 +8044,16 @@
         <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="L51" t="s" s="2">
-        <v>402</v>
-      </c>
       <c r="M51" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -8108,7 +8103,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -8123,13 +8118,13 @@
         <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>80</v>
@@ -8140,7 +8135,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8166,14 +8161,14 @@
         <v>153</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>80</v>
@@ -8222,7 +8217,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8237,13 +8232,13 @@
         <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
@@ -8254,7 +8249,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8280,13 +8275,13 @@
         <v>189</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8315,11 +8310,11 @@
         <v>255</v>
       </c>
       <c r="X53" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="Y53" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="Y53" t="s" s="2">
-        <v>416</v>
-      </c>
       <c r="Z53" t="s" s="2">
         <v>80</v>
       </c>
@@ -8336,7 +8331,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8357,7 +8352,7 @@
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
@@ -8368,7 +8363,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8391,16 +8386,16 @@
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="L54" t="s" s="2">
-        <v>421</v>
-      </c>
       <c r="M54" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8450,7 +8445,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8465,13 +8460,13 @@
         <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
@@ -8482,7 +8477,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8505,16 +8500,16 @@
         <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8564,7 +8559,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8579,13 +8574,13 @@
         <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="AK55" t="s" s="2">
+      <c r="AL55" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
@@ -8596,7 +8591,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8619,16 +8614,16 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8678,7 +8673,7 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8699,7 +8694,7 @@
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
@@ -8710,7 +8705,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8733,13 +8728,13 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8790,7 +8785,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8808,10 +8803,10 @@
         <v>80</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
@@ -8822,7 +8817,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8848,10 +8843,10 @@
         <v>168</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8934,7 +8929,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9044,10 +9039,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B60" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>80</v>
@@ -9069,13 +9064,13 @@
         <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9158,10 +9153,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>80</v>
@@ -9183,13 +9178,13 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9272,11 +9267,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9298,10 +9293,10 @@
         <v>133</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>149</v>
@@ -9356,7 +9351,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9388,7 +9383,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9411,16 +9406,16 @@
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9470,7 +9465,7 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9491,7 +9486,7 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
@@ -9502,7 +9497,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9614,7 +9609,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9728,11 +9723,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9754,10 +9749,10 @@
         <v>133</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>149</v>
@@ -9812,7 +9807,7 @@
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9844,7 +9839,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9867,16 +9862,16 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9926,7 +9921,7 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9938,27 +9933,27 @@
         <v>144</v>
       </c>
       <c r="AI67" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="AJ67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL67" t="s" s="2">
+      <c r="AM67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>475</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9981,16 +9976,16 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="L68" t="s" s="2">
-        <v>479</v>
-      </c>
       <c r="M68" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -10040,7 +10035,7 @@
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -10061,7 +10056,7 @@
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>80</v>
@@ -10072,7 +10067,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10095,16 +10090,16 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="L69" t="s" s="2">
-        <v>483</v>
-      </c>
       <c r="M69" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10154,7 +10149,7 @@
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10175,7 +10170,7 @@
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>80</v>
@@ -10186,7 +10181,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10212,16 +10207,16 @@
         <v>218</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>80</v>
@@ -10270,7 +10265,7 @@
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10288,10 +10283,10 @@
         <v>80</v>
       </c>
       <c r="AK70" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AL70" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>80</v>
@@ -10302,7 +10297,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10414,7 +10409,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10528,7 +10523,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10551,16 +10546,16 @@
         <v>89</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10610,16 +10605,16 @@
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH73" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>100</v>
@@ -10631,18 +10626,18 @@
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN73" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>500</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10665,69 +10660,69 @@
         <v>89</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P74" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="Q74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE74" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="Q74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>506</v>
-      </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
       </c>
@@ -10735,7 +10730,7 @@
         <v>88</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>100</v>
@@ -10747,18 +10742,18 @@
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>508</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10781,16 +10776,16 @@
         <v>80</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="L75" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10840,7 +10835,7 @@
         <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -10858,21 +10853,21 @@
         <v>80</v>
       </c>
       <c r="AK75" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AL75" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="AL75" t="s" s="2">
+      <c r="AM75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>516</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10895,16 +10890,16 @@
         <v>80</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="L76" t="s" s="2">
-        <v>519</v>
-      </c>
       <c r="M76" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10954,7 +10949,7 @@
         <v>80</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -10966,27 +10961,27 @@
         <v>144</v>
       </c>
       <c r="AI76" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="AJ76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL76" t="s" s="2">
+      <c r="AM76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN76" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>475</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11009,16 +11004,16 @@
         <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11068,7 +11063,7 @@
         <v>80</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -11086,10 +11081,10 @@
         <v>80</v>
       </c>
       <c r="AK77" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AL77" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>80</v>
@@ -11100,7 +11095,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11212,7 +11207,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11326,7 +11321,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11349,19 +11344,19 @@
         <v>89</v>
       </c>
       <c r="J80" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="K80" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="K80" t="s" s="2">
+      <c r="L80" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>80</v>
@@ -11410,7 +11405,7 @@
         <v>80</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11431,18 +11426,18 @@
         <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN80" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>536</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11468,20 +11463,20 @@
         <v>108</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P81" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P81" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="Q81" t="s" s="2">
         <v>80</v>
@@ -11505,28 +11500,28 @@
         <v>183</v>
       </c>
       <c r="X81" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="Y81" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="Y81" t="s" s="2">
+      <c r="Z81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE81" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -11547,18 +11542,18 @@
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN81" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>546</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11584,63 +11579,63 @@
         <v>168</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>549</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE82" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -11661,18 +11656,18 @@
         <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN82" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>554</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11698,72 +11693,72 @@
         <v>102</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE83" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="R83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE83" t="s" s="2">
+      <c r="AF83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH83" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>100</v>
@@ -11775,18 +11770,18 @@
         <v>80</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11812,65 +11807,65 @@
         <v>108</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE84" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -11891,18 +11886,18 @@
         <v>80</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11925,16 +11920,16 @@
         <v>80</v>
       </c>
       <c r="J85" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="K85" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="K85" t="s" s="2">
+      <c r="L85" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="L85" t="s" s="2">
-        <v>574</v>
-      </c>
       <c r="M85" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11984,7 +11979,7 @@
         <v>80</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -12005,10 +12000,10 @@
         <v>80</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>80</v>
@@ -12016,7 +12011,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12039,13 +12034,13 @@
         <v>80</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12096,7 +12091,7 @@
         <v>80</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -12114,10 +12109,10 @@
         <v>80</v>
       </c>
       <c r="AK86" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AL86" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>580</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>80</v>
@@ -12128,7 +12123,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12240,7 +12235,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12354,11 +12349,11 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -12380,10 +12375,10 @@
         <v>133</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="M89" t="s" s="2">
         <v>149</v>
@@ -12438,7 +12433,7 @@
         <v>80</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12470,7 +12465,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12496,13 +12491,13 @@
         <v>189</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>585</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>586</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12532,7 +12527,7 @@
       </c>
       <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>80</v>
@@ -12550,7 +12545,7 @@
         <v>80</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>88</v>
@@ -12568,21 +12563,21 @@
         <v>80</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AL90" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN90" t="s" s="2">
         <v>588</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>589</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12608,13 +12603,13 @@
         <v>189</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12643,11 +12638,11 @@
         <v>255</v>
       </c>
       <c r="X91" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="Y91" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="Y91" t="s" s="2">
-        <v>595</v>
-      </c>
       <c r="Z91" t="s" s="2">
         <v>80</v>
       </c>
@@ -12664,7 +12659,7 @@
         <v>80</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -12682,21 +12677,21 @@
         <v>80</v>
       </c>
       <c r="AK91" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AL91" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="AL91" t="s" s="2">
+      <c r="AM91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN91" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>598</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12719,16 +12714,16 @@
         <v>80</v>
       </c>
       <c r="J92" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="K92" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="K92" t="s" s="2">
+      <c r="L92" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="L92" t="s" s="2">
-        <v>602</v>
-      </c>
       <c r="M92" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12778,7 +12773,7 @@
         <v>80</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -12793,13 +12788,13 @@
         <v>100</v>
       </c>
       <c r="AJ92" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AL92" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>604</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>80</v>
@@ -12810,11 +12805,11 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12833,16 +12828,16 @@
         <v>80</v>
       </c>
       <c r="J93" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="K93" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="K93" t="s" s="2">
+      <c r="L93" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>609</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>610</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -12892,7 +12887,7 @@
         <v>80</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
@@ -12913,7 +12908,7 @@
         <v>80</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>80</v>
@@ -12924,7 +12919,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12947,16 +12942,16 @@
         <v>80</v>
       </c>
       <c r="J94" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="K94" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="K94" t="s" s="2">
+      <c r="L94" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -13006,7 +13001,7 @@
         <v>80</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
@@ -13021,13 +13016,13 @@
         <v>100</v>
       </c>
       <c r="AJ94" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL94" t="s" s="2">
         <v>617</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>618</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>80</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -755,7 +755,7 @@
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/IdSystem/resourceInstance-identifier</t>
+    <t>http://jpfhir.jp/fhir/core/IdSystem/resourceInstance-identifier</t>
   </si>
   <si>
     <t>The value that is unique</t>
@@ -1164,7 +1164,7 @@
     <t>Performerを示さずにこのエレメントが指定された場合は、このエレメントは薬剤の投与／管理が指定の職種でなければならないと言うことを示している。Performerと共に指定された場合は、もし指定されたPerformerが実施できない場合に薬剤投与・管理を行うものについての要件が示されたことを意味する。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_PractitionerRole_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_PractitionerRole_VS</t>
   </si>
   <si>
     <t>Request.performerType</t>
@@ -1862,7 +1862,7 @@
     <t>代替品が許可されるかどうかは無視できないので、このエレメントはmodifierとしてラベルされる。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationSubstitutionNotAllowedReason_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationSubstitutionNotAllowedReason_VS</t>
   </si>
   <si>
     <t>code</t>
@@ -2299,7 +2299,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="121.76953125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="79.796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="75.55078125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>
